--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB89D5BA-A3C0-45D7-B556-2D9E096134DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B38A62-35F6-4C4B-B97D-8106B39745BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12780" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3888,7 +3888,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
@@ -8279,8 +8279,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9560,16 +9560,16 @@
         <v>185</v>
       </c>
       <c r="F18" s="112">
-        <f>SUM(D5:D8)</f>
-        <v>92323.794764485472</v>
+        <f>SUM(D5:D7)</f>
+        <v>42554.945078555997</v>
       </c>
       <c r="G18" s="112">
-        <f>SUM(E5:E8)</f>
-        <v>103369.76677783766</v>
+        <f t="shared" ref="G18:H18" si="8">SUM(E5:E7)</f>
+        <v>49903.556733855992</v>
       </c>
       <c r="H18" s="112">
-        <f>SUM(F5:F8)</f>
-        <v>50844.518002144141</v>
+        <f t="shared" si="8"/>
+        <v>30920.037627088317</v>
       </c>
       <c r="L18" s="104" t="s">
         <v>169</v>
@@ -9581,15 +9581,15 @@
         <v>111</v>
       </c>
       <c r="P18" s="173">
-        <f t="shared" ref="P18:P25" si="8">1-W4/$W$12</f>
+        <f t="shared" ref="P18:P25" si="9">1-W4/$W$12</f>
         <v>0.82657317923529827</v>
       </c>
       <c r="Q18" s="174">
-        <f t="shared" ref="Q18:Q24" si="9">1-W4/$W$11</f>
+        <f t="shared" ref="Q18:Q24" si="10">1-W4/$W$11</f>
         <v>0.73202753715113</v>
       </c>
       <c r="R18" s="174">
-        <f t="shared" ref="R18:R23" si="10">1-W4/$W$10</f>
+        <f t="shared" ref="R18:R23" si="11">1-W4/$W$10</f>
         <v>0.67174081354445081</v>
       </c>
       <c r="S18" s="174">
@@ -9658,30 +9658,30 @@
         <v>186</v>
       </c>
       <c r="F19" s="112">
-        <f>D9</f>
-        <v>282151.52747564798</v>
+        <f>SUM(D8:D10)</f>
+        <v>519547.39953818789</v>
       </c>
       <c r="G19" s="112">
-        <f t="shared" ref="G19:H19" si="11">E9</f>
-        <v>251318.93361374349</v>
+        <f t="shared" ref="G19:H19" si="12">SUM(E8:E10)</f>
+        <v>471452.93507051643</v>
       </c>
       <c r="H19" s="112">
-        <f t="shared" si="11"/>
-        <v>58904.8034364337</v>
+        <f t="shared" si="12"/>
+        <v>122568.62546059568</v>
       </c>
       <c r="O19" s="84" t="s">
         <v>114</v>
       </c>
       <c r="P19" s="173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.79158454239957576</v>
       </c>
       <c r="Q19" s="174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.67796443927935268</v>
       </c>
       <c r="R19" s="174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.60551494714016629</v>
       </c>
       <c r="S19" s="174">
@@ -9747,30 +9747,30 @@
         <v>187</v>
       </c>
       <c r="F20" s="112">
-        <f>SUM(D10:D13)</f>
-        <v>391876.39875986642</v>
+        <f>SUM(D11:D13)</f>
+        <v>204249.37638325599</v>
       </c>
       <c r="G20" s="112">
-        <f t="shared" ref="G20:H20" si="12">SUM(E10:E13)</f>
-        <v>369741.02860841871</v>
+        <f t="shared" ref="G20:H20" si="13">SUM(E11:E13)</f>
+        <v>203073.23719562744</v>
       </c>
       <c r="H20" s="112">
-        <f t="shared" si="12"/>
-        <v>97049.563561422125</v>
+        <f t="shared" si="13"/>
+        <v>53310.221912315974</v>
       </c>
       <c r="O20" s="89" t="s">
         <v>115</v>
       </c>
       <c r="P20" s="174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.73294667697694738</v>
       </c>
       <c r="Q20" s="174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58735946166276198</v>
       </c>
       <c r="R20" s="174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.49452624358065522</v>
       </c>
       <c r="S20" s="175">
@@ -9801,15 +9801,15 @@
         <v>116</v>
       </c>
       <c r="P21" s="174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.67711162025267657</v>
       </c>
       <c r="Q21" s="174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50108527640274758</v>
       </c>
       <c r="R21" s="174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.38884264622707332</v>
       </c>
       <c r="S21" s="175">
@@ -9841,15 +9841,15 @@
         <v>118</v>
       </c>
       <c r="P22" s="174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72141928210057427</v>
       </c>
       <c r="Q22" s="174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.56954777381867572</v>
       </c>
       <c r="R22" s="174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.47270739660309302</v>
       </c>
       <c r="S22" s="175">
@@ -9867,29 +9867,29 @@
       </c>
       <c r="F23" s="131">
         <f>F18/$D$14</f>
-        <v>0.12047183066805627</v>
+        <v>5.5529261450638807E-2</v>
       </c>
       <c r="G23" s="131">
         <f>G18/$E$14</f>
-        <v>0.14269122682268837</v>
+        <v>6.8886676976582226E-2</v>
       </c>
       <c r="H23" s="131">
         <f>H18/$F$14</f>
-        <v>0.24586456547937455</v>
+        <v>0.14951742910552115</v>
       </c>
       <c r="O23" s="84" t="s">
         <v>122</v>
       </c>
       <c r="P23" s="174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60126424040662463</v>
       </c>
       <c r="Q23" s="174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.38388881804434616</v>
       </c>
       <c r="R23" s="175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24528008137541124</v>
       </c>
       <c r="S23" s="173"/>
@@ -9903,26 +9903,26 @@
         <v>186</v>
       </c>
       <c r="F24" s="131">
-        <f t="shared" ref="F24:F25" si="13">F19/$D$14</f>
-        <v>0.36817497729041837</v>
+        <f t="shared" ref="F24:F25" si="14">F19/$D$14</f>
+        <v>0.67794902171060434</v>
       </c>
       <c r="G24" s="131">
-        <f t="shared" ref="G24:G25" si="14">G19/$E$14</f>
-        <v>0.34691968530979972</v>
+        <f t="shared" ref="G24:G25" si="15">G19/$E$14</f>
+        <v>0.65079181071338454</v>
       </c>
       <c r="H24" s="131">
-        <f t="shared" ref="H24:H25" si="15">H19/$F$14</f>
-        <v>0.28484101080348528</v>
+        <f t="shared" ref="H24:H25" si="16">H19/$F$14</f>
+        <v>0.59269480810109632</v>
       </c>
       <c r="O24" s="89" t="s">
         <v>125</v>
       </c>
       <c r="P24" s="174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47167717486503269</v>
       </c>
       <c r="Q24" s="175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18365586126511313</v>
       </c>
       <c r="R24" s="173"/>
@@ -9937,22 +9937,22 @@
         <v>187</v>
       </c>
       <c r="F25" s="131">
-        <f t="shared" si="13"/>
-        <v>0.51135319204152541</v>
+        <f t="shared" si="14"/>
+        <v>0.26652171683875692</v>
       </c>
       <c r="G25" s="131">
-        <f t="shared" si="14"/>
-        <v>0.5103890878675118</v>
+        <f t="shared" si="15"/>
+        <v>0.28032151231003311</v>
       </c>
       <c r="H25" s="131">
-        <f t="shared" si="15"/>
-        <v>0.46929442371714014</v>
+        <f t="shared" si="16"/>
+        <v>0.25778776279338245</v>
       </c>
       <c r="O25" s="84" t="s">
         <v>127</v>
       </c>
       <c r="P25" s="175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3528184988824381</v>
       </c>
       <c r="Q25" s="175"/>
@@ -10094,7 +10094,7 @@
         <v>6086</v>
       </c>
       <c r="G31" s="113">
-        <f t="shared" ref="G31:G56" si="16">SUM(E31:F31)</f>
+        <f t="shared" ref="G31:G56" si="17">SUM(E31:F31)</f>
         <v>21064</v>
       </c>
       <c r="H31" s="113"/>
@@ -10103,7 +10103,7 @@
       <c r="K31" s="113"/>
       <c r="L31" s="113"/>
       <c r="M31" s="113">
-        <f t="shared" ref="M31:M44" si="17">AVERAGE(G31:I31)</f>
+        <f t="shared" ref="M31:M44" si="18">AVERAGE(G31:I31)</f>
         <v>21064</v>
       </c>
       <c r="N31" s="113">
@@ -10133,7 +10133,7 @@
         <v>6086</v>
       </c>
       <c r="G32" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
       <c r="H32" s="114"/>
@@ -10142,15 +10142,15 @@
       <c r="K32" s="114"/>
       <c r="L32" s="114"/>
       <c r="M32" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30424</v>
       </c>
       <c r="N32" s="114">
-        <f t="shared" ref="N32:N57" si="18">AVERAGE(G32*1.1,J32:K32)</f>
+        <f t="shared" ref="N32:N57" si="19">AVERAGE(G32*1.1,J32:K32)</f>
         <v>33466.400000000001</v>
       </c>
       <c r="O32" s="114">
-        <f t="shared" ref="O32:O57" si="19">AVERAGE(G32*0.9,L32)</f>
+        <f t="shared" ref="O32:O57" si="20">AVERAGE(G32*0.9,L32)</f>
         <v>27381.600000000002</v>
       </c>
       <c r="P32" s="119"/>
@@ -10172,7 +10172,7 @@
         <v>6086</v>
       </c>
       <c r="G33" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
       <c r="H33" s="114"/>
@@ -10181,15 +10181,15 @@
       <c r="K33" s="114"/>
       <c r="L33" s="114"/>
       <c r="M33" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30424</v>
       </c>
       <c r="N33" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33466.400000000001</v>
       </c>
       <c r="O33" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P33" s="119"/>
@@ -10214,7 +10214,7 @@
         <v>6086</v>
       </c>
       <c r="G34" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32297</v>
       </c>
       <c r="H34" s="114"/>
@@ -10223,15 +10223,15 @@
       <c r="K34" s="114"/>
       <c r="L34" s="114"/>
       <c r="M34" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32297</v>
       </c>
       <c r="N34" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35526.700000000004</v>
       </c>
       <c r="O34" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29067.3</v>
       </c>
       <c r="P34" s="119"/>
@@ -10253,7 +10253,7 @@
         <v>6086</v>
       </c>
       <c r="G35" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34169</v>
       </c>
       <c r="H35" s="114"/>
@@ -10262,15 +10262,15 @@
       <c r="K35" s="114"/>
       <c r="L35" s="114"/>
       <c r="M35" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34169</v>
       </c>
       <c r="N35" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37585.9</v>
       </c>
       <c r="O35" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30752.100000000002</v>
       </c>
       <c r="P35" s="119"/>
@@ -10292,7 +10292,7 @@
         <v>6086</v>
       </c>
       <c r="G36" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36041</v>
       </c>
       <c r="H36" s="114"/>
@@ -10301,15 +10301,15 @@
       <c r="K36" s="114"/>
       <c r="L36" s="114"/>
       <c r="M36" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36041</v>
       </c>
       <c r="N36" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39645.100000000006</v>
       </c>
       <c r="O36" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32436.9</v>
       </c>
       <c r="P36" s="119"/>
@@ -10331,7 +10331,7 @@
         <v>6086</v>
       </c>
       <c r="G37" s="115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21064</v>
       </c>
       <c r="H37" s="115"/>
@@ -10340,11 +10340,11 @@
       <c r="K37" s="115"/>
       <c r="L37" s="115"/>
       <c r="M37" s="115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21064</v>
       </c>
       <c r="N37" s="115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23170.400000000001</v>
       </c>
       <c r="O37" s="115">
@@ -10400,7 +10400,7 @@
         <v>6086</v>
       </c>
       <c r="G38" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
       <c r="H38" s="113"/>
@@ -10409,15 +10409,15 @@
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30424</v>
       </c>
       <c r="N38" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33466.400000000001</v>
       </c>
       <c r="O38" s="113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P38" s="121">
@@ -10437,11 +10437,11 @@
         <v>11432.162401919726</v>
       </c>
       <c r="T38" s="113">
-        <f t="shared" ref="T38:U38" si="20">SUM(E9)/SUM(E6:E13)*N38</f>
+        <f t="shared" ref="T38:U38" si="21">SUM(E9)/SUM(E6:E13)*N38</f>
         <v>11946.208000785055</v>
       </c>
       <c r="U38" s="113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8171.5871871879508</v>
       </c>
       <c r="V38" s="121">
@@ -10469,7 +10469,7 @@
         <v>5326</v>
       </c>
       <c r="G39" s="115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12815</v>
       </c>
       <c r="H39" s="115">
@@ -10484,7 +10484,7 @@
         <v>9007.5</v>
       </c>
       <c r="N39" s="115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14096.500000000002</v>
       </c>
       <c r="O39" s="115">
@@ -10520,11 +10520,11 @@
         <v>2.6971994278870277E-2</v>
       </c>
       <c r="W39" s="120">
-        <f t="shared" ref="W39:X39" si="21">E9/SUM(E6:E13)*Q39</f>
+        <f t="shared" ref="W39:X39" si="22">E9/SUM(E6:E13)*Q39</f>
         <v>2.9442086985843354E-2</v>
       </c>
       <c r="X39" s="120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.6202273564329378E-2</v>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
         <v>6086</v>
       </c>
       <c r="G40" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
       <c r="H40" s="114"/>
@@ -10549,15 +10549,15 @@
       <c r="K40" s="114"/>
       <c r="L40" s="114"/>
       <c r="M40" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30424</v>
       </c>
       <c r="N40" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33466.400000000001</v>
       </c>
       <c r="O40" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P40" s="122">
@@ -10609,7 +10609,7 @@
         <v>5326</v>
       </c>
       <c r="G41" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12815</v>
       </c>
       <c r="H41" s="113"/>
@@ -10618,15 +10618,15 @@
       <c r="K41" s="113"/>
       <c r="L41" s="113"/>
       <c r="M41" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12815</v>
       </c>
       <c r="N41" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14096.500000000002</v>
       </c>
       <c r="O41" s="113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11533.5</v>
       </c>
       <c r="P41" s="121">
@@ -10646,11 +10646,11 @@
         <v>3202.1646884279426</v>
       </c>
       <c r="T41" s="113">
-        <f t="shared" ref="T41:U41" si="22">SUM(E10)/SUM(E6:E13)*N41</f>
+        <f t="shared" ref="T41:U41" si="23">SUM(E10)/SUM(E6:E13)*N41</f>
         <v>3337.0202528302325</v>
       </c>
       <c r="U41" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2555.819902348102</v>
       </c>
       <c r="V41" s="121">
@@ -10658,11 +10658,11 @@
         <v>9.8677408120900534E-2</v>
       </c>
       <c r="W41" s="121">
-        <f t="shared" ref="W41:X41" si="23">SUM(E10)/SUM(E6:E13)*Q41</f>
+        <f t="shared" ref="W41:X41" si="24">SUM(E10)/SUM(E6:E13)*Q41</f>
         <v>9.5303763892583535E-2</v>
       </c>
       <c r="X41" s="121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.1230839111318301E-2</v>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
         <v>4565</v>
       </c>
       <c r="G42" s="115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8309</v>
       </c>
       <c r="H42" s="115">
@@ -10693,15 +10693,15 @@
       <c r="K42" s="115"/>
       <c r="L42" s="115"/>
       <c r="M42" s="115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7536.333333333333</v>
       </c>
       <c r="N42" s="115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19569.95</v>
       </c>
       <c r="O42" s="115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7478.1</v>
       </c>
       <c r="P42" s="120">
@@ -10733,11 +10733,11 @@
         <v>8.6985148229525189E-2</v>
       </c>
       <c r="W42" s="120">
-        <f t="shared" ref="W42:X42" si="24">E10/SUM(E6:E13)*Q42</f>
+        <f t="shared" ref="W42:X42" si="25">E10/SUM(E6:E13)*Q42</f>
         <v>8.2590641405322962E-2</v>
       </c>
       <c r="X42" s="120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.3172573402951982E-2</v>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
         <v>6086</v>
       </c>
       <c r="G43" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32297</v>
       </c>
       <c r="H43" s="114"/>
@@ -10762,15 +10762,15 @@
       <c r="K43" s="114"/>
       <c r="L43" s="114"/>
       <c r="M43" s="114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32297</v>
       </c>
       <c r="N43" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35526.700000000004</v>
       </c>
       <c r="O43" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29067.3</v>
       </c>
       <c r="P43" s="122">
@@ -10790,11 +10790,11 @@
         <v>4362.2517866563512</v>
       </c>
       <c r="T43" s="113">
-        <f t="shared" ref="T43" si="25">SUM(E$11)/SUM(E$6:E$13)*N43</f>
+        <f t="shared" ref="T43" si="26">SUM(E$11)/SUM(E$6:E$13)*N43</f>
         <v>4107.3103757879071</v>
       </c>
       <c r="U43" s="113">
-        <f t="shared" ref="U43" si="26">SUM(F$11)/SUM(F$6:F$13)*O43</f>
+        <f t="shared" ref="U43" si="27">SUM(F$11)/SUM(F$6:F$13)*O43</f>
         <v>3794.7241279737277</v>
       </c>
       <c r="V43" s="121">
@@ -10802,11 +10802,11 @@
         <v>9.7314197405272987E-2</v>
       </c>
       <c r="W43" s="121">
-        <f t="shared" ref="W43" si="27">SUM(E$11)/SUM(E$6:E$13)*Q43</f>
+        <f t="shared" ref="W43" si="28">SUM(E$11)/SUM(E$6:E$13)*Q43</f>
         <v>8.3896324072304435E-2</v>
       </c>
       <c r="X43" s="121">
-        <f t="shared" ref="X43" si="28">SUM(F$11)/SUM(F$6:F$13)*R43</f>
+        <f t="shared" ref="X43" si="29">SUM(F$11)/SUM(F$6:F$13)*R43</f>
         <v>9.234697345696842E-2</v>
       </c>
     </row>
@@ -10822,7 +10822,7 @@
         <v>5326</v>
       </c>
       <c r="G44" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20304</v>
       </c>
       <c r="H44" s="113"/>
@@ -10831,15 +10831,15 @@
       <c r="K44" s="113"/>
       <c r="L44" s="113"/>
       <c r="M44" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20304</v>
       </c>
       <c r="N44" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22334.400000000001</v>
       </c>
       <c r="O44" s="113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18273.600000000002</v>
       </c>
       <c r="P44" s="121">
@@ -10859,11 +10859,11 @@
         <v>2742.3958967170497</v>
       </c>
       <c r="T44" s="113">
-        <f t="shared" ref="T44:U44" si="29">SUM(E$11)/SUM(E$6:E$13)*N44</f>
+        <f t="shared" ref="T44:U44" si="30">SUM(E$11)/SUM(E$6:E$13)*N44</f>
         <v>2582.1231033841427</v>
       </c>
       <c r="U44" s="113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2385.6110070402383</v>
       </c>
       <c r="V44" s="121">
@@ -10871,11 +10871,11 @@
         <v>7.4513659633715965E-2</v>
       </c>
       <c r="W44" s="121">
-        <f t="shared" ref="W44:X44" si="30">SUM(E$11)/SUM(E$6:E$13)*Q44</f>
+        <f t="shared" ref="W44:X44" si="31">SUM(E$11)/SUM(E$6:E$13)*Q44</f>
         <v>6.4070400320756282E-2</v>
       </c>
       <c r="X44" s="121">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.1161885518135765E-2</v>
       </c>
     </row>
@@ -10891,7 +10891,7 @@
         <v>4565</v>
       </c>
       <c r="G45" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13926</v>
       </c>
       <c r="H45" s="114">
@@ -10905,15 +10905,15 @@
       </c>
       <c r="L45" s="114"/>
       <c r="M45" s="114">
-        <f t="shared" ref="M45:M57" si="31">AVERAGE(G45:I45)</f>
+        <f t="shared" ref="M45:M57" si="32">AVERAGE(G45:I45)</f>
         <v>19363</v>
       </c>
       <c r="N45" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15409.3</v>
       </c>
       <c r="O45" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12533.4</v>
       </c>
       <c r="P45" s="122">
@@ -10933,11 +10933,11 @@
         <v>2615.298056941107</v>
       </c>
       <c r="T45" s="113">
-        <f t="shared" ref="T45" si="32">SUM(E$11)/SUM(E$6:E$13)*N45</f>
+        <f t="shared" ref="T45" si="33">SUM(E$11)/SUM(E$6:E$13)*N45</f>
         <v>1781.4989226026787</v>
       </c>
       <c r="U45" s="113">
-        <f t="shared" ref="U45" si="33">SUM(F$11)/SUM(F$6:F$13)*O45</f>
+        <f t="shared" ref="U45" si="34">SUM(F$11)/SUM(F$6:F$13)*O45</f>
         <v>1636.2302444859317</v>
       </c>
       <c r="V45" s="121">
@@ -10945,11 +10945,11 @@
         <v>6.9831066763315575E-2</v>
       </c>
       <c r="W45" s="121">
-        <f t="shared" ref="W45" si="34">SUM(E$11)/SUM(E$6:E$13)*Q45</f>
+        <f t="shared" ref="W45" si="35">SUM(E$11)/SUM(E$6:E$13)*Q45</f>
         <v>5.9437113518890035E-2</v>
       </c>
       <c r="X45" s="121">
-        <f t="shared" ref="X45" si="35">SUM(F$11)/SUM(F$6:F$13)*R45</f>
+        <f t="shared" ref="X45" si="36">SUM(F$11)/SUM(F$6:F$13)*R45</f>
         <v>6.7752568250727771E-2</v>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
         <v>3804</v>
       </c>
       <c r="G46" s="115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13165</v>
       </c>
       <c r="H46" s="115">
@@ -10980,15 +10980,15 @@
       </c>
       <c r="L46" s="115"/>
       <c r="M46" s="115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12682.5</v>
       </c>
       <c r="N46" s="115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10160.5</v>
       </c>
       <c r="O46" s="115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11848.5</v>
       </c>
       <c r="P46" s="120">
@@ -11020,11 +11020,11 @@
         <v>3.4994684514341713E-2</v>
       </c>
       <c r="W46" s="120">
-        <f t="shared" ref="W46:X46" si="36">E11/SUM(E6:E13)*Q46</f>
+        <f t="shared" ref="W46:X46" si="37">E11/SUM(E6:E13)*Q46</f>
         <v>2.9337023697179571E-2</v>
       </c>
       <c r="X46" s="120">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.6794477883422452E-2</v>
       </c>
     </row>
@@ -11040,7 +11040,7 @@
         <v>6086</v>
       </c>
       <c r="G47" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34169</v>
       </c>
       <c r="H47" s="114"/>
@@ -11049,15 +11049,15 @@
       <c r="K47" s="114"/>
       <c r="L47" s="114"/>
       <c r="M47" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>34169</v>
       </c>
       <c r="N47" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37585.9</v>
       </c>
       <c r="O47" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30752.100000000002</v>
       </c>
       <c r="P47" s="122">
@@ -11077,11 +11077,11 @@
         <v>2280.8985892319106</v>
       </c>
       <c r="T47" s="113">
-        <f t="shared" ref="T47" si="37">SUM(E$12)/SUM(E$6:E$13)*N47</f>
+        <f t="shared" ref="T47" si="38">SUM(E$12)/SUM(E$6:E$13)*N47</f>
         <v>2308.4294549566052</v>
       </c>
       <c r="U47" s="113">
-        <f t="shared" ref="U47" si="38">SUM(F$12)/SUM(F$6:F$13)*O47</f>
+        <f t="shared" ref="U47" si="39">SUM(F$12)/SUM(F$6:F$13)*O47</f>
         <v>1921.2154160116083</v>
       </c>
       <c r="V47" s="121">
@@ -11089,11 +11089,11 @@
         <v>5.2348892601926177E-2</v>
       </c>
       <c r="W47" s="121">
-        <f t="shared" ref="W47" si="39">SUM(E$12)/SUM(E$6:E$13)*Q47</f>
+        <f t="shared" ref="W47" si="40">SUM(E$12)/SUM(E$6:E$13)*Q47</f>
         <v>4.8257406950146416E-2</v>
       </c>
       <c r="X47" s="121">
-        <f t="shared" ref="X47" si="40">SUM(F$12)/SUM(F$6:F$13)*R47</f>
+        <f t="shared" ref="X47" si="41">SUM(F$12)/SUM(F$6:F$13)*R47</f>
         <v>4.8388466845630869E-2</v>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
         <v>5326</v>
       </c>
       <c r="G48" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22176</v>
       </c>
       <c r="H48" s="113"/>
@@ -11118,15 +11118,15 @@
       <c r="K48" s="113"/>
       <c r="L48" s="113"/>
       <c r="M48" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>22176</v>
       </c>
       <c r="N48" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24393.600000000002</v>
       </c>
       <c r="O48" s="113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19958.400000000001</v>
       </c>
       <c r="P48" s="121">
@@ -11146,11 +11146,11 @@
         <v>1480.3244787616509</v>
       </c>
       <c r="T48" s="113">
-        <f t="shared" ref="T48:U48" si="41">SUM(E$12)/SUM(E$6:E$13)*N48</f>
+        <f t="shared" ref="T48:U48" si="42">SUM(E$12)/SUM(E$6:E$13)*N48</f>
         <v>1498.1922676437027</v>
       </c>
       <c r="U48" s="113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1246.8867413583491</v>
       </c>
       <c r="V48" s="121">
@@ -11158,11 +11158,11 @@
         <v>4.3649312199432591E-2</v>
       </c>
       <c r="W48" s="121">
-        <f t="shared" ref="W48:X48" si="42">SUM(E$12)/SUM(E$6:E$13)*Q48</f>
+        <f t="shared" ref="W48:X48" si="43">SUM(E$12)/SUM(E$6:E$13)*Q48</f>
         <v>4.0030868653687851E-2</v>
       </c>
       <c r="X48" s="121">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.0577241203268805E-2</v>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
         <v>4565</v>
       </c>
       <c r="G49" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15798</v>
       </c>
       <c r="H49" s="114">
@@ -11192,15 +11192,15 @@
       <c r="K49" s="114"/>
       <c r="L49" s="114"/>
       <c r="M49" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13399</v>
       </c>
       <c r="N49" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26376.400000000001</v>
       </c>
       <c r="O49" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14218.2</v>
       </c>
       <c r="P49" s="122">
@@ -11220,11 +11220,11 @@
         <v>894.42945936721503</v>
       </c>
       <c r="T49" s="113">
-        <f t="shared" ref="T49:T50" si="43">SUM(E$12)/SUM(E$6:E$13)*N49</f>
+        <f t="shared" ref="T49:T50" si="44">SUM(E$12)/SUM(E$6:E$13)*N49</f>
         <v>1619.9707516839401</v>
       </c>
       <c r="U49" s="113">
-        <f t="shared" ref="U49:U50" si="44">SUM(F$12)/SUM(F$6:F$13)*O49</f>
+        <f t="shared" ref="U49:U50" si="45">SUM(F$12)/SUM(F$6:F$13)*O49</f>
         <v>888.27185876529575</v>
       </c>
       <c r="V49" s="121">
@@ -11232,11 +11232,11 @@
         <v>4.1862661657399811E-2</v>
       </c>
       <c r="W49" s="121">
-        <f t="shared" ref="W49:W50" si="45">SUM(E$12)/SUM(E$6:E$13)*Q49</f>
+        <f t="shared" ref="W49:W50" si="46">SUM(E$12)/SUM(E$6:E$13)*Q49</f>
         <v>3.8108339757093442E-2</v>
       </c>
       <c r="X49" s="121">
-        <f t="shared" ref="X49:X50" si="46">SUM(F$12)/SUM(F$6:F$13)*R49</f>
+        <f t="shared" ref="X49:X50" si="47">SUM(F$12)/SUM(F$6:F$13)*R49</f>
         <v>3.9320180267811942E-2</v>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
         <v>3804</v>
       </c>
       <c r="G50" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11293</v>
       </c>
       <c r="H50" s="114">
@@ -11265,15 +11265,15 @@
       <c r="K50" s="114"/>
       <c r="L50" s="114"/>
       <c r="M50" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10146.5</v>
       </c>
       <c r="N50" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15711.150000000001</v>
       </c>
       <c r="O50" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10163.700000000001</v>
       </c>
       <c r="P50" s="122">
@@ -11293,11 +11293,11 @@
         <v>677.31386741319852</v>
       </c>
       <c r="T50" s="113">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>964.93848574176673</v>
       </c>
       <c r="U50" s="113">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>634.96987599927104</v>
       </c>
       <c r="V50" s="121">
@@ -11305,11 +11305,11 @@
         <v>2.857078620501427E-2</v>
       </c>
       <c r="W50" s="121">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2.5618654799750264E-2</v>
       </c>
       <c r="X50" s="121">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.7905517746048429E-2</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
         <v>3043</v>
       </c>
       <c r="G51" s="115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8660</v>
       </c>
       <c r="H51" s="115">
@@ -11336,15 +11336,15 @@
       <c r="K51" s="115"/>
       <c r="L51" s="115"/>
       <c r="M51" s="115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4830</v>
       </c>
       <c r="N51" s="115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9526</v>
       </c>
       <c r="O51" s="115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7794</v>
       </c>
       <c r="P51" s="120">
@@ -11376,11 +11376,11 @@
         <v>1.5218510278777514E-2</v>
       </c>
       <c r="W51" s="120">
-        <f t="shared" ref="W51:X51" si="47">E12/SUM(E6:E13)*Q51</f>
+        <f t="shared" ref="W51:X51" si="48">E12/SUM(E6:E13)*Q51</f>
         <v>1.344559532603397E-2</v>
       </c>
       <c r="X51" s="120">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.4338900983817031E-2</v>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
         <v>6086</v>
       </c>
       <c r="G52" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36041</v>
       </c>
       <c r="H52" s="114"/>
@@ -11405,15 +11405,15 @@
       <c r="K52" s="114"/>
       <c r="L52" s="114"/>
       <c r="M52" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>36041</v>
       </c>
       <c r="N52" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39645.100000000006</v>
       </c>
       <c r="O52" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32436.9</v>
       </c>
       <c r="P52" s="122">
@@ -11447,7 +11447,7 @@
         <v>5326</v>
       </c>
       <c r="G53" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22176</v>
       </c>
       <c r="H53" s="113"/>
@@ -11456,15 +11456,15 @@
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
       <c r="M53" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>22176</v>
       </c>
       <c r="N53" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24393.600000000002</v>
       </c>
       <c r="O53" s="113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19958.400000000001</v>
       </c>
       <c r="P53" s="121">
@@ -11484,11 +11484,11 @@
         <v>1556.6052637176085</v>
       </c>
       <c r="T53" s="113">
-        <f t="shared" ref="T53:U53" si="48">SUM(E$13)/SUM(E$6:E$13)*N48</f>
+        <f t="shared" ref="T53:U53" si="49">SUM(E$13)/SUM(E$6:E$13)*N48</f>
         <v>2717.5942751454008</v>
       </c>
       <c r="U53" s="113">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1538.1025473834977</v>
       </c>
       <c r="V53" s="121">
@@ -11496,11 +11496,11 @@
         <v>4.5557557929006579E-2</v>
       </c>
       <c r="W53" s="121">
-        <f t="shared" ref="W53:X53" si="49">SUM(E$13)/SUM(E$6:E$13)*Q53</f>
+        <f t="shared" ref="W53:X53" si="50">SUM(E$13)/SUM(E$6:E$13)*Q53</f>
         <v>7.2564406831507527E-2</v>
       </c>
       <c r="X53" s="121">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5.1020288697720552E-2</v>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
         <v>4565</v>
       </c>
       <c r="G54" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15798</v>
       </c>
       <c r="H54" s="114"/>
@@ -11529,15 +11529,15 @@
         <v>8100</v>
       </c>
       <c r="M54" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>19649</v>
       </c>
       <c r="N54" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17377.800000000003</v>
       </c>
       <c r="O54" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11159.1</v>
       </c>
       <c r="P54" s="122">
@@ -11557,23 +11557,23 @@
         <v>940.51920673485915</v>
       </c>
       <c r="T54" s="113">
-        <f t="shared" ref="T54:T56" si="50">SUM(E$13)/SUM(E$6:E$13)*N49</f>
+        <f t="shared" ref="T54:T56" si="51">SUM(E$13)/SUM(E$6:E$13)*N49</f>
         <v>2938.4901629503288</v>
       </c>
       <c r="U54" s="113">
-        <f t="shared" ref="U54:U56" si="51">SUM(F$13)/SUM(F$6:F$13)*O49</f>
+        <f t="shared" ref="U54:U56" si="52">SUM(F$13)/SUM(F$6:F$13)*O49</f>
         <v>1095.7316036960901</v>
       </c>
       <c r="V54" s="121">
-        <f t="shared" ref="V54:V56" si="52">SUM(D$13)/SUM(D$6:D$13)*P54</f>
+        <f t="shared" ref="V54:V56" si="53">SUM(D$13)/SUM(D$6:D$13)*P54</f>
         <v>4.3652472553751862E-2</v>
       </c>
       <c r="W54" s="121">
-        <f t="shared" ref="W54:W56" si="53">SUM(E$13)/SUM(E$6:E$13)*Q54</f>
+        <f t="shared" ref="W54:W56" si="54">SUM(E$13)/SUM(E$6:E$13)*Q54</f>
         <v>6.907276803375445E-2</v>
       </c>
       <c r="X54" s="121">
-        <f t="shared" ref="X54:X56" si="54">SUM(F$13)/SUM(F$6:F$13)*R54</f>
+        <f t="shared" ref="X54:X56" si="55">SUM(F$13)/SUM(F$6:F$13)*R54</f>
         <v>4.9525094922424191E-2</v>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
         <v>3804</v>
       </c>
       <c r="G55" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11293</v>
       </c>
       <c r="H55" s="114">
@@ -11607,15 +11607,15 @@
         <v>4400</v>
       </c>
       <c r="M55" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>18864.333333333332</v>
       </c>
       <c r="N55" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21853.15</v>
       </c>
       <c r="O55" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7281.85</v>
       </c>
       <c r="P55" s="122">
@@ -11635,23 +11635,23 @@
         <v>712.21569752483379</v>
       </c>
       <c r="T55" s="113">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1750.3169395230987</v>
       </c>
       <c r="U55" s="113">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>783.26984431826475</v>
       </c>
       <c r="V55" s="121">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>2.9479495276821064E-2</v>
       </c>
       <c r="W55" s="121">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4.6389380207426861E-2</v>
       </c>
       <c r="X55" s="121">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.5948082171290856E-2</v>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
         <v>3043</v>
       </c>
       <c r="G56" s="114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8660</v>
       </c>
       <c r="H56" s="114">
@@ -11682,15 +11682,15 @@
       </c>
       <c r="L56" s="114"/>
       <c r="M56" s="114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12830</v>
       </c>
       <c r="N56" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17208.666666666668</v>
       </c>
       <c r="O56" s="114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7794</v>
       </c>
       <c r="P56" s="122">
@@ -11710,23 +11710,23 @@
         <v>339.03334342334279</v>
       </c>
       <c r="T56" s="113">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1061.2538971301933</v>
       </c>
       <c r="U56" s="113">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>600.64791036891643</v>
       </c>
       <c r="V56" s="121">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.524211365405692E-2</v>
       </c>
       <c r="W56" s="121">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.4281038001972562E-2</v>
       </c>
       <c r="X56" s="121">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.9811457157685314E-2</v>
       </c>
     </row>
@@ -11750,15 +11750,15 @@
         <v>2200</v>
       </c>
       <c r="M57" s="116">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2128</v>
       </c>
       <c r="N57" s="116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1600</v>
       </c>
       <c r="O57" s="116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1100</v>
       </c>
       <c r="P57" s="120">
@@ -11790,11 +11790,11 @@
         <v>-9.8521266588241329E-4</v>
       </c>
       <c r="W57" s="120">
-        <f t="shared" ref="W57:X57" si="55">E13/SUM(E6:E13)*Q57</f>
+        <f t="shared" ref="W57:X57" si="56">E13/SUM(E6:E13)*Q57</f>
         <v>-1.3844530588856169E-4</v>
       </c>
       <c r="X57" s="120">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.7562493385017966E-3</v>
       </c>
     </row>
@@ -11804,11 +11804,11 @@
         <v>9608.4735804205193</v>
       </c>
       <c r="T59" s="124">
-        <f t="shared" ref="T59:U59" si="56">SUM(T37,T39,T42,T46,T51,T57)</f>
+        <f t="shared" ref="T59:U59" si="57">SUM(T37,T39,T42,T46,T51,T57)</f>
         <v>14333.869646601945</v>
       </c>
       <c r="U59" s="124">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>11196.414691601361</v>
       </c>
       <c r="V59" s="123">
@@ -11816,11 +11816,11 @@
         <v>0.20172336037443986</v>
       </c>
       <c r="W59" s="123">
-        <f t="shared" ref="W59:X59" si="57">SUM(W37,W39,W42,W46,W51,W57)</f>
+        <f t="shared" ref="W59:X59" si="58">SUM(W37,W39,W42,W46,W51,W57)</f>
         <v>0.2000191767273756</v>
       </c>
       <c r="X59" s="123">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.21813305903885022</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDC093D-D2E3-42E3-820C-27D049E946A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5224CB7-E1F1-4B2A-9F92-7D6AF4C1C9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{0C9666FB-34CF-4809-B682-F7B52A796689}">
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{0C9666FB-34CF-4809-B682-F7B52A796689}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="242">
   <si>
     <t>Document type:</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>Det_G</t>
+  </si>
+  <si>
+    <t>PSet_PN</t>
   </si>
 </sst>
 </file>
@@ -2428,66 +2431,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2545,6 +2488,66 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4491,12 +4494,12 @@
       <c r="Z15" s="169"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="171"/>
       <c r="F16" s="171"/>
       <c r="G16" s="172"/>
@@ -4580,11 +4583,11 @@
       <c r="A19" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="206" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="177"/>
       <c r="F19" s="177"/>
       <c r="G19" s="178"/>
@@ -4612,11 +4615,11 @@
       <c r="A20" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
       <c r="E20" s="177"/>
       <c r="F20" s="177"/>
       <c r="G20" s="178"/>
@@ -4704,11 +4707,11 @@
       <c r="A23" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
       <c r="G23" s="169"/>
@@ -4734,11 +4737,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="176"/>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
       <c r="E24" s="169"/>
       <c r="F24" s="169"/>
       <c r="G24" s="169"/>
@@ -4794,11 +4797,11 @@
       <c r="A26" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="206"/>
       <c r="E26" s="169"/>
       <c r="F26" s="169"/>
       <c r="G26" s="169"/>
@@ -4824,11 +4827,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="176"/>
-      <c r="B27" s="184" t="s">
+      <c r="B27" s="206" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="169"/>
       <c r="F27" s="169"/>
       <c r="G27" s="169"/>
@@ -4916,11 +4919,11 @@
       <c r="A30" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="208" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="206"/>
       <c r="E30" s="181"/>
       <c r="F30" s="181"/>
       <c r="G30" s="169"/>
@@ -4948,11 +4951,11 @@
       <c r="A31" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="184" t="s">
+      <c r="B31" s="206" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="181"/>
       <c r="F31" s="181"/>
       <c r="G31" s="169"/>
@@ -6930,17 +6933,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="124"/>
-      <c r="H2" s="187" t="s">
+      <c r="H2" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="189"/>
+      <c r="I2" s="211"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
@@ -7250,10 +7253,10 @@
         <v>72</v>
       </c>
       <c r="F15" s="126"/>
-      <c r="H15" s="187" t="s">
+      <c r="H15" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="189"/>
+      <c r="I15" s="211"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -7327,12 +7330,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="192"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
       <c r="F20" s="127"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7543,17 +7546,17 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
       <c r="F38" s="124"/>
-      <c r="H38" s="193" t="s">
+      <c r="H38" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="194"/>
+      <c r="I38" s="216"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
@@ -7657,41 +7660,42 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="66" customWidth="1"/>
-    <col min="2" max="2" width="22" style="66" customWidth="1"/>
+    <col min="2" max="2" width="18" style="66" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="66" customWidth="1"/>
     <col min="4" max="8" width="10.7109375" style="66" customWidth="1"/>
     <col min="9" max="9" width="2" style="66" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="66" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="66"/>
-    <col min="15" max="15" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="66"/>
-    <col min="17" max="21" width="11.140625" style="66" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="66"/>
+    <col min="11" max="11" width="19" style="66" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="66" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="66"/>
+    <col min="16" max="16" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="66"/>
+    <col min="18" max="22" width="11.140625" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="61"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>18</v>
       </c>
@@ -7699,14 +7703,14 @@
       <c r="D4" s="67"/>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
-      <c r="K4" s="59" t="s">
+      <c r="L4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="R4" s="69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -7736,1501 +7740,1577 @@
         <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="219" t="s">
+      <c r="C6" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="219" t="s">
+      <c r="F6" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="219" t="s">
+      <c r="G6" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="219" t="s">
+      <c r="H6" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="220"/>
-      <c r="J6" s="221" t="s">
+      <c r="I6" s="200"/>
+      <c r="J6" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="221" t="s">
+      <c r="K6" s="201"/>
+      <c r="L6" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221" t="s">
+      <c r="M6" s="201"/>
+      <c r="N6" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="221" t="s">
+      <c r="O6" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="221" t="s">
+      <c r="P6" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221" t="s">
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="T6" s="221" t="s">
+      <c r="U6" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="221" t="s">
+      <c r="V6" s="201" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="222" t="str">
-        <f t="shared" ref="B7:B20" si="0">"R-RTFT-"&amp;Q7&amp;"_"&amp;R7</f>
-        <v>R-RTFT-Apt_B3_Shallow</v>
-      </c>
-      <c r="C7" s="222" t="str">
-        <f t="shared" ref="C7:C20" si="1">"Residential "&amp;Q7&amp;" - "&amp;R7&amp;" retrofit"</f>
+      <c r="B7" s="202" t="str">
+        <f>"R-RTFT-"&amp;R7</f>
+        <v>R-RTFT-Apt_B3</v>
+      </c>
+      <c r="C7" s="202" t="str">
+        <f t="shared" ref="C7:C8" si="0">"Residential "&amp;R7&amp;" - "&amp;S7&amp;" retrofit"</f>
         <v>Residential Apt_B3 - Shallow retrofit</v>
       </c>
-      <c r="D7" s="222" t="s">
+      <c r="D7" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="222" t="s">
+      <c r="E7" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="222" t="s">
+      <c r="F7" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222" t="str">
-        <f t="shared" ref="J7:J20" si="2">B7</f>
-        <v>R-RTFT-Apt_B3_Shallow</v>
-      </c>
-      <c r="K7" s="222" t="str">
-        <f>"RSDSH_"&amp;Q7</f>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202" t="str">
+        <f t="shared" ref="J7:J8" si="1">B7</f>
+        <v>R-RTFT-Apt_B3</v>
+      </c>
+      <c r="K7" s="202" t="str">
+        <f>"RSDSH_"&amp;R7</f>
         <v>RSDSH_Apt_B3</v>
       </c>
-      <c r="L7" s="222">
+      <c r="L7" s="202" t="str">
+        <f>LEFT("RSDSH_"&amp;R7,9)</f>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M7" s="202">
         <v>2020</v>
       </c>
-      <c r="M7" s="222">
+      <c r="N7" s="202">
         <v>50</v>
       </c>
-      <c r="N7" s="222">
-        <f>U7</f>
+      <c r="O7" s="202">
+        <f>V7</f>
         <v>5.7348345211809249E-4</v>
       </c>
-      <c r="O7" s="223">
+      <c r="P7" s="203">
         <f>Data!O39/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="224" t="s">
+      <c r="Q7" s="186"/>
+      <c r="R7" s="204" t="s">
         <v>223</v>
       </c>
-      <c r="R7" s="224" t="s">
+      <c r="S7" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="224">
+      <c r="T7" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="T7" s="225">
+      <c r="U7" s="205">
         <f>Data!R39</f>
         <v>5.4291065329954646E-2</v>
       </c>
-      <c r="U7" s="224">
-        <f>S7*T7</f>
+      <c r="V7" s="204">
+        <f>T7*U7</f>
         <v>5.7348345211809249E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="204" t="str">
+      <c r="B8" s="184" t="str">
+        <f t="shared" ref="B8:B24" si="2">"R-RTFT-"&amp;R8</f>
+        <v>R-RTFT-Apt_C</v>
+      </c>
+      <c r="C8" s="184" t="str">
         <f t="shared" si="0"/>
-        <v>R-RTFT-Apt_C_Shallow</v>
-      </c>
-      <c r="C8" s="204" t="str">
+        <v>Residential Apt_C - Shallow retrofit</v>
+      </c>
+      <c r="D8" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184" t="str">
         <f t="shared" si="1"/>
-        <v>Residential Apt_C - Shallow retrofit</v>
-      </c>
-      <c r="D8" s="204" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="204" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204" t="str">
-        <f t="shared" si="2"/>
-        <v>R-RTFT-Apt_C_Shallow</v>
-      </c>
-      <c r="K8" s="204" t="str">
-        <f t="shared" ref="K8:K20" si="3">"RSDSH_"&amp;Q8</f>
+        <v>R-RTFT-Apt_C</v>
+      </c>
+      <c r="K8" s="184" t="str">
+        <f t="shared" ref="K8:K24" si="3">"RSDSH_"&amp;R8</f>
         <v>RSDSH_Apt_C</v>
       </c>
-      <c r="L8" s="204">
+      <c r="L8" s="184" t="str">
+        <f t="shared" ref="L8:L24" si="4">LEFT("RSDSH_"&amp;R8,9)</f>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M8" s="184">
         <v>2020</v>
       </c>
-      <c r="M8" s="204">
+      <c r="N8" s="184">
         <v>50</v>
       </c>
-      <c r="N8" s="204">
-        <f t="shared" ref="N8:N20" si="4">U8</f>
+      <c r="O8" s="184">
+        <f t="shared" ref="O8:O9" si="5">V8</f>
         <v>6.6924201054815937E-4</v>
       </c>
-      <c r="O8" s="205">
+      <c r="P8" s="185">
         <f>Data!O39/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206" t="s">
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="R8" s="206" t="s">
+      <c r="S8" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="206">
+      <c r="T8" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="T8" s="207">
+      <c r="U8" s="187">
         <f>Data!R39</f>
         <v>5.4291065329954646E-2</v>
       </c>
-      <c r="U8" s="206">
-        <f>S8*T8</f>
+      <c r="V8" s="186">
+        <f>T8*U8</f>
         <v>6.6924201054815937E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="204" t="str">
-        <f t="shared" ref="B9:B14" si="5">"R-RTFT-"&amp;Q9&amp;"_"&amp;R9</f>
-        <v>R-RTFT-Apt_D_Shallow</v>
-      </c>
-      <c r="C9" s="204" t="str">
-        <f t="shared" ref="C9:C14" si="6">"Residential "&amp;Q9&amp;" - "&amp;R9&amp;" retrofit"</f>
+      <c r="B9" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Apt_D</v>
+      </c>
+      <c r="C9" s="184" t="str">
+        <f t="shared" ref="C9:C14" si="6">"Residential "&amp;R9&amp;" - "&amp;S9&amp;" retrofit"</f>
         <v>Residential Apt_D - Shallow retrofit</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="204" t="s">
+      <c r="E9" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="204" t="s">
+      <c r="F9" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204" t="str">
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184" t="str">
         <f t="shared" ref="J9:J14" si="7">B9</f>
-        <v>R-RTFT-Apt_D_Shallow</v>
-      </c>
-      <c r="K9" s="204" t="str">
+        <v>R-RTFT-Apt_D</v>
+      </c>
+      <c r="K9" s="184" t="str">
         <f t="shared" si="3"/>
         <v>RSDSH_Apt_D</v>
       </c>
-      <c r="L9" s="204">
+      <c r="L9" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M9" s="184">
         <v>2020</v>
       </c>
-      <c r="M9" s="204">
+      <c r="N9" s="184">
         <v>50</v>
       </c>
-      <c r="N9" s="204">
-        <f t="shared" si="4"/>
+      <c r="O9" s="184">
+        <f t="shared" si="5"/>
         <v>4.7948563185053724E-3</v>
       </c>
-      <c r="O9" s="205">
+      <c r="P9" s="185">
         <f>Data!O41/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="206" t="s">
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186" t="s">
         <v>225</v>
       </c>
-      <c r="R9" s="206" t="s">
+      <c r="S9" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S9" s="206">
+      <c r="T9" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="T9" s="207">
+      <c r="U9" s="187">
         <f>Data!R41</f>
         <v>0.36656568877551032</v>
       </c>
-      <c r="U9" s="206">
-        <f t="shared" ref="U9:U12" si="8">S9*T9</f>
+      <c r="V9" s="186">
+        <f t="shared" ref="V9:V12" si="8">T9*U9</f>
         <v>4.7948563185053724E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="204" t="str">
-        <f t="shared" si="5"/>
-        <v>R-RTFT-Apt_E_Deep</v>
-      </c>
-      <c r="C10" s="204" t="str">
+      <c r="B10" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Apt_E</v>
+      </c>
+      <c r="C10" s="184" t="str">
         <f t="shared" si="6"/>
         <v>Residential Apt_E - Deep retrofit</v>
       </c>
-      <c r="D10" s="204" t="s">
+      <c r="D10" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="204" t="s">
+      <c r="F10" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204" t="str">
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184" t="str">
         <f t="shared" si="7"/>
-        <v>R-RTFT-Apt_E_Deep</v>
-      </c>
-      <c r="K10" s="204" t="str">
-        <f t="shared" ref="K10:K12" si="9">"RSDSH_"&amp;Q10</f>
+        <v>R-RTFT-Apt_E</v>
+      </c>
+      <c r="K10" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Apt_E</v>
       </c>
-      <c r="L10" s="204">
+      <c r="L10" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M10" s="184">
         <v>2020</v>
       </c>
-      <c r="M10" s="204">
+      <c r="N10" s="184">
         <v>50</v>
       </c>
-      <c r="N10" s="204">
-        <f t="shared" ref="N10:N12" si="10">U10</f>
+      <c r="O10" s="184">
+        <f t="shared" ref="O10:O12" si="9">V10</f>
         <v>9.2808418616751667E-3</v>
       </c>
-      <c r="O10" s="205">
+      <c r="P10" s="185">
         <f>Data!O44/1000</f>
         <v>18.273600000000002</v>
       </c>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="206" t="s">
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186" t="s">
         <v>226</v>
       </c>
-      <c r="R10" s="206" t="s">
+      <c r="S10" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="206">
+      <c r="T10" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="T10" s="207">
+      <c r="U10" s="187">
         <f>Data!R44</f>
         <v>0.5450946643717729</v>
       </c>
-      <c r="U10" s="206">
+      <c r="V10" s="186">
         <f t="shared" si="8"/>
         <v>9.2808418616751667E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="204" t="str">
-        <f t="shared" si="5"/>
-        <v>R-RTFT-Apt_F_Deep</v>
-      </c>
-      <c r="C11" s="204" t="str">
+      <c r="B11" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Apt_F</v>
+      </c>
+      <c r="C11" s="184" t="str">
         <f t="shared" si="6"/>
         <v>Residential Apt_F - Deep retrofit</v>
       </c>
-      <c r="D11" s="204" t="s">
+      <c r="D11" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="204" t="s">
+      <c r="E11" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="204" t="s">
+      <c r="F11" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204" t="str">
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184" t="str">
         <f t="shared" si="7"/>
-        <v>R-RTFT-Apt_F_Deep</v>
-      </c>
-      <c r="K11" s="204" t="str">
+        <v>R-RTFT-Apt_F</v>
+      </c>
+      <c r="K11" s="184" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Apt_F</v>
+      </c>
+      <c r="L11" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M11" s="184">
+        <v>2020</v>
+      </c>
+      <c r="N11" s="184">
+        <v>50</v>
+      </c>
+      <c r="O11" s="184">
         <f t="shared" si="9"/>
-        <v>RSDSH_Apt_F</v>
-      </c>
-      <c r="L11" s="204">
-        <v>2020</v>
-      </c>
-      <c r="M11" s="204">
-        <v>50</v>
-      </c>
-      <c r="N11" s="204">
-        <f t="shared" si="10"/>
         <v>1.4628662883294537E-2</v>
       </c>
-      <c r="O11" s="205">
+      <c r="P11" s="185">
         <f>Data!O48/1000</f>
         <v>19.958400000000001</v>
       </c>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="206" t="s">
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="R11" s="206" t="s">
+      <c r="S11" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="206">
+      <c r="T11" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="T11" s="207">
+      <c r="U11" s="187">
         <f>Data!R48</f>
         <v>0.64950310559006208</v>
       </c>
-      <c r="U11" s="206">
+      <c r="V11" s="186">
         <f t="shared" si="8"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="215" t="str">
-        <f t="shared" si="5"/>
-        <v>R-RTFT-Apt_G_Deep</v>
-      </c>
-      <c r="C12" s="215" t="str">
+      <c r="B12" s="195" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Apt_G</v>
+      </c>
+      <c r="C12" s="195" t="str">
         <f t="shared" si="6"/>
         <v>Residential Apt_G - Deep retrofit</v>
       </c>
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="215" t="s">
+      <c r="E12" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="215" t="s">
+      <c r="F12" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215" t="str">
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195" t="str">
         <f t="shared" si="7"/>
-        <v>R-RTFT-Apt_G_Deep</v>
-      </c>
-      <c r="K12" s="215" t="str">
+        <v>R-RTFT-Apt_G</v>
+      </c>
+      <c r="K12" s="195" t="str">
+        <f t="shared" si="3"/>
+        <v>RSDSH_Apt_G</v>
+      </c>
+      <c r="L12" s="195" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="M12" s="195">
+        <v>2020</v>
+      </c>
+      <c r="N12" s="195">
+        <v>50</v>
+      </c>
+      <c r="O12" s="195">
         <f t="shared" si="9"/>
-        <v>RSDSH_Apt_G</v>
-      </c>
-      <c r="L12" s="215">
-        <v>2020</v>
-      </c>
-      <c r="M12" s="215">
-        <v>50</v>
-      </c>
-      <c r="N12" s="215">
-        <f t="shared" si="10"/>
         <v>2.1717043475893594E-2</v>
       </c>
-      <c r="O12" s="216">
+      <c r="P12" s="196">
         <f>Data!O53/1000</f>
         <v>19.958400000000001</v>
       </c>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="217" t="s">
+      <c r="Q12" s="186"/>
+      <c r="R12" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="R12" s="217" t="s">
+      <c r="S12" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="217">
+      <c r="T12" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="T12" s="218">
+      <c r="U12" s="198">
         <f>Data!R53</f>
         <v>0.66203864734299511</v>
       </c>
-      <c r="U12" s="217">
+      <c r="V12" s="197">
         <f t="shared" si="8"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="222" t="str">
-        <f t="shared" si="5"/>
-        <v>R-RTFT-Att_B3_Shallow</v>
-      </c>
-      <c r="C13" s="222" t="str">
+      <c r="B13" s="202" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_B3</v>
+      </c>
+      <c r="C13" s="202" t="str">
         <f t="shared" si="6"/>
         <v>Residential Att_B3 - Shallow retrofit</v>
       </c>
-      <c r="D13" s="222" t="s">
+      <c r="D13" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="222" t="s">
+      <c r="E13" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="222" t="s">
+      <c r="F13" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="222" t="str">
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202" t="str">
         <f t="shared" si="7"/>
-        <v>R-RTFT-Att_B3_Shallow</v>
-      </c>
-      <c r="K13" s="222" t="str">
-        <f>"RSDSH_"&amp;Q13</f>
+        <v>R-RTFT-Att_B3</v>
+      </c>
+      <c r="K13" s="202" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_B3</v>
       </c>
-      <c r="L13" s="222">
+      <c r="L13" s="202" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M13" s="202">
         <v>2020</v>
       </c>
-      <c r="M13" s="222">
+      <c r="N13" s="202">
         <v>50</v>
       </c>
-      <c r="N13" s="222">
-        <f>U13</f>
+      <c r="O13" s="202">
+        <f>V13</f>
         <v>7.5821699232505875E-4</v>
       </c>
-      <c r="O13" s="223">
+      <c r="P13" s="203">
         <f>Data!M39/1000</f>
         <v>9.0075000000000003</v>
       </c>
-      <c r="P13" s="206"/>
-      <c r="Q13" s="224" t="s">
+      <c r="Q13" s="186"/>
+      <c r="R13" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="R13" s="224" t="s">
+      <c r="S13" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="224">
+      <c r="T13" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="T13" s="225">
+      <c r="U13" s="205">
         <f>Data!P39</f>
         <v>7.1779592092092059E-2</v>
       </c>
-      <c r="U13" s="224">
-        <f>S13*T13</f>
+      <c r="V13" s="204">
+        <f>T13*U13</f>
         <v>7.5821699232505875E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="204" t="str">
-        <f t="shared" si="5"/>
-        <v>R-RTFT-Att_C_Shallow</v>
-      </c>
-      <c r="C14" s="204" t="str">
+      <c r="B14" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_C</v>
+      </c>
+      <c r="C14" s="184" t="str">
         <f t="shared" si="6"/>
         <v>Residential Att_C - Shallow retrofit</v>
       </c>
-      <c r="D14" s="204" t="s">
+      <c r="D14" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204" t="str">
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184" t="str">
         <f t="shared" si="7"/>
-        <v>R-RTFT-Att_C_Shallow</v>
-      </c>
-      <c r="K14" s="204" t="str">
-        <f t="shared" ref="K14:K18" si="11">"RSDSH_"&amp;Q14</f>
+        <v>R-RTFT-Att_C</v>
+      </c>
+      <c r="K14" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_C</v>
       </c>
-      <c r="L14" s="204">
+      <c r="L14" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M14" s="184">
         <v>2020</v>
       </c>
-      <c r="M14" s="204">
+      <c r="N14" s="184">
         <v>50</v>
       </c>
-      <c r="N14" s="204">
-        <f t="shared" ref="N14:N18" si="12">U14</f>
+      <c r="O14" s="184">
+        <f t="shared" ref="O14:O18" si="10">V14</f>
         <v>8.8482180697850338E-4</v>
       </c>
-      <c r="O14" s="205">
+      <c r="P14" s="185">
         <f>Data!M39/1000</f>
         <v>9.0075000000000003</v>
       </c>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="206" t="s">
+      <c r="Q14" s="186"/>
+      <c r="R14" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="R14" s="206" t="s">
+      <c r="S14" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S14" s="206">
+      <c r="T14" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="T14" s="207">
+      <c r="U14" s="187">
         <f>Data!P39</f>
         <v>7.1779592092092059E-2</v>
       </c>
-      <c r="U14" s="206">
-        <f>S14*T14</f>
+      <c r="V14" s="186">
+        <f>T14*U14</f>
         <v>8.8482180697850338E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="204" t="str">
-        <f t="shared" ref="B15:B20" si="13">"R-RTFT-"&amp;Q15&amp;"_"&amp;R15</f>
-        <v>R-RTFT-Att_D_Shallow</v>
-      </c>
-      <c r="C15" s="204" t="str">
-        <f t="shared" ref="C15:C20" si="14">"Residential "&amp;Q15&amp;" - "&amp;R15&amp;" retrofit"</f>
+      <c r="B15" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_D</v>
+      </c>
+      <c r="C15" s="184" t="str">
+        <f t="shared" ref="C15:C20" si="11">"Residential "&amp;R15&amp;" - "&amp;S15&amp;" retrofit"</f>
         <v>Residential Att_D - Shallow retrofit</v>
       </c>
-      <c r="D15" s="204" t="s">
+      <c r="D15" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="204" t="s">
+      <c r="E15" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="204" t="s">
+      <c r="F15" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204" t="str">
-        <f t="shared" ref="J15:J20" si="15">B15</f>
-        <v>R-RTFT-Att_D_Shallow</v>
-      </c>
-      <c r="K15" s="204" t="str">
-        <f t="shared" si="11"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184" t="str">
+        <f t="shared" ref="J15:J20" si="12">B15</f>
+        <v>R-RTFT-Att_D</v>
+      </c>
+      <c r="K15" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_D</v>
       </c>
-      <c r="L15" s="204">
+      <c r="L15" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M15" s="184">
         <v>2020</v>
       </c>
-      <c r="M15" s="204">
+      <c r="N15" s="184">
         <v>50</v>
       </c>
-      <c r="N15" s="204">
-        <f t="shared" si="12"/>
+      <c r="O15" s="184">
+        <f t="shared" si="10"/>
         <v>5.1655487686243003E-3</v>
       </c>
-      <c r="O15" s="205">
+      <c r="P15" s="185">
         <f>Data!M41/1000</f>
         <v>12.815</v>
       </c>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="206" t="s">
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="R15" s="206" t="s">
+      <c r="S15" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="206">
+      <c r="T15" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="T15" s="207">
+      <c r="U15" s="187">
         <f>Data!P41</f>
         <v>0.39490504334121357</v>
       </c>
-      <c r="U15" s="206">
-        <f t="shared" ref="U15:U18" si="16">S15*T15</f>
+      <c r="V15" s="186">
+        <f t="shared" ref="V15:V18" si="13">T15*U15</f>
         <v>5.1655487686243003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="204" t="str">
-        <f t="shared" si="13"/>
-        <v>R-RTFT-Att_E_Deep</v>
-      </c>
-      <c r="C16" s="204" t="str">
-        <f t="shared" si="14"/>
+      <c r="B16" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_E</v>
+      </c>
+      <c r="C16" s="184" t="str">
+        <f t="shared" si="11"/>
         <v>Residential Att_E - Deep retrofit</v>
       </c>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="204" t="s">
+      <c r="E16" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="204" t="s">
+      <c r="F16" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204" t="str">
-        <f t="shared" si="15"/>
-        <v>R-RTFT-Att_E_Deep</v>
-      </c>
-      <c r="K16" s="204" t="str">
-        <f t="shared" si="11"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184" t="str">
+        <f t="shared" si="12"/>
+        <v>R-RTFT-Att_E</v>
+      </c>
+      <c r="K16" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_E</v>
       </c>
-      <c r="L16" s="204">
+      <c r="L16" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M16" s="184">
         <v>2020</v>
       </c>
-      <c r="M16" s="204">
+      <c r="N16" s="184">
         <v>50</v>
       </c>
-      <c r="N16" s="204">
-        <f t="shared" si="12"/>
+      <c r="O16" s="184">
+        <f t="shared" si="10"/>
         <v>9.3929668522173305E-3</v>
       </c>
-      <c r="O16" s="205">
+      <c r="P16" s="185">
         <f>Data!M44/1000</f>
         <v>20.303999999999998</v>
       </c>
-      <c r="P16" s="206"/>
-      <c r="Q16" s="206" t="s">
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="R16" s="206" t="s">
+      <c r="S16" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="206">
+      <c r="T16" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="T16" s="207">
+      <c r="U16" s="187">
         <f>Data!P44</f>
         <v>0.55168013743533795</v>
       </c>
-      <c r="U16" s="206">
-        <f t="shared" si="16"/>
+      <c r="V16" s="186">
+        <f t="shared" si="13"/>
         <v>9.3929668522173305E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="204" t="str">
-        <f t="shared" si="13"/>
-        <v>R-RTFT-Att_F_Deep</v>
-      </c>
-      <c r="C17" s="204" t="str">
-        <f t="shared" si="14"/>
+      <c r="B17" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_F</v>
+      </c>
+      <c r="C17" s="184" t="str">
+        <f t="shared" si="11"/>
         <v>Residential Att_F - Deep retrofit</v>
       </c>
-      <c r="D17" s="204" t="s">
+      <c r="D17" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="204" t="s">
+      <c r="E17" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="204" t="s">
+      <c r="F17" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204" t="str">
-        <f t="shared" si="15"/>
-        <v>R-RTFT-Att_F_Deep</v>
-      </c>
-      <c r="K17" s="204" t="str">
-        <f t="shared" si="11"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184" t="str">
+        <f t="shared" si="12"/>
+        <v>R-RTFT-Att_F</v>
+      </c>
+      <c r="K17" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_F</v>
       </c>
-      <c r="L17" s="204">
+      <c r="L17" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M17" s="184">
         <v>2020</v>
       </c>
-      <c r="M17" s="204">
+      <c r="N17" s="184">
         <v>50</v>
       </c>
-      <c r="N17" s="204">
-        <f>U17</f>
+      <c r="O17" s="184">
+        <f>V17</f>
         <v>1.4727434391205585E-2</v>
       </c>
-      <c r="O17" s="205">
+      <c r="P17" s="185">
         <f>Data!M48/1000</f>
         <v>22.175999999999998</v>
       </c>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206" t="s">
+      <c r="Q17" s="186"/>
+      <c r="R17" s="186" t="s">
         <v>233</v>
       </c>
-      <c r="R17" s="206" t="s">
+      <c r="S17" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="206">
+      <c r="T17" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="T17" s="207">
+      <c r="U17" s="187">
         <f>Data!P48</f>
         <v>0.65388849621966627</v>
       </c>
-      <c r="U17" s="206">
-        <f t="shared" si="16"/>
+      <c r="V17" s="186">
+        <f t="shared" si="13"/>
         <v>1.4727434391205585E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="215" t="str">
-        <f t="shared" si="13"/>
-        <v>R-RTFT-Att_G_Deep</v>
-      </c>
-      <c r="C18" s="215" t="str">
-        <f t="shared" si="14"/>
+      <c r="B18" s="195" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Att_G</v>
+      </c>
+      <c r="C18" s="195" t="str">
+        <f t="shared" si="11"/>
         <v>Residential Att_G - Deep retrofit</v>
       </c>
-      <c r="D18" s="215" t="s">
+      <c r="D18" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="215" t="s">
+      <c r="E18" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="215" t="s">
+      <c r="F18" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="215"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="215" t="str">
-        <f t="shared" si="15"/>
-        <v>R-RTFT-Att_G_Deep</v>
-      </c>
-      <c r="K18" s="215" t="str">
-        <f t="shared" si="11"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195" t="str">
+        <f t="shared" si="12"/>
+        <v>R-RTFT-Att_G</v>
+      </c>
+      <c r="K18" s="195" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Att_G</v>
       </c>
-      <c r="L18" s="215">
+      <c r="L18" s="195" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Att</v>
+      </c>
+      <c r="M18" s="195">
         <v>2020</v>
       </c>
-      <c r="M18" s="215">
+      <c r="N18" s="195">
         <v>50</v>
       </c>
-      <c r="N18" s="215">
-        <f t="shared" si="12"/>
+      <c r="O18" s="195">
+        <f t="shared" si="10"/>
         <v>2.1290335851398529E-2</v>
       </c>
-      <c r="O18" s="216">
+      <c r="P18" s="196">
         <f>Data!M53/1000</f>
         <v>22.175999999999998</v>
       </c>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="217" t="s">
+      <c r="Q18" s="186"/>
+      <c r="R18" s="197" t="s">
         <v>234</v>
       </c>
-      <c r="R18" s="217" t="s">
+      <c r="S18" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="217">
+      <c r="T18" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="T18" s="218">
+      <c r="U18" s="198">
         <f>Data!P53</f>
         <v>0.64903057196453795</v>
       </c>
-      <c r="U18" s="217">
-        <f t="shared" si="16"/>
+      <c r="V18" s="197">
+        <f t="shared" si="13"/>
         <v>2.1290335851398529E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="222" t="str">
-        <f t="shared" si="13"/>
-        <v>R-RTFT-Det_B3_Shallow</v>
-      </c>
-      <c r="C19" s="222" t="str">
-        <f t="shared" si="14"/>
+      <c r="B19" s="202" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_B3</v>
+      </c>
+      <c r="C19" s="202" t="str">
+        <f t="shared" si="11"/>
         <v>Residential Det_B3 - Shallow retrofit</v>
       </c>
-      <c r="D19" s="222" t="s">
+      <c r="D19" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="222" t="s">
+      <c r="E19" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="222" t="s">
+      <c r="F19" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="222"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="222" t="str">
-        <f t="shared" si="15"/>
-        <v>R-RTFT-Det_B3_Shallow</v>
-      </c>
-      <c r="K19" s="222" t="str">
-        <f>"RSDSH_"&amp;Q19</f>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202" t="str">
+        <f t="shared" si="12"/>
+        <v>R-RTFT-Det_B3</v>
+      </c>
+      <c r="K19" s="202" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_B3</v>
       </c>
-      <c r="L19" s="222">
+      <c r="L19" s="202" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M19" s="202">
         <v>2020</v>
       </c>
-      <c r="M19" s="222">
+      <c r="N19" s="202">
         <v>50</v>
       </c>
-      <c r="N19" s="222">
-        <f>U19</f>
+      <c r="O19" s="202">
+        <f>V19</f>
         <v>8.7124448896018676E-4</v>
       </c>
-      <c r="O19" s="223">
+      <c r="P19" s="203">
         <f>Data!N39/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="224" t="s">
+      <c r="Q19" s="186"/>
+      <c r="R19" s="204" t="s">
         <v>235</v>
       </c>
-      <c r="R19" s="224" t="s">
+      <c r="S19" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="224">
+      <c r="T19" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="T19" s="225">
+      <c r="U19" s="205">
         <f>Data!Q39</f>
         <v>8.2479784366576991E-2</v>
       </c>
-      <c r="U19" s="224">
-        <f>S19*T19</f>
+      <c r="V19" s="204">
+        <f>T19*U19</f>
         <v>8.7124448896018676E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="204" t="str">
-        <f t="shared" si="13"/>
-        <v>R-RTFT-Det_C_Shallow</v>
-      </c>
-      <c r="C20" s="204" t="str">
-        <f t="shared" si="14"/>
+      <c r="B20" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_C</v>
+      </c>
+      <c r="C20" s="184" t="str">
+        <f t="shared" si="11"/>
         <v>Residential Det_C - Shallow retrofit</v>
       </c>
-      <c r="D20" s="204" t="s">
+      <c r="D20" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="204" t="s">
+      <c r="E20" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="204" t="s">
+      <c r="F20" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G20" s="204"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204" t="str">
-        <f t="shared" si="15"/>
-        <v>R-RTFT-Det_C_Shallow</v>
-      </c>
-      <c r="K20" s="204" t="str">
-        <f t="shared" ref="K20:K24" si="17">"RSDSH_"&amp;Q20</f>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184" t="str">
+        <f t="shared" si="12"/>
+        <v>R-RTFT-Det_C</v>
+      </c>
+      <c r="K20" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_C</v>
       </c>
-      <c r="L20" s="204">
+      <c r="L20" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M20" s="184">
         <v>2020</v>
       </c>
-      <c r="M20" s="204">
+      <c r="N20" s="184">
         <v>50</v>
       </c>
-      <c r="N20" s="204">
-        <f t="shared" ref="N20:N24" si="18">U20</f>
+      <c r="O20" s="184">
+        <f t="shared" ref="O20:O24" si="14">V20</f>
         <v>1.0167222982933634E-3</v>
       </c>
-      <c r="O20" s="205">
+      <c r="P20" s="185">
         <f>Data!N39/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="206" t="s">
+      <c r="Q20" s="186"/>
+      <c r="R20" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="R20" s="206" t="s">
+      <c r="S20" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="206">
+      <c r="T20" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="T20" s="207">
+      <c r="U20" s="187">
         <f>Data!Q39</f>
         <v>8.2479784366576991E-2</v>
       </c>
-      <c r="U20" s="206">
-        <f>S20*T20</f>
+      <c r="V20" s="186">
+        <f>T20*U20</f>
         <v>1.0167222982933634E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="204" t="str">
-        <f t="shared" ref="B21:B24" si="19">"R-RTFT-"&amp;Q21&amp;"_"&amp;R21</f>
-        <v>R-RTFT-Det_D_Shallow</v>
-      </c>
-      <c r="C21" s="204" t="str">
-        <f t="shared" ref="C21:C24" si="20">"Residential "&amp;Q21&amp;" - "&amp;R21&amp;" retrofit"</f>
+      <c r="B21" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_D</v>
+      </c>
+      <c r="C21" s="184" t="str">
+        <f t="shared" ref="C21:C24" si="15">"Residential "&amp;R21&amp;" - "&amp;S21&amp;" retrofit"</f>
         <v>Residential Det_D - Shallow retrofit</v>
       </c>
-      <c r="D21" s="204" t="s">
+      <c r="D21" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="204" t="s">
+      <c r="E21" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="204" t="s">
+      <c r="F21" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204" t="str">
-        <f t="shared" ref="J21:J24" si="21">B21</f>
-        <v>R-RTFT-Det_D_Shallow</v>
-      </c>
-      <c r="K21" s="204" t="str">
-        <f t="shared" si="17"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184" t="str">
+        <f t="shared" ref="J21:J24" si="16">B21</f>
+        <v>R-RTFT-Det_D</v>
+      </c>
+      <c r="K21" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_D</v>
       </c>
-      <c r="L21" s="204">
+      <c r="L21" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M21" s="184">
         <v>2020</v>
       </c>
-      <c r="M21" s="204">
+      <c r="N21" s="184">
         <v>50</v>
       </c>
-      <c r="N21" s="204">
-        <f t="shared" si="18"/>
+      <c r="O21" s="184">
+        <f t="shared" si="14"/>
         <v>5.2660659296241401E-3</v>
       </c>
-      <c r="O21" s="205">
+      <c r="P21" s="185">
         <f>Data!N41/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="206" t="s">
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="R21" s="206" t="s">
+      <c r="S21" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="206">
+      <c r="T21" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="T21" s="207">
+      <c r="U21" s="187">
         <f>Data!Q41</f>
         <v>0.40258955772665206</v>
       </c>
-      <c r="U21" s="206">
-        <f t="shared" ref="U21:U24" si="22">S21*T21</f>
+      <c r="V21" s="186">
+        <f t="shared" ref="V21:V24" si="17">T21*U21</f>
         <v>5.2660659296241401E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="204" t="str">
-        <f t="shared" si="19"/>
-        <v>R-RTFT-Det_E_Deep</v>
-      </c>
-      <c r="C22" s="204" t="str">
-        <f t="shared" si="20"/>
+      <c r="B22" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_E</v>
+      </c>
+      <c r="C22" s="184" t="str">
+        <f t="shared" si="15"/>
         <v>Residential Det_E - Deep retrofit</v>
       </c>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="204" t="s">
+      <c r="E22" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="204" t="s">
+      <c r="F22" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204" t="str">
-        <f t="shared" si="21"/>
-        <v>R-RTFT-Det_E_Deep</v>
-      </c>
-      <c r="K22" s="204" t="str">
-        <f t="shared" si="17"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184" t="str">
+        <f t="shared" si="16"/>
+        <v>R-RTFT-Det_E</v>
+      </c>
+      <c r="K22" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_E</v>
       </c>
-      <c r="L22" s="204">
+      <c r="L22" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M22" s="184">
         <v>2020</v>
       </c>
-      <c r="M22" s="204">
+      <c r="N22" s="184">
         <v>50</v>
       </c>
-      <c r="N22" s="204">
-        <f t="shared" si="18"/>
+      <c r="O22" s="184">
+        <f t="shared" si="14"/>
         <v>9.4356152934719911E-3</v>
       </c>
-      <c r="O22" s="205">
+      <c r="P22" s="185">
         <f>Data!N44/1000</f>
         <v>22.334400000000002</v>
       </c>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="206" t="s">
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186" t="s">
         <v>238</v>
       </c>
-      <c r="R22" s="206" t="s">
+      <c r="S22" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="206">
+      <c r="T22" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="T22" s="207">
+      <c r="U22" s="187">
         <f>Data!Q44</f>
         <v>0.55418502202643172</v>
       </c>
-      <c r="U22" s="206">
-        <f t="shared" si="22"/>
+      <c r="V22" s="186">
+        <f t="shared" si="17"/>
         <v>9.4356152934719911E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="204" t="str">
-        <f t="shared" si="19"/>
-        <v>R-RTFT-Det_F_Deep</v>
-      </c>
-      <c r="C23" s="204" t="str">
-        <f t="shared" si="20"/>
+      <c r="B23" s="184" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_F</v>
+      </c>
+      <c r="C23" s="184" t="str">
+        <f t="shared" si="15"/>
         <v>Residential Det_F - Deep retrofit</v>
       </c>
-      <c r="D23" s="204" t="s">
+      <c r="D23" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="204" t="s">
+      <c r="E23" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="204" t="s">
+      <c r="F23" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204" t="str">
-        <f t="shared" si="21"/>
-        <v>R-RTFT-Det_F_Deep</v>
-      </c>
-      <c r="K23" s="204" t="str">
-        <f t="shared" si="17"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184" t="str">
+        <f t="shared" si="16"/>
+        <v>R-RTFT-Det_F</v>
+      </c>
+      <c r="K23" s="184" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_F</v>
       </c>
-      <c r="L23" s="204">
+      <c r="L23" s="184" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M23" s="184">
         <v>2020</v>
       </c>
-      <c r="M23" s="204">
+      <c r="N23" s="184">
         <v>50</v>
       </c>
-      <c r="N23" s="204">
-        <f t="shared" si="18"/>
+      <c r="O23" s="184">
+        <f t="shared" si="14"/>
         <v>1.4628662883294537E-2</v>
       </c>
-      <c r="O23" s="205">
+      <c r="P23" s="185">
         <f>Data!N48/1000</f>
         <v>24.393600000000003</v>
       </c>
-      <c r="P23" s="206"/>
-      <c r="Q23" s="206" t="s">
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186" t="s">
         <v>239</v>
       </c>
-      <c r="R23" s="206" t="s">
+      <c r="S23" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S23" s="206">
+      <c r="T23" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="T23" s="207">
+      <c r="U23" s="187">
         <f>Data!R48</f>
         <v>0.64950310559006208</v>
       </c>
-      <c r="U23" s="206">
-        <f t="shared" si="22"/>
+      <c r="V23" s="186">
+        <f t="shared" si="17"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="215" t="str">
-        <f t="shared" si="19"/>
-        <v>R-RTFT-Det_G_Deep</v>
-      </c>
-      <c r="C24" s="215" t="str">
-        <f t="shared" si="20"/>
+      <c r="B24" s="195" t="str">
+        <f t="shared" si="2"/>
+        <v>R-RTFT-Det_G</v>
+      </c>
+      <c r="C24" s="195" t="str">
+        <f t="shared" si="15"/>
         <v>Residential Det_G - Deep retrofit</v>
       </c>
-      <c r="D24" s="215" t="s">
+      <c r="D24" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="215" t="s">
+      <c r="E24" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="215" t="s">
+      <c r="F24" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="215" t="str">
-        <f t="shared" si="21"/>
-        <v>R-RTFT-Det_G_Deep</v>
-      </c>
-      <c r="K24" s="215" t="str">
-        <f t="shared" si="17"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195" t="str">
+        <f t="shared" si="16"/>
+        <v>R-RTFT-Det_G</v>
+      </c>
+      <c r="K24" s="195" t="str">
+        <f t="shared" si="3"/>
         <v>RSDSH_Det_G</v>
       </c>
-      <c r="L24" s="215">
+      <c r="L24" s="195" t="str">
+        <f t="shared" si="4"/>
+        <v>RSDSH_Det</v>
+      </c>
+      <c r="M24" s="195">
         <v>2020</v>
       </c>
-      <c r="M24" s="215">
+      <c r="N24" s="195">
         <v>50</v>
       </c>
-      <c r="N24" s="215">
-        <f t="shared" si="18"/>
+      <c r="O24" s="195">
+        <f t="shared" si="14"/>
         <v>2.1717043475893594E-2</v>
       </c>
-      <c r="O24" s="216">
+      <c r="P24" s="196">
         <f>Data!N53/1000</f>
         <v>24.393600000000003</v>
       </c>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="217" t="s">
+      <c r="Q24" s="186"/>
+      <c r="R24" s="197" t="s">
         <v>240</v>
       </c>
-      <c r="R24" s="217" t="s">
+      <c r="S24" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="217">
+      <c r="T24" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="T24" s="218">
+      <c r="U24" s="198">
         <f>Data!R53</f>
         <v>0.66203864734299511</v>
       </c>
-      <c r="U24" s="217">
-        <f t="shared" si="22"/>
+      <c r="V24" s="197">
+        <f t="shared" si="17"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V27"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V28"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V29"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V30"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V31"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V32"/>
+      <c r="AA31"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
-    </row>
-    <row r="33" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V33"/>
+      <c r="AA32"/>
+    </row>
+    <row r="33" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
-    </row>
-    <row r="34" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V34"/>
+      <c r="AA33"/>
+    </row>
+    <row r="34" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
-    </row>
-    <row r="35" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V35"/>
+      <c r="AA34"/>
+    </row>
+    <row r="35" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
-    </row>
-    <row r="36" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V36"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
-    </row>
-    <row r="37" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V37"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
-    </row>
-    <row r="38" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V38"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
-    </row>
-    <row r="39" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V39"/>
+      <c r="AA38"/>
+    </row>
+    <row r="39" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
-    </row>
-    <row r="40" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V40"/>
+      <c r="AA39"/>
+    </row>
+    <row r="40" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
-    </row>
-    <row r="41" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V41"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
-    </row>
-    <row r="42" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V42"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
-    </row>
-    <row r="43" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V43"/>
+      <c r="AA42"/>
+    </row>
+    <row r="43" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
-    </row>
-    <row r="44" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V44"/>
+      <c r="AA43"/>
+    </row>
+    <row r="44" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
-    </row>
-    <row r="45" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V45"/>
+      <c r="AA44"/>
+    </row>
+    <row r="45" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
-    </row>
-    <row r="46" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V46"/>
+      <c r="AA45"/>
+    </row>
+    <row r="46" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
-    </row>
-    <row r="47" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V47"/>
+      <c r="AA46"/>
+    </row>
+    <row r="47" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
-    </row>
-    <row r="48" spans="22:26" x14ac:dyDescent="0.2">
-      <c r="V48"/>
+      <c r="AA47"/>
+    </row>
+    <row r="48" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-    </row>
-    <row r="49" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V49"/>
+      <c r="AA48"/>
+    </row>
+    <row r="49" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
-    </row>
-    <row r="50" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V50"/>
+      <c r="AA49"/>
+    </row>
+    <row r="50" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
-    </row>
-    <row r="51" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V51"/>
+      <c r="AA50"/>
+    </row>
+    <row r="51" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
-    </row>
-    <row r="52" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V52"/>
+      <c r="AA51"/>
+    </row>
+    <row r="52" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-    </row>
-    <row r="53" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V53"/>
+      <c r="AA52"/>
+    </row>
+    <row r="53" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
-    </row>
-    <row r="54" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V54"/>
+      <c r="AA53"/>
+    </row>
+    <row r="54" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
-    </row>
-    <row r="55" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V55"/>
+      <c r="AA54"/>
+    </row>
+    <row r="55" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W55"/>
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
-    </row>
-    <row r="56" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V56"/>
+      <c r="AA55"/>
+    </row>
+    <row r="56" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W56"/>
       <c r="X56"/>
       <c r="Y56"/>
       <c r="Z56"/>
-    </row>
-    <row r="57" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="V57"/>
+      <c r="AA56"/>
+    </row>
+    <row r="57" spans="19:27" x14ac:dyDescent="0.2">
       <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
-    </row>
-    <row r="58" spans="18:26" x14ac:dyDescent="0.2">
-      <c r="R58"/>
-      <c r="U58"/>
+      <c r="AA57"/>
+    </row>
+    <row r="58" spans="19:27" x14ac:dyDescent="0.2">
+      <c r="S58"/>
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
       <c r="Y58"/>
       <c r="Z58"/>
+      <c r="AA58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9276,33 +9356,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="198" t="s">
+      <c r="L2" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="199"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="198" t="s">
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="220" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="198" t="s">
+      <c r="P2" s="221"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="220" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="222"/>
       <c r="AD2" s="102" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
       <c r="L3" s="72" t="s">
         <v>157</v>
       </c>
@@ -10635,7 +10715,7 @@
         <f t="shared" si="12"/>
         <v>122568.62546059568</v>
       </c>
-      <c r="O19" s="212" t="s">
+      <c r="O19" s="192" t="s">
         <v>114</v>
       </c>
       <c r="P19" s="164">
@@ -10724,30 +10804,30 @@
         <f t="shared" si="13"/>
         <v>53310.221912315974</v>
       </c>
-      <c r="O20" s="214" t="s">
+      <c r="O20" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="208">
+      <c r="P20" s="188">
         <f t="shared" si="9"/>
         <v>0.73294667697694738</v>
       </c>
-      <c r="Q20" s="209">
+      <c r="Q20" s="189">
         <f t="shared" si="10"/>
         <v>0.58735946166276198</v>
       </c>
-      <c r="R20" s="209">
+      <c r="R20" s="189">
         <f t="shared" si="11"/>
         <v>0.49452624358065522</v>
       </c>
-      <c r="S20" s="210">
+      <c r="S20" s="190">
         <f>1-W6/$W$9</f>
         <v>0.33024987953077123</v>
       </c>
-      <c r="T20" s="210">
+      <c r="T20" s="190">
         <f>1-W6/$W$8</f>
         <v>4.1379012026721895E-2</v>
       </c>
-      <c r="U20" s="211">
+      <c r="U20" s="191">
         <f>1-W6/$W$7</f>
         <v>0.17292371056513256</v>
       </c>
@@ -10763,7 +10843,7 @@
         <v>766351.7209999999</v>
       </c>
       <c r="G21" s="66"/>
-      <c r="O21" s="213" t="s">
+      <c r="O21" s="193" t="s">
         <v>116</v>
       </c>
       <c r="P21" s="165">
@@ -10943,40 +11023,40 @@
       <c r="A29" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="201" t="s">
+      <c r="C29" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="201" t="s">
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="202"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="195" t="s">
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="217" t="s">
         <v>182</v>
       </c>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="195" t="s">
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="217" t="s">
         <v>183</v>
       </c>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="195" t="s">
+      <c r="Q29" s="218"/>
+      <c r="R29" s="218"/>
+      <c r="S29" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="195" t="s">
+      <c r="T29" s="218"/>
+      <c r="U29" s="218"/>
+      <c r="V29" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="W29" s="196"/>
-      <c r="X29" s="196"/>
+      <c r="W29" s="218"/>
+      <c r="X29" s="218"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="100" t="s">

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5224CB7-E1F1-4B2A-9F92-7D6AF4C1C9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55C945-E006-40D1-8384-AE944CBDD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
@@ -109,7 +109,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{0C9666FB-34CF-4809-B682-F7B52A796689}">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{0C9666FB-34CF-4809-B682-F7B52A796689}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="241">
   <si>
     <t>Document type:</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>Det_G</t>
-  </si>
-  <si>
-    <t>PSet_PN</t>
   </si>
 </sst>
 </file>
@@ -7660,10 +7657,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7671,31 +7668,32 @@
     <col min="1" max="1" width="14" style="66" customWidth="1"/>
     <col min="2" max="2" width="18" style="66" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="66" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="66" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="66" customWidth="1"/>
     <col min="9" max="9" width="2" style="66" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="19" style="66" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="66" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="66"/>
-    <col min="16" max="16" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="66"/>
-    <col min="18" max="22" width="11.140625" style="66" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="66"/>
+    <col min="11" max="11" width="18.85546875" style="66" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="66"/>
+    <col min="15" max="15" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="66"/>
+    <col min="17" max="21" width="11.140625" style="66" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="61"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>18</v>
       </c>
@@ -7703,14 +7701,14 @@
       <c r="D4" s="67"/>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
-      <c r="L4" s="59" t="s">
+      <c r="K4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="Q4" s="69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -7740,38 +7738,35 @@
         <v>19</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>57</v>
       </c>
@@ -7800,42 +7795,41 @@
       <c r="J6" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201" t="s">
+      <c r="K6" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" s="201" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O6" s="201" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="201" t="s">
         <v>107</v>
       </c>
+      <c r="Q6" s="201"/>
       <c r="R6" s="201"/>
-      <c r="S6" s="201"/>
+      <c r="S6" s="201" t="s">
+        <v>93</v>
+      </c>
       <c r="T6" s="201" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="U6" s="201" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="201" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="202" t="str">
-        <f>"R-RTFT-"&amp;R7</f>
+        <f>"R-RTFT-"&amp;Q7</f>
         <v>R-RTFT-Apt_B3</v>
       </c>
       <c r="C7" s="202" t="str">
-        <f t="shared" ref="C7:C8" si="0">"Residential "&amp;R7&amp;" - "&amp;S7&amp;" retrofit"</f>
+        <f t="shared" ref="C7:C8" si="0">"Residential "&amp;Q7&amp;" - "&amp;R7&amp;" retrofit"</f>
         <v>Residential Apt_B3 - Shallow retrofit</v>
       </c>
       <c r="D7" s="202" t="s">
@@ -7847,7 +7841,10 @@
       <c r="F7" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="202"/>
+      <c r="G7" s="202" t="str">
+        <f>"RSDSH_"&amp;Q7</f>
+        <v>RSDSH_Apt_B3</v>
+      </c>
       <c r="H7" s="202"/>
       <c r="I7" s="202"/>
       <c r="J7" s="202" t="str">
@@ -7855,53 +7852,49 @@
         <v>R-RTFT-Apt_B3</v>
       </c>
       <c r="K7" s="202" t="str">
-        <f>"RSDSH_"&amp;R7</f>
-        <v>RSDSH_Apt_B3</v>
-      </c>
-      <c r="L7" s="202" t="str">
-        <f>LEFT("RSDSH_"&amp;R7,9)</f>
+        <f>LEFT("RSDSH_"&amp;Q7,9)</f>
         <v>RSDSH_Apt</v>
       </c>
+      <c r="L7" s="202">
+        <v>2020</v>
+      </c>
       <c r="M7" s="202">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N7" s="202">
-        <v>50</v>
-      </c>
-      <c r="O7" s="202">
-        <f>V7</f>
+        <f>U7</f>
         <v>5.7348345211809249E-4</v>
       </c>
-      <c r="P7" s="203">
+      <c r="O7" s="203">
         <f>Data!O39/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="Q7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="204" t="s">
+        <v>223</v>
+      </c>
       <c r="R7" s="204" t="s">
-        <v>223</v>
-      </c>
-      <c r="S7" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="204">
+      <c r="S7" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="U7" s="205">
+      <c r="T7" s="205">
         <f>Data!R39</f>
         <v>5.4291065329954646E-2</v>
       </c>
-      <c r="V7" s="204">
-        <f>T7*U7</f>
+      <c r="U7" s="204">
+        <f>S7*T7</f>
         <v>5.7348345211809249E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="184" t="str">
-        <f t="shared" ref="B8:B24" si="2">"R-RTFT-"&amp;R8</f>
+        <f t="shared" ref="B8:B24" si="2">"R-RTFT-"&amp;Q8</f>
         <v>R-RTFT-Apt_C</v>
       </c>
       <c r="C8" s="184" t="str">
@@ -7917,7 +7910,10 @@
       <c r="F8" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="184"/>
+      <c r="G8" s="184" t="str">
+        <f>"RSDSH_"&amp;Q8</f>
+        <v>RSDSH_Apt_C</v>
+      </c>
       <c r="H8" s="184"/>
       <c r="I8" s="184"/>
       <c r="J8" s="184" t="str">
@@ -7925,48 +7921,44 @@
         <v>R-RTFT-Apt_C</v>
       </c>
       <c r="K8" s="184" t="str">
-        <f t="shared" ref="K8:K24" si="3">"RSDSH_"&amp;R8</f>
-        <v>RSDSH_Apt_C</v>
-      </c>
-      <c r="L8" s="184" t="str">
-        <f t="shared" ref="L8:L24" si="4">LEFT("RSDSH_"&amp;R8,9)</f>
+        <f t="shared" ref="K8:K24" si="3">LEFT("RSDSH_"&amp;Q8,9)</f>
         <v>RSDSH_Apt</v>
       </c>
+      <c r="L8" s="184">
+        <v>2020</v>
+      </c>
       <c r="M8" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N8" s="184">
-        <v>50</v>
-      </c>
-      <c r="O8" s="184">
-        <f t="shared" ref="O8:O9" si="5">V8</f>
+        <f t="shared" ref="N8:N9" si="4">U8</f>
         <v>6.6924201054815937E-4</v>
       </c>
-      <c r="P8" s="185">
+      <c r="O8" s="185">
         <f>Data!O39/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="Q8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186" t="s">
+        <v>224</v>
+      </c>
       <c r="R8" s="186" t="s">
-        <v>224</v>
-      </c>
-      <c r="S8" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="186">
+      <c r="S8" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="U8" s="187">
+      <c r="T8" s="187">
         <f>Data!R39</f>
         <v>5.4291065329954646E-2</v>
       </c>
-      <c r="V8" s="186">
-        <f>T8*U8</f>
+      <c r="U8" s="186">
+        <f>S8*T8</f>
         <v>6.6924201054815937E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>27</v>
       </c>
@@ -7975,7 +7967,7 @@
         <v>R-RTFT-Apt_D</v>
       </c>
       <c r="C9" s="184" t="str">
-        <f t="shared" ref="C9:C14" si="6">"Residential "&amp;R9&amp;" - "&amp;S9&amp;" retrofit"</f>
+        <f t="shared" ref="C9:C14" si="5">"Residential "&amp;Q9&amp;" - "&amp;R9&amp;" retrofit"</f>
         <v>Residential Apt_D - Shallow retrofit</v>
       </c>
       <c r="D9" s="184" t="s">
@@ -7987,56 +7979,55 @@
       <c r="F9" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="184"/>
+      <c r="G9" s="184" t="str">
+        <f>"RSDSH_"&amp;Q9</f>
+        <v>RSDSH_Apt_D</v>
+      </c>
       <c r="H9" s="184"/>
       <c r="I9" s="184"/>
       <c r="J9" s="184" t="str">
-        <f t="shared" ref="J9:J14" si="7">B9</f>
+        <f t="shared" ref="J9:J14" si="6">B9</f>
         <v>R-RTFT-Apt_D</v>
       </c>
       <c r="K9" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Apt_D</v>
-      </c>
-      <c r="L9" s="184" t="str">
+        <v>RSDSH_Apt</v>
+      </c>
+      <c r="L9" s="184">
+        <v>2020</v>
+      </c>
+      <c r="M9" s="184">
+        <v>50</v>
+      </c>
+      <c r="N9" s="184">
         <f t="shared" si="4"/>
-        <v>RSDSH_Apt</v>
-      </c>
-      <c r="M9" s="184">
-        <v>2020</v>
-      </c>
-      <c r="N9" s="184">
-        <v>50</v>
-      </c>
-      <c r="O9" s="184">
-        <f t="shared" si="5"/>
         <v>4.7948563185053724E-3</v>
       </c>
-      <c r="P9" s="185">
+      <c r="O9" s="185">
         <f>Data!O41/1000</f>
         <v>11.5335</v>
       </c>
-      <c r="Q9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186" t="s">
+        <v>225</v>
+      </c>
       <c r="R9" s="186" t="s">
-        <v>225</v>
-      </c>
-      <c r="S9" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="186">
+      <c r="S9" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="U9" s="187">
+      <c r="T9" s="187">
         <f>Data!R41</f>
         <v>0.36656568877551032</v>
       </c>
-      <c r="V9" s="186">
-        <f t="shared" ref="V9:V12" si="8">T9*U9</f>
+      <c r="U9" s="186">
+        <f t="shared" ref="U9:U12" si="7">S9*T9</f>
         <v>4.7948563185053724E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
         <v>27</v>
       </c>
@@ -8045,7 +8036,7 @@
         <v>R-RTFT-Apt_E</v>
       </c>
       <c r="C10" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Residential Apt_E - Deep retrofit</v>
       </c>
       <c r="D10" s="184" t="s">
@@ -8057,56 +8048,55 @@
       <c r="F10" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="184"/>
+      <c r="G10" s="184" t="str">
+        <f>"RSDSH_"&amp;Q10</f>
+        <v>RSDSH_Apt_E</v>
+      </c>
       <c r="H10" s="184"/>
       <c r="I10" s="184"/>
       <c r="J10" s="184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>R-RTFT-Apt_E</v>
       </c>
       <c r="K10" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Apt_E</v>
-      </c>
-      <c r="L10" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Apt</v>
       </c>
+      <c r="L10" s="184">
+        <v>2020</v>
+      </c>
       <c r="M10" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N10" s="184">
-        <v>50</v>
-      </c>
-      <c r="O10" s="184">
-        <f t="shared" ref="O10:O12" si="9">V10</f>
+        <f t="shared" ref="N10:N12" si="8">U10</f>
         <v>9.2808418616751667E-3</v>
       </c>
-      <c r="P10" s="185">
+      <c r="O10" s="185">
         <f>Data!O44/1000</f>
         <v>18.273600000000002</v>
       </c>
-      <c r="Q10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186" t="s">
+        <v>226</v>
+      </c>
       <c r="R10" s="186" t="s">
-        <v>226</v>
-      </c>
-      <c r="S10" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="186">
+      <c r="S10" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="U10" s="187">
+      <c r="T10" s="187">
         <f>Data!R44</f>
         <v>0.5450946643717729</v>
       </c>
-      <c r="V10" s="186">
-        <f t="shared" si="8"/>
+      <c r="U10" s="186">
+        <f t="shared" si="7"/>
         <v>9.2808418616751667E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>27</v>
       </c>
@@ -8115,7 +8105,7 @@
         <v>R-RTFT-Apt_F</v>
       </c>
       <c r="C11" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Residential Apt_F - Deep retrofit</v>
       </c>
       <c r="D11" s="184" t="s">
@@ -8127,56 +8117,55 @@
       <c r="F11" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="184"/>
+      <c r="G11" s="184" t="str">
+        <f>"RSDSH_"&amp;Q11</f>
+        <v>RSDSH_Apt_F</v>
+      </c>
       <c r="H11" s="184"/>
       <c r="I11" s="184"/>
       <c r="J11" s="184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>R-RTFT-Apt_F</v>
       </c>
       <c r="K11" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Apt_F</v>
-      </c>
-      <c r="L11" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Apt</v>
       </c>
+      <c r="L11" s="184">
+        <v>2020</v>
+      </c>
       <c r="M11" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N11" s="184">
-        <v>50</v>
-      </c>
-      <c r="O11" s="184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4628662883294537E-2</v>
       </c>
-      <c r="P11" s="185">
+      <c r="O11" s="185">
         <f>Data!O48/1000</f>
         <v>19.958400000000001</v>
       </c>
-      <c r="Q11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186" t="s">
+        <v>227</v>
+      </c>
       <c r="R11" s="186" t="s">
-        <v>227</v>
-      </c>
-      <c r="S11" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="186">
+      <c r="S11" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="U11" s="187">
+      <c r="T11" s="187">
         <f>Data!R48</f>
         <v>0.64950310559006208</v>
       </c>
-      <c r="V11" s="186">
-        <f t="shared" si="8"/>
+      <c r="U11" s="186">
+        <f t="shared" si="7"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>27</v>
       </c>
@@ -8185,7 +8174,7 @@
         <v>R-RTFT-Apt_G</v>
       </c>
       <c r="C12" s="195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Residential Apt_G - Deep retrofit</v>
       </c>
       <c r="D12" s="195" t="s">
@@ -8197,56 +8186,55 @@
       <c r="F12" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="195"/>
+      <c r="G12" s="195" t="str">
+        <f>"RSDSH_"&amp;Q12</f>
+        <v>RSDSH_Apt_G</v>
+      </c>
       <c r="H12" s="195"/>
       <c r="I12" s="195"/>
       <c r="J12" s="195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>R-RTFT-Apt_G</v>
       </c>
       <c r="K12" s="195" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Apt_G</v>
-      </c>
-      <c r="L12" s="195" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Apt</v>
       </c>
+      <c r="L12" s="195">
+        <v>2020</v>
+      </c>
       <c r="M12" s="195">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N12" s="195">
-        <v>50</v>
-      </c>
-      <c r="O12" s="195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1717043475893594E-2</v>
       </c>
-      <c r="P12" s="196">
+      <c r="O12" s="196">
         <f>Data!O53/1000</f>
         <v>19.958400000000001</v>
       </c>
-      <c r="Q12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="197" t="s">
+        <v>228</v>
+      </c>
       <c r="R12" s="197" t="s">
-        <v>228</v>
-      </c>
-      <c r="S12" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="197">
+      <c r="S12" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="U12" s="198">
+      <c r="T12" s="198">
         <f>Data!R53</f>
         <v>0.66203864734299511</v>
       </c>
-      <c r="V12" s="197">
-        <f t="shared" si="8"/>
+      <c r="U12" s="197">
+        <f t="shared" si="7"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>27</v>
       </c>
@@ -8255,7 +8243,7 @@
         <v>R-RTFT-Att_B3</v>
       </c>
       <c r="C13" s="202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Residential Att_B3 - Shallow retrofit</v>
       </c>
       <c r="D13" s="202" t="s">
@@ -8267,56 +8255,55 @@
       <c r="F13" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="202"/>
+      <c r="G13" s="202" t="str">
+        <f>"RSDSH_"&amp;Q13</f>
+        <v>RSDSH_Att_B3</v>
+      </c>
       <c r="H13" s="202"/>
       <c r="I13" s="202"/>
       <c r="J13" s="202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>R-RTFT-Att_B3</v>
       </c>
       <c r="K13" s="202" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_B3</v>
-      </c>
-      <c r="L13" s="202" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L13" s="202">
+        <v>2020</v>
+      </c>
       <c r="M13" s="202">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N13" s="202">
-        <v>50</v>
-      </c>
-      <c r="O13" s="202">
-        <f>V13</f>
+        <f>U13</f>
         <v>7.5821699232505875E-4</v>
       </c>
-      <c r="P13" s="203">
+      <c r="O13" s="203">
         <f>Data!M39/1000</f>
         <v>9.0075000000000003</v>
       </c>
-      <c r="Q13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="204" t="s">
+        <v>229</v>
+      </c>
       <c r="R13" s="204" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="T13" s="204">
+      <c r="S13" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="U13" s="205">
+      <c r="T13" s="205">
         <f>Data!P39</f>
         <v>7.1779592092092059E-2</v>
       </c>
-      <c r="V13" s="204">
-        <f>T13*U13</f>
+      <c r="U13" s="204">
+        <f>S13*T13</f>
         <v>7.5821699232505875E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
         <v>27</v>
       </c>
@@ -8325,7 +8312,7 @@
         <v>R-RTFT-Att_C</v>
       </c>
       <c r="C14" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Residential Att_C - Shallow retrofit</v>
       </c>
       <c r="D14" s="184" t="s">
@@ -8337,56 +8324,55 @@
       <c r="F14" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="184"/>
+      <c r="G14" s="184" t="str">
+        <f>"RSDSH_"&amp;Q14</f>
+        <v>RSDSH_Att_C</v>
+      </c>
       <c r="H14" s="184"/>
       <c r="I14" s="184"/>
       <c r="J14" s="184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>R-RTFT-Att_C</v>
       </c>
       <c r="K14" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_C</v>
-      </c>
-      <c r="L14" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L14" s="184">
+        <v>2020</v>
+      </c>
       <c r="M14" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N14" s="184">
-        <v>50</v>
-      </c>
-      <c r="O14" s="184">
-        <f t="shared" ref="O14:O18" si="10">V14</f>
+        <f t="shared" ref="N14:N18" si="9">U14</f>
         <v>8.8482180697850338E-4</v>
       </c>
-      <c r="P14" s="185">
+      <c r="O14" s="185">
         <f>Data!M39/1000</f>
         <v>9.0075000000000003</v>
       </c>
-      <c r="Q14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186" t="s">
+        <v>230</v>
+      </c>
       <c r="R14" s="186" t="s">
-        <v>230</v>
-      </c>
-      <c r="S14" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="186">
+      <c r="S14" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="U14" s="187">
+      <c r="T14" s="187">
         <f>Data!P39</f>
         <v>7.1779592092092059E-2</v>
       </c>
-      <c r="V14" s="186">
-        <f>T14*U14</f>
+      <c r="U14" s="186">
+        <f>S14*T14</f>
         <v>8.8482180697850338E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>27</v>
       </c>
@@ -8395,7 +8381,7 @@
         <v>R-RTFT-Att_D</v>
       </c>
       <c r="C15" s="184" t="str">
-        <f t="shared" ref="C15:C20" si="11">"Residential "&amp;R15&amp;" - "&amp;S15&amp;" retrofit"</f>
+        <f t="shared" ref="C15:C20" si="10">"Residential "&amp;Q15&amp;" - "&amp;R15&amp;" retrofit"</f>
         <v>Residential Att_D - Shallow retrofit</v>
       </c>
       <c r="D15" s="184" t="s">
@@ -8407,56 +8393,55 @@
       <c r="F15" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="184"/>
+      <c r="G15" s="184" t="str">
+        <f>"RSDSH_"&amp;Q15</f>
+        <v>RSDSH_Att_D</v>
+      </c>
       <c r="H15" s="184"/>
       <c r="I15" s="184"/>
       <c r="J15" s="184" t="str">
-        <f t="shared" ref="J15:J20" si="12">B15</f>
+        <f t="shared" ref="J15:J20" si="11">B15</f>
         <v>R-RTFT-Att_D</v>
       </c>
       <c r="K15" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_D</v>
-      </c>
-      <c r="L15" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L15" s="184">
+        <v>2020</v>
+      </c>
       <c r="M15" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N15" s="184">
-        <v>50</v>
-      </c>
-      <c r="O15" s="184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.1655487686243003E-3</v>
       </c>
-      <c r="P15" s="185">
+      <c r="O15" s="185">
         <f>Data!M41/1000</f>
         <v>12.815</v>
       </c>
-      <c r="Q15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186" t="s">
+        <v>231</v>
+      </c>
       <c r="R15" s="186" t="s">
-        <v>231</v>
-      </c>
-      <c r="S15" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T15" s="186">
+      <c r="S15" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="U15" s="187">
+      <c r="T15" s="187">
         <f>Data!P41</f>
         <v>0.39490504334121357</v>
       </c>
-      <c r="V15" s="186">
-        <f t="shared" ref="V15:V18" si="13">T15*U15</f>
+      <c r="U15" s="186">
+        <f t="shared" ref="U15:U18" si="12">S15*T15</f>
         <v>5.1655487686243003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
         <v>27</v>
       </c>
@@ -8465,7 +8450,7 @@
         <v>R-RTFT-Att_E</v>
       </c>
       <c r="C16" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Residential Att_E - Deep retrofit</v>
       </c>
       <c r="D16" s="184" t="s">
@@ -8477,56 +8462,55 @@
       <c r="F16" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="184"/>
+      <c r="G16" s="184" t="str">
+        <f>"RSDSH_"&amp;Q16</f>
+        <v>RSDSH_Att_E</v>
+      </c>
       <c r="H16" s="184"/>
       <c r="I16" s="184"/>
       <c r="J16" s="184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>R-RTFT-Att_E</v>
       </c>
       <c r="K16" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_E</v>
-      </c>
-      <c r="L16" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L16" s="184">
+        <v>2020</v>
+      </c>
       <c r="M16" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N16" s="184">
-        <v>50</v>
-      </c>
-      <c r="O16" s="184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9.3929668522173305E-3</v>
       </c>
-      <c r="P16" s="185">
+      <c r="O16" s="185">
         <f>Data!M44/1000</f>
         <v>20.303999999999998</v>
       </c>
-      <c r="Q16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186" t="s">
+        <v>232</v>
+      </c>
       <c r="R16" s="186" t="s">
-        <v>232</v>
-      </c>
-      <c r="S16" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T16" s="186">
+      <c r="S16" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="U16" s="187">
+      <c r="T16" s="187">
         <f>Data!P44</f>
         <v>0.55168013743533795</v>
       </c>
-      <c r="V16" s="186">
-        <f t="shared" si="13"/>
+      <c r="U16" s="186">
+        <f t="shared" si="12"/>
         <v>9.3929668522173305E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>27</v>
       </c>
@@ -8535,7 +8519,7 @@
         <v>R-RTFT-Att_F</v>
       </c>
       <c r="C17" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Residential Att_F - Deep retrofit</v>
       </c>
       <c r="D17" s="184" t="s">
@@ -8547,56 +8531,55 @@
       <c r="F17" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="184"/>
+      <c r="G17" s="184" t="str">
+        <f>"RSDSH_"&amp;Q17</f>
+        <v>RSDSH_Att_F</v>
+      </c>
       <c r="H17" s="184"/>
       <c r="I17" s="184"/>
       <c r="J17" s="184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>R-RTFT-Att_F</v>
       </c>
       <c r="K17" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_F</v>
-      </c>
-      <c r="L17" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L17" s="184">
+        <v>2020</v>
+      </c>
       <c r="M17" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N17" s="184">
-        <v>50</v>
-      </c>
-      <c r="O17" s="184">
-        <f>V17</f>
+        <f>U17</f>
         <v>1.4727434391205585E-2</v>
       </c>
-      <c r="P17" s="185">
+      <c r="O17" s="185">
         <f>Data!M48/1000</f>
         <v>22.175999999999998</v>
       </c>
-      <c r="Q17" s="186"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="186" t="s">
+        <v>233</v>
+      </c>
       <c r="R17" s="186" t="s">
-        <v>233</v>
-      </c>
-      <c r="S17" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T17" s="186">
+      <c r="S17" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="U17" s="187">
+      <c r="T17" s="187">
         <f>Data!P48</f>
         <v>0.65388849621966627</v>
       </c>
-      <c r="V17" s="186">
-        <f t="shared" si="13"/>
+      <c r="U17" s="186">
+        <f t="shared" si="12"/>
         <v>1.4727434391205585E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>27</v>
       </c>
@@ -8605,7 +8588,7 @@
         <v>R-RTFT-Att_G</v>
       </c>
       <c r="C18" s="195" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Residential Att_G - Deep retrofit</v>
       </c>
       <c r="D18" s="195" t="s">
@@ -8617,56 +8600,55 @@
       <c r="F18" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="195"/>
+      <c r="G18" s="195" t="str">
+        <f>"RSDSH_"&amp;Q18</f>
+        <v>RSDSH_Att_G</v>
+      </c>
       <c r="H18" s="195"/>
       <c r="I18" s="195"/>
       <c r="J18" s="195" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>R-RTFT-Att_G</v>
       </c>
       <c r="K18" s="195" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Att_G</v>
-      </c>
-      <c r="L18" s="195" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Att</v>
       </c>
+      <c r="L18" s="195">
+        <v>2020</v>
+      </c>
       <c r="M18" s="195">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N18" s="195">
-        <v>50</v>
-      </c>
-      <c r="O18" s="195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1290335851398529E-2</v>
       </c>
-      <c r="P18" s="196">
+      <c r="O18" s="196">
         <f>Data!M53/1000</f>
         <v>22.175999999999998</v>
       </c>
-      <c r="Q18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="197" t="s">
+        <v>234</v>
+      </c>
       <c r="R18" s="197" t="s">
-        <v>234</v>
-      </c>
-      <c r="S18" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="T18" s="197">
+      <c r="S18" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="U18" s="198">
+      <c r="T18" s="198">
         <f>Data!P53</f>
         <v>0.64903057196453795</v>
       </c>
-      <c r="V18" s="197">
-        <f t="shared" si="13"/>
+      <c r="U18" s="197">
+        <f t="shared" si="12"/>
         <v>2.1290335851398529E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>27</v>
       </c>
@@ -8675,7 +8657,7 @@
         <v>R-RTFT-Det_B3</v>
       </c>
       <c r="C19" s="202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Residential Det_B3 - Shallow retrofit</v>
       </c>
       <c r="D19" s="202" t="s">
@@ -8687,56 +8669,55 @@
       <c r="F19" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="202"/>
+      <c r="G19" s="202" t="str">
+        <f>"RSDSH_"&amp;Q19</f>
+        <v>RSDSH_Det_B3</v>
+      </c>
       <c r="H19" s="202"/>
       <c r="I19" s="202"/>
       <c r="J19" s="202" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>R-RTFT-Det_B3</v>
       </c>
       <c r="K19" s="202" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_B3</v>
-      </c>
-      <c r="L19" s="202" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L19" s="202">
+        <v>2020</v>
+      </c>
       <c r="M19" s="202">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N19" s="202">
-        <v>50</v>
-      </c>
-      <c r="O19" s="202">
-        <f>V19</f>
+        <f>U19</f>
         <v>8.7124448896018676E-4</v>
       </c>
-      <c r="P19" s="203">
+      <c r="O19" s="203">
         <f>Data!N39/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="Q19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="204" t="s">
+        <v>235</v>
+      </c>
       <c r="R19" s="204" t="s">
-        <v>235</v>
-      </c>
-      <c r="S19" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="T19" s="204">
+      <c r="S19" s="204">
         <f>[1]ArchetypeDemand!$L$66</f>
         <v>1.056312762758917E-2</v>
       </c>
-      <c r="U19" s="205">
+      <c r="T19" s="205">
         <f>Data!Q39</f>
         <v>8.2479784366576991E-2</v>
       </c>
-      <c r="V19" s="204">
-        <f>T19*U19</f>
+      <c r="U19" s="204">
+        <f>S19*T19</f>
         <v>8.7124448896018676E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
         <v>27</v>
       </c>
@@ -8745,7 +8726,7 @@
         <v>R-RTFT-Det_C</v>
       </c>
       <c r="C20" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Residential Det_C - Shallow retrofit</v>
       </c>
       <c r="D20" s="184" t="s">
@@ -8757,56 +8738,55 @@
       <c r="F20" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G20" s="184"/>
+      <c r="G20" s="184" t="str">
+        <f>"RSDSH_"&amp;Q20</f>
+        <v>RSDSH_Det_C</v>
+      </c>
       <c r="H20" s="184"/>
       <c r="I20" s="184"/>
       <c r="J20" s="184" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>R-RTFT-Det_C</v>
       </c>
       <c r="K20" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_C</v>
-      </c>
-      <c r="L20" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L20" s="184">
+        <v>2020</v>
+      </c>
       <c r="M20" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N20" s="184">
-        <v>50</v>
-      </c>
-      <c r="O20" s="184">
-        <f t="shared" ref="O20:O24" si="14">V20</f>
+        <f t="shared" ref="N20:N24" si="13">U20</f>
         <v>1.0167222982933634E-3</v>
       </c>
-      <c r="P20" s="185">
+      <c r="O20" s="185">
         <f>Data!N39/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="Q20" s="186"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="186" t="s">
+        <v>236</v>
+      </c>
       <c r="R20" s="186" t="s">
-        <v>236</v>
-      </c>
-      <c r="S20" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T20" s="186">
+      <c r="S20" s="186">
         <f>[1]ArchetypeDemand!$L$71</f>
         <v>1.2326927211334543E-2</v>
       </c>
-      <c r="U20" s="187">
+      <c r="T20" s="187">
         <f>Data!Q39</f>
         <v>8.2479784366576991E-2</v>
       </c>
-      <c r="V20" s="186">
-        <f>T20*U20</f>
+      <c r="U20" s="186">
+        <f>S20*T20</f>
         <v>1.0167222982933634E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>27</v>
       </c>
@@ -8815,7 +8795,7 @@
         <v>R-RTFT-Det_D</v>
       </c>
       <c r="C21" s="184" t="str">
-        <f t="shared" ref="C21:C24" si="15">"Residential "&amp;R21&amp;" - "&amp;S21&amp;" retrofit"</f>
+        <f t="shared" ref="C21:C24" si="14">"Residential "&amp;Q21&amp;" - "&amp;R21&amp;" retrofit"</f>
         <v>Residential Det_D - Shallow retrofit</v>
       </c>
       <c r="D21" s="184" t="s">
@@ -8827,56 +8807,55 @@
       <c r="F21" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="184"/>
+      <c r="G21" s="184" t="str">
+        <f>"RSDSH_"&amp;Q21</f>
+        <v>RSDSH_Det_D</v>
+      </c>
       <c r="H21" s="184"/>
       <c r="I21" s="184"/>
       <c r="J21" s="184" t="str">
-        <f t="shared" ref="J21:J24" si="16">B21</f>
+        <f t="shared" ref="J21:J24" si="15">B21</f>
         <v>R-RTFT-Det_D</v>
       </c>
       <c r="K21" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_D</v>
-      </c>
-      <c r="L21" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L21" s="184">
+        <v>2020</v>
+      </c>
       <c r="M21" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N21" s="184">
-        <v>50</v>
-      </c>
-      <c r="O21" s="184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.2660659296241401E-3</v>
       </c>
-      <c r="P21" s="185">
+      <c r="O21" s="185">
         <f>Data!N41/1000</f>
         <v>14.096500000000002</v>
       </c>
-      <c r="Q21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186" t="s">
+        <v>237</v>
+      </c>
       <c r="R21" s="186" t="s">
-        <v>237</v>
-      </c>
-      <c r="S21" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T21" s="186">
+      <c r="S21" s="186">
         <f>[1]ArchetypeDemand!$L$76</f>
         <v>1.3080483158481877E-2</v>
       </c>
-      <c r="U21" s="187">
+      <c r="T21" s="187">
         <f>Data!Q41</f>
         <v>0.40258955772665206</v>
       </c>
-      <c r="V21" s="186">
-        <f t="shared" ref="V21:V24" si="17">T21*U21</f>
+      <c r="U21" s="186">
+        <f t="shared" ref="U21:U24" si="16">S21*T21</f>
         <v>5.2660659296241401E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
         <v>27</v>
       </c>
@@ -8885,7 +8864,7 @@
         <v>R-RTFT-Det_E</v>
       </c>
       <c r="C22" s="184" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Residential Det_E - Deep retrofit</v>
       </c>
       <c r="D22" s="184" t="s">
@@ -8897,56 +8876,55 @@
       <c r="F22" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="184"/>
+      <c r="G22" s="184" t="str">
+        <f>"RSDSH_"&amp;Q22</f>
+        <v>RSDSH_Det_E</v>
+      </c>
       <c r="H22" s="184"/>
       <c r="I22" s="184"/>
       <c r="J22" s="184" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>R-RTFT-Det_E</v>
       </c>
       <c r="K22" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_E</v>
-      </c>
-      <c r="L22" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L22" s="184">
+        <v>2020</v>
+      </c>
       <c r="M22" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N22" s="184">
-        <v>50</v>
-      </c>
-      <c r="O22" s="184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.4356152934719911E-3</v>
       </c>
-      <c r="P22" s="185">
+      <c r="O22" s="185">
         <f>Data!N44/1000</f>
         <v>22.334400000000002</v>
       </c>
-      <c r="Q22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186" t="s">
+        <v>238</v>
+      </c>
       <c r="R22" s="186" t="s">
-        <v>238</v>
-      </c>
-      <c r="S22" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T22" s="186">
+      <c r="S22" s="186">
         <f>[1]ArchetypeDemand!$L$81</f>
         <v>1.7026110267234832E-2</v>
       </c>
-      <c r="U22" s="187">
+      <c r="T22" s="187">
         <f>Data!Q44</f>
         <v>0.55418502202643172</v>
       </c>
-      <c r="V22" s="186">
-        <f t="shared" si="17"/>
+      <c r="U22" s="186">
+        <f t="shared" si="16"/>
         <v>9.4356152934719911E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>27</v>
       </c>
@@ -8955,7 +8933,7 @@
         <v>R-RTFT-Det_F</v>
       </c>
       <c r="C23" s="184" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Residential Det_F - Deep retrofit</v>
       </c>
       <c r="D23" s="184" t="s">
@@ -8967,56 +8945,55 @@
       <c r="F23" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="184"/>
+      <c r="G23" s="184" t="str">
+        <f>"RSDSH_"&amp;Q23</f>
+        <v>RSDSH_Det_F</v>
+      </c>
       <c r="H23" s="184"/>
       <c r="I23" s="184"/>
       <c r="J23" s="184" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>R-RTFT-Det_F</v>
       </c>
       <c r="K23" s="184" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_F</v>
-      </c>
-      <c r="L23" s="184" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L23" s="184">
+        <v>2020</v>
+      </c>
       <c r="M23" s="184">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N23" s="184">
-        <v>50</v>
-      </c>
-      <c r="O23" s="184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.4628662883294537E-2</v>
       </c>
-      <c r="P23" s="185">
+      <c r="O23" s="185">
         <f>Data!N48/1000</f>
         <v>24.393600000000003</v>
       </c>
-      <c r="Q23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186" t="s">
+        <v>239</v>
+      </c>
       <c r="R23" s="186" t="s">
-        <v>239</v>
-      </c>
-      <c r="S23" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="T23" s="186">
+      <c r="S23" s="186">
         <f>[1]ArchetypeDemand!$L$86</f>
         <v>2.2522852866122413E-2</v>
       </c>
-      <c r="U23" s="187">
+      <c r="T23" s="187">
         <f>Data!R48</f>
         <v>0.64950310559006208</v>
       </c>
-      <c r="V23" s="186">
-        <f t="shared" si="17"/>
+      <c r="U23" s="186">
+        <f t="shared" si="16"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>27</v>
       </c>
@@ -9025,7 +9002,7 @@
         <v>R-RTFT-Det_G</v>
       </c>
       <c r="C24" s="195" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Residential Det_G - Deep retrofit</v>
       </c>
       <c r="D24" s="195" t="s">
@@ -9037,280 +9014,279 @@
       <c r="F24" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="195"/>
+      <c r="G24" s="195" t="str">
+        <f>"RSDSH_"&amp;Q24</f>
+        <v>RSDSH_Det_G</v>
+      </c>
       <c r="H24" s="195"/>
       <c r="I24" s="195"/>
       <c r="J24" s="195" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>R-RTFT-Det_G</v>
       </c>
       <c r="K24" s="195" t="str">
         <f t="shared" si="3"/>
-        <v>RSDSH_Det_G</v>
-      </c>
-      <c r="L24" s="195" t="str">
-        <f t="shared" si="4"/>
         <v>RSDSH_Det</v>
       </c>
+      <c r="L24" s="195">
+        <v>2020</v>
+      </c>
       <c r="M24" s="195">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N24" s="195">
-        <v>50</v>
-      </c>
-      <c r="O24" s="195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.1717043475893594E-2</v>
       </c>
-      <c r="P24" s="196">
+      <c r="O24" s="196">
         <f>Data!N53/1000</f>
         <v>24.393600000000003</v>
       </c>
-      <c r="Q24" s="186"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="197" t="s">
+        <v>240</v>
+      </c>
       <c r="R24" s="197" t="s">
-        <v>240</v>
-      </c>
-      <c r="S24" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="T24" s="197">
+      <c r="S24" s="197">
         <f>[1]ArchetypeDemand!$L$91</f>
         <v>3.2803286580099345E-2</v>
       </c>
-      <c r="U24" s="198">
+      <c r="T24" s="198">
         <f>Data!R53</f>
         <v>0.66203864734299511</v>
       </c>
-      <c r="V24" s="197">
-        <f t="shared" si="17"/>
+      <c r="U24" s="197">
+        <f t="shared" si="16"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
-      <c r="AA27"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
-      <c r="AA28"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V29"/>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
-      <c r="AA29"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
-      <c r="AA30"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
-      <c r="AA31"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
-      <c r="AA32"/>
-    </row>
-    <row r="33" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
-      <c r="AA33"/>
-    </row>
-    <row r="34" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V34"/>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
-      <c r="AA34"/>
-    </row>
-    <row r="35" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
-      <c r="AA35"/>
-    </row>
-    <row r="36" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AA36"/>
-    </row>
-    <row r="37" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
-      <c r="AA37"/>
-    </row>
-    <row r="38" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
-      <c r="AA38"/>
-    </row>
-    <row r="39" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
-      <c r="AA39"/>
-    </row>
-    <row r="40" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
-      <c r="AA40"/>
-    </row>
-    <row r="41" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
-      <c r="AA41"/>
-    </row>
-    <row r="42" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
-      <c r="AA42"/>
-    </row>
-    <row r="43" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
-      <c r="AA43"/>
-    </row>
-    <row r="44" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
-      <c r="AA44"/>
-    </row>
-    <row r="45" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
-      <c r="AA45"/>
-    </row>
-    <row r="46" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
-      <c r="AA46"/>
-    </row>
-    <row r="47" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
-      <c r="AA47"/>
-    </row>
-    <row r="48" spans="23:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
-      <c r="AA48"/>
-    </row>
-    <row r="49" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
-      <c r="AA49"/>
-    </row>
-    <row r="50" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
-      <c r="AA50"/>
-    </row>
-    <row r="51" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AA51"/>
-    </row>
-    <row r="52" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
-      <c r="AA52"/>
-    </row>
-    <row r="53" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V53"/>
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AA53"/>
-    </row>
-    <row r="54" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AA54"/>
-    </row>
-    <row r="55" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V55"/>
       <c r="W55"/>
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
-      <c r="AA55"/>
-    </row>
-    <row r="56" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V56"/>
       <c r="W56"/>
       <c r="X56"/>
       <c r="Y56"/>
       <c r="Z56"/>
-      <c r="AA56"/>
-    </row>
-    <row r="57" spans="19:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="V57"/>
       <c r="W57"/>
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
-      <c r="AA57"/>
-    </row>
-    <row r="58" spans="19:27" x14ac:dyDescent="0.2">
-      <c r="S58"/>
+    </row>
+    <row r="58" spans="18:26" x14ac:dyDescent="0.2">
+      <c r="R58"/>
+      <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
       <c r="X58"/>
       <c r="Y58"/>
       <c r="Z58"/>
-      <c r="AA58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55C945-E006-40D1-8384-AE944CBDD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91936F92-8C49-4EAE-BEC5-08D49054C52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -7660,7 +7660,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7841,10 +7841,7 @@
       <c r="F7" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="202" t="str">
-        <f>"RSDSH_"&amp;Q7</f>
-        <v>RSDSH_Apt_B3</v>
-      </c>
+      <c r="G7" s="202"/>
       <c r="H7" s="202"/>
       <c r="I7" s="202"/>
       <c r="J7" s="202" t="str">
@@ -7910,10 +7907,7 @@
       <c r="F8" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="184" t="str">
-        <f>"RSDSH_"&amp;Q8</f>
-        <v>RSDSH_Apt_C</v>
-      </c>
+      <c r="G8" s="184"/>
       <c r="H8" s="184"/>
       <c r="I8" s="184"/>
       <c r="J8" s="184" t="str">
@@ -7979,10 +7973,7 @@
       <c r="F9" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="184" t="str">
-        <f>"RSDSH_"&amp;Q9</f>
-        <v>RSDSH_Apt_D</v>
-      </c>
+      <c r="G9" s="184"/>
       <c r="H9" s="184"/>
       <c r="I9" s="184"/>
       <c r="J9" s="184" t="str">
@@ -8048,10 +8039,7 @@
       <c r="F10" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="184" t="str">
-        <f>"RSDSH_"&amp;Q10</f>
-        <v>RSDSH_Apt_E</v>
-      </c>
+      <c r="G10" s="184"/>
       <c r="H10" s="184"/>
       <c r="I10" s="184"/>
       <c r="J10" s="184" t="str">
@@ -8117,10 +8105,7 @@
       <c r="F11" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="184" t="str">
-        <f>"RSDSH_"&amp;Q11</f>
-        <v>RSDSH_Apt_F</v>
-      </c>
+      <c r="G11" s="184"/>
       <c r="H11" s="184"/>
       <c r="I11" s="184"/>
       <c r="J11" s="184" t="str">
@@ -8186,10 +8171,7 @@
       <c r="F12" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G12" s="195" t="str">
-        <f>"RSDSH_"&amp;Q12</f>
-        <v>RSDSH_Apt_G</v>
-      </c>
+      <c r="G12" s="184"/>
       <c r="H12" s="195"/>
       <c r="I12" s="195"/>
       <c r="J12" s="195" t="str">
@@ -8255,10 +8237,7 @@
       <c r="F13" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="202" t="str">
-        <f>"RSDSH_"&amp;Q13</f>
-        <v>RSDSH_Att_B3</v>
-      </c>
+      <c r="G13" s="184"/>
       <c r="H13" s="202"/>
       <c r="I13" s="202"/>
       <c r="J13" s="202" t="str">
@@ -8324,10 +8303,7 @@
       <c r="F14" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="184" t="str">
-        <f>"RSDSH_"&amp;Q14</f>
-        <v>RSDSH_Att_C</v>
-      </c>
+      <c r="G14" s="184"/>
       <c r="H14" s="184"/>
       <c r="I14" s="184"/>
       <c r="J14" s="184" t="str">
@@ -8393,10 +8369,7 @@
       <c r="F15" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="184" t="str">
-        <f>"RSDSH_"&amp;Q15</f>
-        <v>RSDSH_Att_D</v>
-      </c>
+      <c r="G15" s="184"/>
       <c r="H15" s="184"/>
       <c r="I15" s="184"/>
       <c r="J15" s="184" t="str">
@@ -8462,10 +8435,7 @@
       <c r="F16" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="184" t="str">
-        <f>"RSDSH_"&amp;Q16</f>
-        <v>RSDSH_Att_E</v>
-      </c>
+      <c r="G16" s="184"/>
       <c r="H16" s="184"/>
       <c r="I16" s="184"/>
       <c r="J16" s="184" t="str">
@@ -8531,10 +8501,7 @@
       <c r="F17" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="184" t="str">
-        <f>"RSDSH_"&amp;Q17</f>
-        <v>RSDSH_Att_F</v>
-      </c>
+      <c r="G17" s="184"/>
       <c r="H17" s="184"/>
       <c r="I17" s="184"/>
       <c r="J17" s="184" t="str">
@@ -8600,10 +8567,7 @@
       <c r="F18" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="195" t="str">
-        <f>"RSDSH_"&amp;Q18</f>
-        <v>RSDSH_Att_G</v>
-      </c>
+      <c r="G18" s="184"/>
       <c r="H18" s="195"/>
       <c r="I18" s="195"/>
       <c r="J18" s="195" t="str">
@@ -8669,10 +8633,7 @@
       <c r="F19" s="202" t="s">
         <v>188</v>
       </c>
-      <c r="G19" s="202" t="str">
-        <f>"RSDSH_"&amp;Q19</f>
-        <v>RSDSH_Det_B3</v>
-      </c>
+      <c r="G19" s="184"/>
       <c r="H19" s="202"/>
       <c r="I19" s="202"/>
       <c r="J19" s="202" t="str">
@@ -8738,10 +8699,7 @@
       <c r="F20" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G20" s="184" t="str">
-        <f>"RSDSH_"&amp;Q20</f>
-        <v>RSDSH_Det_C</v>
-      </c>
+      <c r="G20" s="184"/>
       <c r="H20" s="184"/>
       <c r="I20" s="184"/>
       <c r="J20" s="184" t="str">
@@ -8807,10 +8765,7 @@
       <c r="F21" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="184" t="str">
-        <f>"RSDSH_"&amp;Q21</f>
-        <v>RSDSH_Det_D</v>
-      </c>
+      <c r="G21" s="184"/>
       <c r="H21" s="184"/>
       <c r="I21" s="184"/>
       <c r="J21" s="184" t="str">
@@ -8876,10 +8831,7 @@
       <c r="F22" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="184" t="str">
-        <f>"RSDSH_"&amp;Q22</f>
-        <v>RSDSH_Det_E</v>
-      </c>
+      <c r="G22" s="184"/>
       <c r="H22" s="184"/>
       <c r="I22" s="184"/>
       <c r="J22" s="184" t="str">
@@ -8945,10 +8897,7 @@
       <c r="F23" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="184" t="str">
-        <f>"RSDSH_"&amp;Q23</f>
-        <v>RSDSH_Det_F</v>
-      </c>
+      <c r="G23" s="184"/>
       <c r="H23" s="184"/>
       <c r="I23" s="184"/>
       <c r="J23" s="184" t="str">
@@ -9014,10 +8963,7 @@
       <c r="F24" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="195" t="str">
-        <f>"RSDSH_"&amp;Q24</f>
-        <v>RSDSH_Det_G</v>
-      </c>
+      <c r="G24" s="184"/>
       <c r="H24" s="195"/>
       <c r="I24" s="195"/>
       <c r="J24" s="195" t="str">

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91936F92-8C49-4EAE-BEC5-08D49054C52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF34D6F-2D22-4459-A6F8-69C4B2350AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -3653,7 +3653,6 @@
       <sheetName val="Cover"/>
       <sheetName val="Intro"/>
       <sheetName val="Regions"/>
-      <sheetName val="RES"/>
       <sheetName val="SETUP"/>
       <sheetName val="EB2018"/>
       <sheetName val="RSD_Balance"/>
@@ -3670,6 +3669,7 @@
       <sheetName val="ApartmentEnergyData"/>
       <sheetName val="AttachedEnergyData"/>
       <sheetName val="DettachedEnergyData"/>
+      <sheetName val="RES"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3682,8 +3682,7 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="66">
           <cell r="L66">
             <v>1.056312762758917E-2</v>
@@ -3715,6 +3714,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -3722,7 +3722,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7660,7 +7660,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7849,8 +7849,8 @@
         <v>R-RTFT-Apt_B3</v>
       </c>
       <c r="K7" s="202" t="str">
-        <f>LEFT("RSDSH_"&amp;Q7,9)</f>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q7,9)&amp;"-AB"</f>
+        <v>RSDSH_Apt-AB</v>
       </c>
       <c r="L7" s="202">
         <v>2020</v>
@@ -7915,8 +7915,8 @@
         <v>R-RTFT-Apt_C</v>
       </c>
       <c r="K8" s="184" t="str">
-        <f t="shared" ref="K8:K24" si="3">LEFT("RSDSH_"&amp;Q8,9)</f>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q8,9)&amp;"-C"</f>
+        <v>RSDSH_Apt-C</v>
       </c>
       <c r="L8" s="184">
         <v>2020</v>
@@ -7925,7 +7925,7 @@
         <v>50</v>
       </c>
       <c r="N8" s="184">
-        <f t="shared" ref="N8:N9" si="4">U8</f>
+        <f t="shared" ref="N8:N9" si="3">U8</f>
         <v>6.6924201054815937E-4</v>
       </c>
       <c r="O8" s="185">
@@ -7961,7 +7961,7 @@
         <v>R-RTFT-Apt_D</v>
       </c>
       <c r="C9" s="184" t="str">
-        <f t="shared" ref="C9:C14" si="5">"Residential "&amp;Q9&amp;" - "&amp;R9&amp;" retrofit"</f>
+        <f t="shared" ref="C9:C14" si="4">"Residential "&amp;Q9&amp;" - "&amp;R9&amp;" retrofit"</f>
         <v>Residential Apt_D - Shallow retrofit</v>
       </c>
       <c r="D9" s="184" t="s">
@@ -7977,12 +7977,12 @@
       <c r="H9" s="184"/>
       <c r="I9" s="184"/>
       <c r="J9" s="184" t="str">
-        <f t="shared" ref="J9:J14" si="6">B9</f>
+        <f t="shared" ref="J9:J14" si="5">B9</f>
         <v>R-RTFT-Apt_D</v>
       </c>
       <c r="K9" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q9,9)&amp;"-D"</f>
+        <v>RSDSH_Apt-D</v>
       </c>
       <c r="L9" s="184">
         <v>2020</v>
@@ -7991,7 +7991,7 @@
         <v>50</v>
       </c>
       <c r="N9" s="184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7948563185053724E-3</v>
       </c>
       <c r="O9" s="185">
@@ -8014,7 +8014,7 @@
         <v>0.36656568877551032</v>
       </c>
       <c r="U9" s="186">
-        <f t="shared" ref="U9:U12" si="7">S9*T9</f>
+        <f t="shared" ref="U9:U12" si="6">S9*T9</f>
         <v>4.7948563185053724E-3</v>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>R-RTFT-Apt_E</v>
       </c>
       <c r="C10" s="184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Residential Apt_E - Deep retrofit</v>
       </c>
       <c r="D10" s="184" t="s">
@@ -8043,12 +8043,12 @@
       <c r="H10" s="184"/>
       <c r="I10" s="184"/>
       <c r="J10" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>R-RTFT-Apt_E</v>
       </c>
       <c r="K10" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q10,9)&amp;"-E"</f>
+        <v>RSDSH_Apt-E</v>
       </c>
       <c r="L10" s="184">
         <v>2020</v>
@@ -8057,7 +8057,7 @@
         <v>50</v>
       </c>
       <c r="N10" s="184">
-        <f t="shared" ref="N10:N12" si="8">U10</f>
+        <f t="shared" ref="N10:N12" si="7">U10</f>
         <v>9.2808418616751667E-3</v>
       </c>
       <c r="O10" s="185">
@@ -8080,7 +8080,7 @@
         <v>0.5450946643717729</v>
       </c>
       <c r="U10" s="186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.2808418616751667E-3</v>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
         <v>R-RTFT-Apt_F</v>
       </c>
       <c r="C11" s="184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Residential Apt_F - Deep retrofit</v>
       </c>
       <c r="D11" s="184" t="s">
@@ -8109,12 +8109,12 @@
       <c r="H11" s="184"/>
       <c r="I11" s="184"/>
       <c r="J11" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>R-RTFT-Apt_F</v>
       </c>
       <c r="K11" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q11,9)&amp;"-F"</f>
+        <v>RSDSH_Apt-F</v>
       </c>
       <c r="L11" s="184">
         <v>2020</v>
@@ -8123,7 +8123,7 @@
         <v>50</v>
       </c>
       <c r="N11" s="184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4628662883294537E-2</v>
       </c>
       <c r="O11" s="185">
@@ -8146,7 +8146,7 @@
         <v>0.64950310559006208</v>
       </c>
       <c r="U11" s="186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
         <v>R-RTFT-Apt_G</v>
       </c>
       <c r="C12" s="195" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Residential Apt_G - Deep retrofit</v>
       </c>
       <c r="D12" s="195" t="s">
@@ -8175,12 +8175,12 @@
       <c r="H12" s="195"/>
       <c r="I12" s="195"/>
       <c r="J12" s="195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>R-RTFT-Apt_G</v>
       </c>
       <c r="K12" s="195" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Apt</v>
+        <f>LEFT("RSDSH_"&amp;Q12,9)&amp;"-G"</f>
+        <v>RSDSH_Apt-G</v>
       </c>
       <c r="L12" s="195">
         <v>2020</v>
@@ -8189,7 +8189,7 @@
         <v>50</v>
       </c>
       <c r="N12" s="195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.1717043475893594E-2</v>
       </c>
       <c r="O12" s="196">
@@ -8212,7 +8212,7 @@
         <v>0.66203864734299511</v>
       </c>
       <c r="U12" s="197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
         <v>R-RTFT-Att_B3</v>
       </c>
       <c r="C13" s="202" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Residential Att_B3 - Shallow retrofit</v>
       </c>
       <c r="D13" s="202" t="s">
@@ -8241,12 +8241,12 @@
       <c r="H13" s="202"/>
       <c r="I13" s="202"/>
       <c r="J13" s="202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>R-RTFT-Att_B3</v>
       </c>
       <c r="K13" s="202" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q13,9)&amp;"-AB"</f>
+        <v>RSDSH_Att-AB</v>
       </c>
       <c r="L13" s="202">
         <v>2020</v>
@@ -8291,7 +8291,7 @@
         <v>R-RTFT-Att_C</v>
       </c>
       <c r="C14" s="184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Residential Att_C - Shallow retrofit</v>
       </c>
       <c r="D14" s="184" t="s">
@@ -8307,12 +8307,12 @@
       <c r="H14" s="184"/>
       <c r="I14" s="184"/>
       <c r="J14" s="184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>R-RTFT-Att_C</v>
       </c>
       <c r="K14" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q14,9)&amp;"-C"</f>
+        <v>RSDSH_Att-C</v>
       </c>
       <c r="L14" s="184">
         <v>2020</v>
@@ -8321,7 +8321,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="184">
-        <f t="shared" ref="N14:N18" si="9">U14</f>
+        <f t="shared" ref="N14:N18" si="8">U14</f>
         <v>8.8482180697850338E-4</v>
       </c>
       <c r="O14" s="185">
@@ -8357,7 +8357,7 @@
         <v>R-RTFT-Att_D</v>
       </c>
       <c r="C15" s="184" t="str">
-        <f t="shared" ref="C15:C20" si="10">"Residential "&amp;Q15&amp;" - "&amp;R15&amp;" retrofit"</f>
+        <f t="shared" ref="C15:C20" si="9">"Residential "&amp;Q15&amp;" - "&amp;R15&amp;" retrofit"</f>
         <v>Residential Att_D - Shallow retrofit</v>
       </c>
       <c r="D15" s="184" t="s">
@@ -8373,12 +8373,12 @@
       <c r="H15" s="184"/>
       <c r="I15" s="184"/>
       <c r="J15" s="184" t="str">
-        <f t="shared" ref="J15:J20" si="11">B15</f>
+        <f t="shared" ref="J15:J20" si="10">B15</f>
         <v>R-RTFT-Att_D</v>
       </c>
       <c r="K15" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q15,9)&amp;"-D"</f>
+        <v>RSDSH_Att-D</v>
       </c>
       <c r="L15" s="184">
         <v>2020</v>
@@ -8387,7 +8387,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.1655487686243003E-3</v>
       </c>
       <c r="O15" s="185">
@@ -8410,7 +8410,7 @@
         <v>0.39490504334121357</v>
       </c>
       <c r="U15" s="186">
-        <f t="shared" ref="U15:U18" si="12">S15*T15</f>
+        <f t="shared" ref="U15:U18" si="11">S15*T15</f>
         <v>5.1655487686243003E-3</v>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
         <v>R-RTFT-Att_E</v>
       </c>
       <c r="C16" s="184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Residential Att_E - Deep retrofit</v>
       </c>
       <c r="D16" s="184" t="s">
@@ -8439,12 +8439,12 @@
       <c r="H16" s="184"/>
       <c r="I16" s="184"/>
       <c r="J16" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-RTFT-Att_E</v>
       </c>
       <c r="K16" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q16,9)&amp;"-E"</f>
+        <v>RSDSH_Att-E</v>
       </c>
       <c r="L16" s="184">
         <v>2020</v>
@@ -8453,7 +8453,7 @@
         <v>50</v>
       </c>
       <c r="N16" s="184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9.3929668522173305E-3</v>
       </c>
       <c r="O16" s="185">
@@ -8476,7 +8476,7 @@
         <v>0.55168013743533795</v>
       </c>
       <c r="U16" s="186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9.3929668522173305E-3</v>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
         <v>R-RTFT-Att_F</v>
       </c>
       <c r="C17" s="184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Residential Att_F - Deep retrofit</v>
       </c>
       <c r="D17" s="184" t="s">
@@ -8505,12 +8505,12 @@
       <c r="H17" s="184"/>
       <c r="I17" s="184"/>
       <c r="J17" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-RTFT-Att_F</v>
       </c>
       <c r="K17" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q17,9)&amp;"-F"</f>
+        <v>RSDSH_Att-F</v>
       </c>
       <c r="L17" s="184">
         <v>2020</v>
@@ -8542,7 +8542,7 @@
         <v>0.65388849621966627</v>
       </c>
       <c r="U17" s="186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4727434391205585E-2</v>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
         <v>R-RTFT-Att_G</v>
       </c>
       <c r="C18" s="195" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Residential Att_G - Deep retrofit</v>
       </c>
       <c r="D18" s="195" t="s">
@@ -8571,12 +8571,12 @@
       <c r="H18" s="195"/>
       <c r="I18" s="195"/>
       <c r="J18" s="195" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-RTFT-Att_G</v>
       </c>
       <c r="K18" s="195" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Att</v>
+        <f>LEFT("RSDSH_"&amp;Q18,9)&amp;"-G"</f>
+        <v>RSDSH_Att-G</v>
       </c>
       <c r="L18" s="195">
         <v>2020</v>
@@ -8585,7 +8585,7 @@
         <v>50</v>
       </c>
       <c r="N18" s="195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1290335851398529E-2</v>
       </c>
       <c r="O18" s="196">
@@ -8608,7 +8608,7 @@
         <v>0.64903057196453795</v>
       </c>
       <c r="U18" s="197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.1290335851398529E-2</v>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
         <v>R-RTFT-Det_B3</v>
       </c>
       <c r="C19" s="202" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Residential Det_B3 - Shallow retrofit</v>
       </c>
       <c r="D19" s="202" t="s">
@@ -8637,12 +8637,12 @@
       <c r="H19" s="202"/>
       <c r="I19" s="202"/>
       <c r="J19" s="202" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-RTFT-Det_B3</v>
       </c>
       <c r="K19" s="202" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q19,9)&amp;"-AB"</f>
+        <v>RSDSH_Det-AB</v>
       </c>
       <c r="L19" s="202">
         <v>2020</v>
@@ -8687,7 +8687,7 @@
         <v>R-RTFT-Det_C</v>
       </c>
       <c r="C20" s="184" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Residential Det_C - Shallow retrofit</v>
       </c>
       <c r="D20" s="184" t="s">
@@ -8703,12 +8703,12 @@
       <c r="H20" s="184"/>
       <c r="I20" s="184"/>
       <c r="J20" s="184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-RTFT-Det_C</v>
       </c>
       <c r="K20" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q20,9)&amp;"-C"</f>
+        <v>RSDSH_Det-C</v>
       </c>
       <c r="L20" s="184">
         <v>2020</v>
@@ -8717,7 +8717,7 @@
         <v>50</v>
       </c>
       <c r="N20" s="184">
-        <f t="shared" ref="N20:N24" si="13">U20</f>
+        <f t="shared" ref="N20:N24" si="12">U20</f>
         <v>1.0167222982933634E-3</v>
       </c>
       <c r="O20" s="185">
@@ -8753,7 +8753,7 @@
         <v>R-RTFT-Det_D</v>
       </c>
       <c r="C21" s="184" t="str">
-        <f t="shared" ref="C21:C24" si="14">"Residential "&amp;Q21&amp;" - "&amp;R21&amp;" retrofit"</f>
+        <f t="shared" ref="C21:C24" si="13">"Residential "&amp;Q21&amp;" - "&amp;R21&amp;" retrofit"</f>
         <v>Residential Det_D - Shallow retrofit</v>
       </c>
       <c r="D21" s="184" t="s">
@@ -8769,12 +8769,12 @@
       <c r="H21" s="184"/>
       <c r="I21" s="184"/>
       <c r="J21" s="184" t="str">
-        <f t="shared" ref="J21:J24" si="15">B21</f>
+        <f t="shared" ref="J21:J24" si="14">B21</f>
         <v>R-RTFT-Det_D</v>
       </c>
       <c r="K21" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q21,9)&amp;"-D"</f>
+        <v>RSDSH_Det-D</v>
       </c>
       <c r="L21" s="184">
         <v>2020</v>
@@ -8783,7 +8783,7 @@
         <v>50</v>
       </c>
       <c r="N21" s="184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.2660659296241401E-3</v>
       </c>
       <c r="O21" s="185">
@@ -8806,7 +8806,7 @@
         <v>0.40258955772665206</v>
       </c>
       <c r="U21" s="186">
-        <f t="shared" ref="U21:U24" si="16">S21*T21</f>
+        <f t="shared" ref="U21:U24" si="15">S21*T21</f>
         <v>5.2660659296241401E-3</v>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
         <v>R-RTFT-Det_E</v>
       </c>
       <c r="C22" s="184" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Residential Det_E - Deep retrofit</v>
       </c>
       <c r="D22" s="184" t="s">
@@ -8835,12 +8835,12 @@
       <c r="H22" s="184"/>
       <c r="I22" s="184"/>
       <c r="J22" s="184" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>R-RTFT-Det_E</v>
       </c>
       <c r="K22" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q22,9)&amp;"-E"</f>
+        <v>RSDSH_Det-E</v>
       </c>
       <c r="L22" s="184">
         <v>2020</v>
@@ -8849,7 +8849,7 @@
         <v>50</v>
       </c>
       <c r="N22" s="184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.4356152934719911E-3</v>
       </c>
       <c r="O22" s="185">
@@ -8872,7 +8872,7 @@
         <v>0.55418502202643172</v>
       </c>
       <c r="U22" s="186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9.4356152934719911E-3</v>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
         <v>R-RTFT-Det_F</v>
       </c>
       <c r="C23" s="184" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Residential Det_F - Deep retrofit</v>
       </c>
       <c r="D23" s="184" t="s">
@@ -8901,12 +8901,12 @@
       <c r="H23" s="184"/>
       <c r="I23" s="184"/>
       <c r="J23" s="184" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>R-RTFT-Det_F</v>
       </c>
       <c r="K23" s="184" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q23,9)&amp;"-F"</f>
+        <v>RSDSH_Det-F</v>
       </c>
       <c r="L23" s="184">
         <v>2020</v>
@@ -8915,7 +8915,7 @@
         <v>50</v>
       </c>
       <c r="N23" s="184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.4628662883294537E-2</v>
       </c>
       <c r="O23" s="185">
@@ -8938,7 +8938,7 @@
         <v>0.64950310559006208</v>
       </c>
       <c r="U23" s="186">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.4628662883294537E-2</v>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
         <v>R-RTFT-Det_G</v>
       </c>
       <c r="C24" s="195" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Residential Det_G - Deep retrofit</v>
       </c>
       <c r="D24" s="195" t="s">
@@ -8967,12 +8967,12 @@
       <c r="H24" s="195"/>
       <c r="I24" s="195"/>
       <c r="J24" s="195" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>R-RTFT-Det_G</v>
       </c>
       <c r="K24" s="195" t="str">
-        <f t="shared" si="3"/>
-        <v>RSDSH_Det</v>
+        <f>LEFT("RSDSH_"&amp;Q24,9)&amp;"-G"</f>
+        <v>RSDSH_Det-G</v>
       </c>
       <c r="L24" s="195">
         <v>2020</v>
@@ -8981,7 +8981,7 @@
         <v>50</v>
       </c>
       <c r="N24" s="195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.1717043475893594E-2</v>
       </c>
       <c r="O24" s="196">
@@ -9004,7 +9004,7 @@
         <v>0.66203864734299511</v>
       </c>
       <c r="U24" s="197">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.1717043475893594E-2</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF34D6F-2D22-4459-A6F8-69C4B2350AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1F2D2-CD10-4963-81BA-5373FED5275A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="5640" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -13,9 +13,6 @@
     <sheet name="RSD_Retrofit" sheetId="57" r:id="rId3"/>
     <sheet name="Data" sheetId="58" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -1983,7 +1980,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2545,6 +2542,9 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3529,203 +3529,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83CAA86-A9C6-4967-BF8D-5B3023197EE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20297775" y="4400550"/>
-          <a:ext cx="8524875" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="A32F86"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Subsequently published in "Value for money in energy efficiency retrofits in Ireland: grant provider and grant recipients", </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Applied Economics, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="5F4779"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>vol. 49, March, 2017, pp. 1-23, http://doi.org/10.1080/00036846.2017.1302068</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-IE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="Regions"/>
-      <sheetName val="SETUP"/>
-      <sheetName val="EB2018"/>
-      <sheetName val="RSD_Balance"/>
-      <sheetName val="Fuel-Age_Adj"/>
-      <sheetName val="COMM"/>
-      <sheetName val="EMIS"/>
-      <sheetName val="Sector_Fuels"/>
-      <sheetName val="ArchetypeDemand"/>
-      <sheetName val="Non-ArchetypeDemand"/>
-      <sheetName val="DwellingStocks"/>
-      <sheetName val="SHWLP-Apt"/>
-      <sheetName val="SHWLP-Att"/>
-      <sheetName val="SHWLP-Det"/>
-      <sheetName val="ApartmentEnergyData"/>
-      <sheetName val="AttachedEnergyData"/>
-      <sheetName val="DettachedEnergyData"/>
-      <sheetName val="RES"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="66">
-          <cell r="L66">
-            <v>1.056312762758917E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="L71">
-            <v>1.2326927211334543E-2</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="L76">
-            <v>1.3080483158481877E-2</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="L81">
-            <v>1.7026110267234832E-2</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="L86">
-            <v>2.2522852866122413E-2</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="L91">
-            <v>3.2803286580099345E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7659,8 +7463,8 @@
   </sheetPr>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7860,7 +7664,7 @@
       </c>
       <c r="N7" s="202">
         <f>U7</f>
-        <v>5.7348345211809249E-4</v>
+        <v>8.84664262611849E-4</v>
       </c>
       <c r="O7" s="203">
         <f>Data!O39/1000</f>
@@ -7873,9 +7677,8 @@
       <c r="R7" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="204">
-        <f>[1]ArchetypeDemand!$L$66</f>
-        <v>1.056312762758917E-2</v>
+      <c r="S7" s="66">
+        <v>1.6294840729967088E-2</v>
       </c>
       <c r="T7" s="205">
         <f>Data!R39</f>
@@ -7883,7 +7686,7 @@
       </c>
       <c r="U7" s="204">
         <f>S7*T7</f>
-        <v>5.7348345211809249E-4</v>
+        <v>8.84664262611849E-4</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -7926,7 +7729,7 @@
       </c>
       <c r="N8" s="184">
         <f t="shared" ref="N8:N9" si="3">U8</f>
-        <v>6.6924201054815937E-4</v>
+        <v>6.4369688642752147E-4</v>
       </c>
       <c r="O8" s="185">
         <f>Data!O39/1000</f>
@@ -7939,9 +7742,8 @@
       <c r="R8" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="186">
-        <f>[1]ArchetypeDemand!$L$71</f>
-        <v>1.2326927211334543E-2</v>
+      <c r="S8" s="66">
+        <v>1.1856405515630341E-2</v>
       </c>
       <c r="T8" s="187">
         <f>Data!R39</f>
@@ -7949,7 +7751,7 @@
       </c>
       <c r="U8" s="186">
         <f>S8*T8</f>
-        <v>6.6924201054815937E-4</v>
+        <v>6.4369688642752147E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -7992,7 +7794,7 @@
       </c>
       <c r="N9" s="184">
         <f t="shared" si="3"/>
-        <v>4.7948563185053724E-3</v>
+        <v>4.7542107140211894E-3</v>
       </c>
       <c r="O9" s="185">
         <f>Data!O41/1000</f>
@@ -8005,9 +7807,8 @@
       <c r="R9" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S9" s="186">
-        <f>[1]ArchetypeDemand!$L$76</f>
-        <v>1.3080483158481877E-2</v>
+      <c r="S9" s="66">
+        <v>1.2969600973572654E-2</v>
       </c>
       <c r="T9" s="187">
         <f>Data!R41</f>
@@ -8015,7 +7816,7 @@
       </c>
       <c r="U9" s="186">
         <f t="shared" ref="U9:U12" si="6">S9*T9</f>
-        <v>4.7948563185053724E-3</v>
+        <v>4.7542107140211894E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8058,7 +7859,7 @@
       </c>
       <c r="N10" s="184">
         <f t="shared" ref="N10:N12" si="7">U10</f>
-        <v>9.2808418616751667E-3</v>
+        <v>9.4415911336414356E-3</v>
       </c>
       <c r="O10" s="185">
         <f>Data!O44/1000</f>
@@ -8071,9 +7872,8 @@
       <c r="R10" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="186">
-        <f>[1]ArchetypeDemand!$L$81</f>
-        <v>1.7026110267234832E-2</v>
+      <c r="S10" s="66">
+        <v>1.7321011836582485E-2</v>
       </c>
       <c r="T10" s="187">
         <f>Data!R44</f>
@@ -8081,7 +7881,7 @@
       </c>
       <c r="U10" s="186">
         <f t="shared" si="6"/>
-        <v>9.2808418616751667E-3</v>
+        <v>9.4415911336414356E-3</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8124,7 +7924,7 @@
       </c>
       <c r="N11" s="184">
         <f t="shared" si="7"/>
-        <v>1.4628662883294537E-2</v>
+        <v>1.5291203365270829E-2</v>
       </c>
       <c r="O11" s="185">
         <f>Data!O48/1000</f>
@@ -8137,9 +7937,8 @@
       <c r="R11" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="186">
-        <f>[1]ArchetypeDemand!$L$86</f>
-        <v>2.2522852866122413E-2</v>
+      <c r="S11" s="66">
+        <v>2.3542925713001851E-2</v>
       </c>
       <c r="T11" s="187">
         <f>Data!R48</f>
@@ -8147,7 +7946,7 @@
       </c>
       <c r="U11" s="186">
         <f t="shared" si="6"/>
-        <v>1.4628662883294537E-2</v>
+        <v>1.5291203365270829E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8190,7 +7989,7 @@
       </c>
       <c r="N12" s="195">
         <f t="shared" si="7"/>
-        <v>2.1717043475893594E-2</v>
+        <v>1.8834099256932052E-2</v>
       </c>
       <c r="O12" s="196">
         <f>Data!O53/1000</f>
@@ -8203,9 +8002,8 @@
       <c r="R12" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="197">
-        <f>[1]ArchetypeDemand!$L$91</f>
-        <v>3.2803286580099345E-2</v>
+      <c r="S12" s="66">
+        <v>2.8448640170056879E-2</v>
       </c>
       <c r="T12" s="198">
         <f>Data!R53</f>
@@ -8213,7 +8011,7 @@
       </c>
       <c r="U12" s="197">
         <f t="shared" si="6"/>
-        <v>2.1717043475893594E-2</v>
+        <v>1.8834099256932052E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8256,22 +8054,20 @@
       </c>
       <c r="N13" s="202">
         <f>U13</f>
-        <v>7.5821699232505875E-4</v>
+        <v>1.890806224451268E-3</v>
       </c>
       <c r="O13" s="203">
         <f>Data!M39/1000</f>
         <v>9.0075000000000003</v>
       </c>
-      <c r="P13" s="186"/>
       <c r="Q13" s="204" t="s">
         <v>229</v>
       </c>
       <c r="R13" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="204">
-        <f>[1]ArchetypeDemand!$L$66</f>
-        <v>1.056312762758917E-2</v>
+      <c r="S13" s="186">
+        <v>2.6341835741075181E-2</v>
       </c>
       <c r="T13" s="205">
         <f>Data!P39</f>
@@ -8279,7 +8075,7 @@
       </c>
       <c r="U13" s="204">
         <f>S13*T13</f>
-        <v>7.5821699232505875E-4</v>
+        <v>1.890806224451268E-3</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8322,7 +8118,7 @@
       </c>
       <c r="N14" s="184">
         <f t="shared" ref="N14:N18" si="8">U14</f>
-        <v>8.8482180697850338E-4</v>
+        <v>1.6092605413402321E-3</v>
       </c>
       <c r="O14" s="185">
         <f>Data!M39/1000</f>
@@ -8335,9 +8131,8 @@
       <c r="R14" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S14" s="186">
-        <f>[1]ArchetypeDemand!$L$71</f>
-        <v>1.2326927211334543E-2</v>
+      <c r="S14" s="66">
+        <v>2.2419471808582819E-2</v>
       </c>
       <c r="T14" s="187">
         <f>Data!P39</f>
@@ -8345,7 +8140,7 @@
       </c>
       <c r="U14" s="186">
         <f>S14*T14</f>
-        <v>8.8482180697850338E-4</v>
+        <v>1.6092605413402321E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8388,7 +8183,7 @@
       </c>
       <c r="N15" s="184">
         <f t="shared" si="8"/>
-        <v>5.1655487686243003E-3</v>
+        <v>1.2628723163304658E-2</v>
       </c>
       <c r="O15" s="185">
         <f>Data!M41/1000</f>
@@ -8401,9 +8196,8 @@
       <c r="R15" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="186">
-        <f>[1]ArchetypeDemand!$L$76</f>
-        <v>1.3080483158481877E-2</v>
+      <c r="S15" s="66">
+        <v>3.19791387227054E-2</v>
       </c>
       <c r="T15" s="187">
         <f>Data!P41</f>
@@ -8411,7 +8205,7 @@
       </c>
       <c r="U15" s="186">
         <f t="shared" ref="U15:U18" si="11">S15*T15</f>
-        <v>5.1655487686243003E-3</v>
+        <v>1.2628723163304658E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -8454,7 +8248,7 @@
       </c>
       <c r="N16" s="184">
         <f t="shared" si="8"/>
-        <v>9.3929668522173305E-3</v>
+        <v>2.4055673483702616E-2</v>
       </c>
       <c r="O16" s="185">
         <f>Data!M44/1000</f>
@@ -8467,9 +8261,8 @@
       <c r="R16" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="186">
-        <f>[1]ArchetypeDemand!$L$81</f>
-        <v>1.7026110267234832E-2</v>
+      <c r="S16" s="66">
+        <v>4.3604385678145181E-2</v>
       </c>
       <c r="T16" s="187">
         <f>Data!P44</f>
@@ -8477,7 +8270,7 @@
       </c>
       <c r="U16" s="186">
         <f t="shared" si="11"/>
-        <v>9.3929668522173305E-3</v>
+        <v>2.4055673483702616E-2</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8520,7 +8313,7 @@
       </c>
       <c r="N17" s="184">
         <f>U17</f>
-        <v>1.4727434391205585E-2</v>
+        <v>3.6420614039164613E-2</v>
       </c>
       <c r="O17" s="185">
         <f>Data!M48/1000</f>
@@ -8533,9 +8326,8 @@
       <c r="R17" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="186">
-        <f>[1]ArchetypeDemand!$L$86</f>
-        <v>2.2522852866122413E-2</v>
+      <c r="S17" s="66">
+        <v>5.5698508613813459E-2</v>
       </c>
       <c r="T17" s="187">
         <f>Data!P48</f>
@@ -8543,7 +8335,7 @@
       </c>
       <c r="U17" s="186">
         <f t="shared" si="11"/>
-        <v>1.4727434391205585E-2</v>
+        <v>3.6420614039164613E-2</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8586,7 +8378,7 @@
       </c>
       <c r="N18" s="195">
         <f t="shared" si="8"/>
-        <v>2.1290335851398529E-2</v>
+        <v>3.7369002794508319E-2</v>
       </c>
       <c r="O18" s="196">
         <f>Data!M53/1000</f>
@@ -8599,9 +8391,8 @@
       <c r="R18" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="197">
-        <f>[1]ArchetypeDemand!$L$91</f>
-        <v>3.2803286580099345E-2</v>
+      <c r="S18" s="66">
+        <v>5.7576644935841491E-2</v>
       </c>
       <c r="T18" s="198">
         <f>Data!P53</f>
@@ -8609,7 +8400,7 @@
       </c>
       <c r="U18" s="197">
         <f t="shared" si="11"/>
-        <v>2.1290335851398529E-2</v>
+        <v>3.7369002794508319E-2</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8652,7 +8443,7 @@
       </c>
       <c r="N19" s="202">
         <f>U19</f>
-        <v>8.7124448896018676E-4</v>
+        <v>4.8048482413916866E-3</v>
       </c>
       <c r="O19" s="203">
         <f>Data!N39/1000</f>
@@ -8665,9 +8456,8 @@
       <c r="R19" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="204">
-        <f>[1]ArchetypeDemand!$L$66</f>
-        <v>1.056312762758917E-2</v>
+      <c r="S19" s="66">
+        <v>5.8254859397265095E-2</v>
       </c>
       <c r="T19" s="205">
         <f>Data!Q39</f>
@@ -8675,7 +8465,7 @@
       </c>
       <c r="U19" s="204">
         <f>S19*T19</f>
-        <v>8.7124448896018676E-4</v>
+        <v>4.8048482413916866E-3</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8718,7 +8508,7 @@
       </c>
       <c r="N20" s="184">
         <f t="shared" ref="N20:N24" si="12">U20</f>
-        <v>1.0167222982933634E-3</v>
+        <v>3.5430233613999904E-3</v>
       </c>
       <c r="O20" s="185">
         <f>Data!N39/1000</f>
@@ -8731,9 +8521,8 @@
       <c r="R20" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="186">
-        <f>[1]ArchetypeDemand!$L$71</f>
-        <v>1.2326927211334543E-2</v>
+      <c r="S20" s="66">
+        <v>4.2956263630045545E-2</v>
       </c>
       <c r="T20" s="187">
         <f>Data!Q39</f>
@@ -8741,7 +8530,7 @@
       </c>
       <c r="U20" s="186">
         <f>S20*T20</f>
-        <v>1.0167222982933634E-3</v>
+        <v>3.5430233613999904E-3</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8784,7 +8573,7 @@
       </c>
       <c r="N21" s="184">
         <f t="shared" si="12"/>
-        <v>5.2660659296241401E-3</v>
+        <v>2.0260252166062205E-2</v>
       </c>
       <c r="O21" s="185">
         <f>Data!N41/1000</f>
@@ -8797,9 +8586,8 @@
       <c r="R21" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="186">
-        <f>[1]ArchetypeDemand!$L$76</f>
-        <v>1.3080483158481877E-2</v>
+      <c r="S21" s="66">
+        <v>5.032483276632424E-2</v>
       </c>
       <c r="T21" s="187">
         <f>Data!Q41</f>
@@ -8807,7 +8595,7 @@
       </c>
       <c r="U21" s="186">
         <f t="shared" ref="U21:U24" si="15">S21*T21</f>
-        <v>5.2660659296241401E-3</v>
+        <v>2.0260252166062205E-2</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8850,7 +8638,7 @@
       </c>
       <c r="N22" s="184">
         <f t="shared" si="12"/>
-        <v>9.4356152934719911E-3</v>
+        <v>3.5033314742052707E-2</v>
       </c>
       <c r="O22" s="185">
         <f>Data!N44/1000</f>
@@ -8863,9 +8651,8 @@
       <c r="R22" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="186">
-        <f>[1]ArchetypeDemand!$L$81</f>
-        <v>1.7026110267234832E-2</v>
+      <c r="S22" s="66">
+        <v>6.321591769829861E-2</v>
       </c>
       <c r="T22" s="187">
         <f>Data!Q44</f>
@@ -8873,7 +8660,7 @@
       </c>
       <c r="U22" s="186">
         <f t="shared" si="15"/>
-        <v>9.4356152934719911E-3</v>
+        <v>3.5033314742052707E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8916,7 +8703,7 @@
       </c>
       <c r="N23" s="184">
         <f t="shared" si="12"/>
-        <v>1.4628662883294537E-2</v>
+        <v>5.017067141421324E-2</v>
       </c>
       <c r="O23" s="185">
         <f>Data!N48/1000</f>
@@ -8929,9 +8716,8 @@
       <c r="R23" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="S23" s="186">
-        <f>[1]ArchetypeDemand!$L$86</f>
-        <v>2.2522852866122413E-2</v>
+      <c r="S23" s="66">
+        <v>7.724469826612157E-2</v>
       </c>
       <c r="T23" s="187">
         <f>Data!R48</f>
@@ -8939,7 +8725,7 @@
       </c>
       <c r="U23" s="186">
         <f t="shared" si="15"/>
-        <v>1.4628662883294537E-2</v>
+        <v>5.017067141421324E-2</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8982,7 +8768,7 @@
       </c>
       <c r="N24" s="195">
         <f t="shared" si="12"/>
-        <v>2.1717043475893594E-2</v>
+        <v>5.375148798769535E-2</v>
       </c>
       <c r="O24" s="196">
         <f>Data!N53/1000</f>
@@ -8995,9 +8781,8 @@
       <c r="R24" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="197">
-        <f>[1]ArchetypeDemand!$L$91</f>
-        <v>3.2803286580099345E-2</v>
+      <c r="S24" s="66">
+        <v>8.119086129400431E-2</v>
       </c>
       <c r="T24" s="198">
         <f>Data!R53</f>
@@ -9005,7 +8790,7 @@
       </c>
       <c r="U24" s="197">
         <f t="shared" si="15"/>
-        <v>2.1717043475893594E-2</v>
+        <v>5.375148798769535E-2</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -9247,8 +9032,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9441,13 +9226,13 @@
         <v>111</v>
       </c>
       <c r="D5" s="77">
-        <v>15472.073727176739</v>
+        <v>72528.642938868245</v>
       </c>
       <c r="E5" s="77">
-        <v>20378.706337556119</v>
+        <v>37364.451209178158</v>
       </c>
       <c r="F5" s="77">
-        <v>9418.8988568067343</v>
+        <v>11735.038424732089</v>
       </c>
       <c r="G5" s="79">
         <v>45269.678921539591</v>
@@ -9540,13 +9325,13 @@
         <v>114</v>
       </c>
       <c r="D6" s="82">
-        <v>9537.7783975583752</v>
+        <v>6727.4572369101443</v>
       </c>
       <c r="E6" s="82">
-        <v>9433.9012004747347</v>
+        <v>8186.7925913057998</v>
       </c>
       <c r="F6" s="82">
-        <v>7459.2913438514906</v>
+        <v>5197.6132443555907</v>
       </c>
       <c r="G6" s="84">
         <v>26430.9709418846</v>
@@ -9639,13 +9424,13 @@
         <v>115</v>
       </c>
       <c r="D7" s="87">
-        <v>17545.09295382088</v>
+        <v>14584.48055403824</v>
       </c>
       <c r="E7" s="87">
-        <v>20090.949195825138</v>
+        <v>18974.694526816245</v>
       </c>
       <c r="F7" s="87">
-        <v>14041.847426430093</v>
+        <v>13979.419134898935</v>
       </c>
       <c r="G7" s="89">
         <v>51677.889576076108</v>
@@ -9738,13 +9523,13 @@
         <v>116</v>
       </c>
       <c r="D8" s="82">
-        <v>49768.849685929476</v>
+        <v>49420.927051735707</v>
       </c>
       <c r="E8" s="82">
-        <v>53466.210043981671</v>
+        <v>54549.088898874157</v>
       </c>
       <c r="F8" s="82">
-        <v>19924.480375055824</v>
+        <v>21709.86153487581</v>
       </c>
       <c r="G8" s="84">
         <v>123159.54010496697</v>
@@ -9837,13 +9622,13 @@
         <v>118</v>
       </c>
       <c r="D9" s="87">
-        <v>282151.52747564798</v>
+        <v>293672.95873330871</v>
       </c>
       <c r="E9" s="87">
-        <v>251318.93361374349</v>
+        <v>264765.40185365622</v>
       </c>
       <c r="F9" s="87">
-        <v>58904.8034364337</v>
+        <v>71167.091754613168</v>
       </c>
       <c r="G9" s="89">
         <v>592375.26452582516</v>
@@ -9939,13 +9724,13 @@
         <v>122</v>
       </c>
       <c r="D10" s="82">
-        <v>187627.02237661046</v>
+        <v>175920.34461876052</v>
       </c>
       <c r="E10" s="82">
-        <v>166667.79141279124</v>
+        <v>166984.19754801539</v>
       </c>
       <c r="F10" s="82">
-        <v>43739.341649106158</v>
+        <v>47490.854787158918</v>
       </c>
       <c r="G10" s="84">
         <v>398034.15543850785</v>
@@ -10038,13 +9823,13 @@
         <v>125</v>
       </c>
       <c r="D11" s="87">
-        <v>101418.89596184672</v>
+        <v>85755.437936808186</v>
       </c>
       <c r="E11" s="87">
-        <v>81396.697989555512</v>
+        <v>74836.881491341002</v>
       </c>
       <c r="F11" s="87">
-        <v>25767.876472761334</v>
+        <v>23790.684938210514</v>
       </c>
       <c r="G11" s="89">
         <v>208583.47042416356</v>
@@ -10137,13 +9922,13 @@
         <v>127</v>
       </c>
       <c r="D12" s="82">
-        <v>50123.806027321167</v>
+        <v>38588.997221862926</v>
       </c>
       <c r="E12" s="82">
-        <v>43241.005762967114</v>
+        <v>37368.747662299225</v>
       </c>
       <c r="F12" s="82">
-        <v>12331.173226884033</v>
+        <v>8010.7993972868508</v>
       </c>
       <c r="G12" s="84">
         <v>105695.98501717232</v>
@@ -10234,13 +10019,13 @@
         <v>128</v>
       </c>
       <c r="D13" s="96">
-        <v>52706.674394088106</v>
+        <v>38905.107366988203</v>
       </c>
       <c r="E13" s="96">
-        <v>78435.533443104825</v>
+        <v>66469.176419880765</v>
       </c>
       <c r="F13" s="96">
-        <v>15211.172212670604</v>
+        <v>8658.126308421115</v>
       </c>
       <c r="G13" s="89">
         <v>146353.38004986354</v>
@@ -10298,16 +10083,13 @@
         <v>163</v>
       </c>
       <c r="D14" s="108">
-        <f>SUM(D5:D13)</f>
-        <v>766351.72099999979</v>
+        <v>776104.35365928081</v>
       </c>
       <c r="E14" s="108">
-        <f t="shared" ref="E14:F14" si="7">SUM(E5:E13)</f>
-        <v>724429.72899999993</v>
+        <v>729499.43220136687</v>
       </c>
       <c r="F14" s="108">
-        <f t="shared" si="7"/>
-        <v>206798.88499999998</v>
+        <v>211739.48952455298</v>
       </c>
       <c r="G14" s="99">
         <v>1697580.3349999997</v>
@@ -10529,15 +10311,15 @@
       </c>
       <c r="F18" s="108">
         <f>SUM(D5:D7)</f>
-        <v>42554.945078555997</v>
+        <v>93840.580729816618</v>
       </c>
       <c r="G18" s="108">
-        <f t="shared" ref="G18:H18" si="8">SUM(E5:E7)</f>
-        <v>49903.556733855992</v>
+        <f t="shared" ref="G18:H18" si="7">SUM(E5:E7)</f>
+        <v>64525.938327300202</v>
       </c>
       <c r="H18" s="108">
-        <f t="shared" si="8"/>
-        <v>30920.037627088317</v>
+        <f t="shared" si="7"/>
+        <v>30912.070803986615</v>
       </c>
       <c r="L18" s="100" t="s">
         <v>169</v>
@@ -10549,15 +10331,15 @@
         <v>111</v>
       </c>
       <c r="P18" s="164">
-        <f t="shared" ref="P18:P25" si="9">1-W4/$W$12</f>
+        <f t="shared" ref="P18:P25" si="8">1-W4/$W$12</f>
         <v>0.82657317923529827</v>
       </c>
       <c r="Q18" s="165">
-        <f t="shared" ref="Q18:Q24" si="10">1-W4/$W$11</f>
+        <f t="shared" ref="Q18:Q24" si="9">1-W4/$W$11</f>
         <v>0.73202753715113</v>
       </c>
       <c r="R18" s="165">
-        <f t="shared" ref="R18:R23" si="11">1-W4/$W$10</f>
+        <f t="shared" ref="R18:R23" si="10">1-W4/$W$10</f>
         <v>0.67174081354445081</v>
       </c>
       <c r="S18" s="165">
@@ -10627,29 +10409,29 @@
       </c>
       <c r="F19" s="108">
         <f>SUM(D8:D10)</f>
-        <v>519547.39953818789</v>
+        <v>519014.23040380492</v>
       </c>
       <c r="G19" s="108">
-        <f t="shared" ref="G19:H19" si="12">SUM(E8:E10)</f>
-        <v>471452.93507051643</v>
+        <f t="shared" ref="G19:H19" si="11">SUM(E8:E10)</f>
+        <v>486298.68830054579</v>
       </c>
       <c r="H19" s="108">
-        <f t="shared" si="12"/>
-        <v>122568.62546059568</v>
+        <f t="shared" si="11"/>
+        <v>140367.8080766479</v>
       </c>
       <c r="O19" s="192" t="s">
         <v>114</v>
       </c>
       <c r="P19" s="164">
+        <f t="shared" si="8"/>
+        <v>0.79158454239957576</v>
+      </c>
+      <c r="Q19" s="165">
         <f t="shared" si="9"/>
-        <v>0.79158454239957576</v>
-      </c>
-      <c r="Q19" s="165">
+        <v>0.67796443927935268</v>
+      </c>
+      <c r="R19" s="165">
         <f t="shared" si="10"/>
-        <v>0.67796443927935268</v>
-      </c>
-      <c r="R19" s="165">
-        <f t="shared" si="11"/>
         <v>0.60551494714016629</v>
       </c>
       <c r="S19" s="165">
@@ -10716,29 +10498,29 @@
       </c>
       <c r="F20" s="108">
         <f>SUM(D11:D13)</f>
-        <v>204249.37638325599</v>
+        <v>163249.54252565932</v>
       </c>
       <c r="G20" s="108">
-        <f t="shared" ref="G20:H20" si="13">SUM(E11:E13)</f>
-        <v>203073.23719562744</v>
+        <f t="shared" ref="G20:H20" si="12">SUM(E11:E13)</f>
+        <v>178674.80557352101</v>
       </c>
       <c r="H20" s="108">
-        <f t="shared" si="13"/>
-        <v>53310.221912315974</v>
+        <f t="shared" si="12"/>
+        <v>40459.61064391848</v>
       </c>
       <c r="O20" s="194" t="s">
         <v>115</v>
       </c>
       <c r="P20" s="188">
+        <f t="shared" si="8"/>
+        <v>0.73294667697694738</v>
+      </c>
+      <c r="Q20" s="189">
         <f t="shared" si="9"/>
-        <v>0.73294667697694738</v>
-      </c>
-      <c r="Q20" s="189">
+        <v>0.58735946166276198</v>
+      </c>
+      <c r="R20" s="189">
         <f t="shared" si="10"/>
-        <v>0.58735946166276198</v>
-      </c>
-      <c r="R20" s="189">
-        <f t="shared" si="11"/>
         <v>0.49452624358065522</v>
       </c>
       <c r="S20" s="190">
@@ -10762,22 +10544,22 @@
     <row r="21" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="108">
         <f>SUM(F18:F20)</f>
-        <v>766351.7209999999</v>
+        <v>776104.35365928081</v>
       </c>
       <c r="G21" s="66"/>
       <c r="O21" s="193" t="s">
         <v>116</v>
       </c>
       <c r="P21" s="165">
+        <f t="shared" si="8"/>
+        <v>0.67711162025267657</v>
+      </c>
+      <c r="Q21" s="165">
         <f t="shared" si="9"/>
-        <v>0.67711162025267657</v>
-      </c>
-      <c r="Q21" s="165">
+        <v>0.50108527640274758</v>
+      </c>
+      <c r="R21" s="165">
         <f t="shared" si="10"/>
-        <v>0.50108527640274758</v>
-      </c>
-      <c r="R21" s="165">
-        <f t="shared" si="11"/>
         <v>0.38884264622707332</v>
       </c>
       <c r="S21" s="166">
@@ -10809,15 +10591,15 @@
         <v>118</v>
       </c>
       <c r="P22" s="165">
+        <f t="shared" si="8"/>
+        <v>0.72141928210057427</v>
+      </c>
+      <c r="Q22" s="165">
         <f t="shared" si="9"/>
-        <v>0.72141928210057427</v>
-      </c>
-      <c r="Q22" s="165">
+        <v>0.56954777381867572</v>
+      </c>
+      <c r="R22" s="165">
         <f t="shared" si="10"/>
-        <v>0.56954777381867572</v>
-      </c>
-      <c r="R22" s="165">
-        <f t="shared" si="11"/>
         <v>0.47270739660309302</v>
       </c>
       <c r="S22" s="166">
@@ -10835,29 +10617,29 @@
       </c>
       <c r="F23" s="122">
         <f>F18/$D$14</f>
-        <v>5.5529261450638807E-2</v>
+        <v>0.12091232356494906</v>
       </c>
       <c r="G23" s="122">
         <f>G18/$E$14</f>
-        <v>6.8886676976582226E-2</v>
+        <v>8.84523489382084E-2</v>
       </c>
       <c r="H23" s="122">
         <f>H18/$F$14</f>
-        <v>0.14951742910552115</v>
+        <v>0.14599105189777128</v>
       </c>
       <c r="O23" s="80" t="s">
         <v>122</v>
       </c>
       <c r="P23" s="165">
+        <f t="shared" si="8"/>
+        <v>0.60126424040662463</v>
+      </c>
+      <c r="Q23" s="165">
         <f t="shared" si="9"/>
-        <v>0.60126424040662463</v>
-      </c>
-      <c r="Q23" s="165">
+        <v>0.38388881804434616</v>
+      </c>
+      <c r="R23" s="166">
         <f t="shared" si="10"/>
-        <v>0.38388881804434616</v>
-      </c>
-      <c r="R23" s="166">
-        <f t="shared" si="11"/>
         <v>0.24528008137541124</v>
       </c>
       <c r="S23" s="164"/>
@@ -10870,27 +10652,27 @@
       <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="122">
-        <f t="shared" ref="F24:F25" si="14">F19/$D$14</f>
-        <v>0.67794902171060434</v>
-      </c>
-      <c r="G24" s="122">
-        <f t="shared" ref="G24:G25" si="15">G19/$E$14</f>
-        <v>0.65079181071338454</v>
-      </c>
-      <c r="H24" s="122">
-        <f t="shared" ref="H24:H25" si="16">H19/$F$14</f>
-        <v>0.59269480810109632</v>
+      <c r="F24" s="226">
+        <f>F19/$D$14</f>
+        <v>0.66874284103250692</v>
+      </c>
+      <c r="G24" s="226">
+        <f t="shared" ref="G24:G25" si="13">G19/$E$14</f>
+        <v>0.66661969404564347</v>
+      </c>
+      <c r="H24" s="226">
+        <f t="shared" ref="H24:H25" si="14">H19/$F$14</f>
+        <v>0.66292692209580051</v>
       </c>
       <c r="O24" s="85" t="s">
         <v>125</v>
       </c>
       <c r="P24" s="165">
+        <f t="shared" si="8"/>
+        <v>0.47167717486503269</v>
+      </c>
+      <c r="Q24" s="166">
         <f t="shared" si="9"/>
-        <v>0.47167717486503269</v>
-      </c>
-      <c r="Q24" s="166">
-        <f t="shared" si="10"/>
         <v>0.18365586126511313</v>
       </c>
       <c r="R24" s="164"/>
@@ -10905,22 +10687,22 @@
         <v>187</v>
       </c>
       <c r="F25" s="122">
+        <f t="shared" ref="F24:F25" si="15">F20/$D$14</f>
+        <v>0.21034483540254412</v>
+      </c>
+      <c r="G25" s="122">
+        <f t="shared" si="13"/>
+        <v>0.24492795701614833</v>
+      </c>
+      <c r="H25" s="122">
         <f t="shared" si="14"/>
-        <v>0.26652171683875692</v>
-      </c>
-      <c r="G25" s="122">
-        <f t="shared" si="15"/>
-        <v>0.28032151231003311</v>
-      </c>
-      <c r="H25" s="122">
-        <f t="shared" si="16"/>
-        <v>0.25778776279338245</v>
+        <v>0.19108202600642829</v>
       </c>
       <c r="O25" s="80" t="s">
         <v>127</v>
       </c>
       <c r="P25" s="166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.3528184988824381</v>
       </c>
       <c r="Q25" s="166"/>
@@ -11062,7 +10844,7 @@
         <v>6086</v>
       </c>
       <c r="G31" s="109">
-        <f t="shared" ref="G31:G56" si="17">SUM(E31:F31)</f>
+        <f t="shared" ref="G31:G56" si="16">SUM(E31:F31)</f>
         <v>21064</v>
       </c>
       <c r="H31" s="109"/>
@@ -11071,7 +10853,7 @@
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109">
-        <f t="shared" ref="M31:M44" si="18">AVERAGE(G31:I31)</f>
+        <f t="shared" ref="M31:M44" si="17">AVERAGE(G31:I31)</f>
         <v>21064</v>
       </c>
       <c r="N31" s="109">
@@ -11101,7 +10883,7 @@
         <v>6086</v>
       </c>
       <c r="G32" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
       <c r="H32" s="110"/>
@@ -11110,15 +10892,15 @@
       <c r="K32" s="110"/>
       <c r="L32" s="110"/>
       <c r="M32" s="110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>30424</v>
       </c>
       <c r="N32" s="110">
-        <f t="shared" ref="N32:N57" si="19">AVERAGE(G32*1.1,J32:K32)</f>
+        <f t="shared" ref="N32:N57" si="18">AVERAGE(G32*1.1,J32:K32)</f>
         <v>33466.400000000001</v>
       </c>
       <c r="O32" s="110">
-        <f t="shared" ref="O32:O57" si="20">AVERAGE(G32*0.9,L32)</f>
+        <f t="shared" ref="O32:O57" si="19">AVERAGE(G32*0.9,L32)</f>
         <v>27381.600000000002</v>
       </c>
       <c r="P32" s="115"/>
@@ -11140,7 +10922,7 @@
         <v>6086</v>
       </c>
       <c r="G33" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
       <c r="H33" s="110"/>
@@ -11149,15 +10931,15 @@
       <c r="K33" s="110"/>
       <c r="L33" s="110"/>
       <c r="M33" s="110">
+        <f t="shared" si="17"/>
+        <v>30424</v>
+      </c>
+      <c r="N33" s="110">
         <f t="shared" si="18"/>
-        <v>30424</v>
-      </c>
-      <c r="N33" s="110">
+        <v>33466.400000000001</v>
+      </c>
+      <c r="O33" s="110">
         <f t="shared" si="19"/>
-        <v>33466.400000000001</v>
-      </c>
-      <c r="O33" s="110">
-        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P33" s="115"/>
@@ -11182,7 +10964,7 @@
         <v>6086</v>
       </c>
       <c r="G34" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>32297</v>
       </c>
       <c r="H34" s="110"/>
@@ -11191,15 +10973,15 @@
       <c r="K34" s="110"/>
       <c r="L34" s="110"/>
       <c r="M34" s="110">
+        <f t="shared" si="17"/>
+        <v>32297</v>
+      </c>
+      <c r="N34" s="110">
         <f t="shared" si="18"/>
-        <v>32297</v>
-      </c>
-      <c r="N34" s="110">
+        <v>35526.700000000004</v>
+      </c>
+      <c r="O34" s="110">
         <f t="shared" si="19"/>
-        <v>35526.700000000004</v>
-      </c>
-      <c r="O34" s="110">
-        <f t="shared" si="20"/>
         <v>29067.3</v>
       </c>
       <c r="P34" s="115"/>
@@ -11221,7 +11003,7 @@
         <v>6086</v>
       </c>
       <c r="G35" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>34169</v>
       </c>
       <c r="H35" s="110"/>
@@ -11230,15 +11012,15 @@
       <c r="K35" s="110"/>
       <c r="L35" s="110"/>
       <c r="M35" s="110">
+        <f t="shared" si="17"/>
+        <v>34169</v>
+      </c>
+      <c r="N35" s="110">
         <f t="shared" si="18"/>
-        <v>34169</v>
-      </c>
-      <c r="N35" s="110">
+        <v>37585.9</v>
+      </c>
+      <c r="O35" s="110">
         <f t="shared" si="19"/>
-        <v>37585.9</v>
-      </c>
-      <c r="O35" s="110">
-        <f t="shared" si="20"/>
         <v>30752.100000000002</v>
       </c>
       <c r="P35" s="115"/>
@@ -11260,7 +11042,7 @@
         <v>6086</v>
       </c>
       <c r="G36" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>36041</v>
       </c>
       <c r="H36" s="110"/>
@@ -11269,15 +11051,15 @@
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
       <c r="M36" s="110">
+        <f t="shared" si="17"/>
+        <v>36041</v>
+      </c>
+      <c r="N36" s="110">
         <f t="shared" si="18"/>
-        <v>36041</v>
-      </c>
-      <c r="N36" s="110">
+        <v>39645.100000000006</v>
+      </c>
+      <c r="O36" s="110">
         <f t="shared" si="19"/>
-        <v>39645.100000000006</v>
-      </c>
-      <c r="O36" s="110">
-        <f t="shared" si="20"/>
         <v>32436.9</v>
       </c>
       <c r="P36" s="115"/>
@@ -11299,7 +11081,7 @@
         <v>6086</v>
       </c>
       <c r="G37" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>21064</v>
       </c>
       <c r="H37" s="111"/>
@@ -11308,11 +11090,11 @@
       <c r="K37" s="111"/>
       <c r="L37" s="111"/>
       <c r="M37" s="111">
+        <f t="shared" si="17"/>
+        <v>21064</v>
+      </c>
+      <c r="N37" s="111">
         <f t="shared" si="18"/>
-        <v>21064</v>
-      </c>
-      <c r="N37" s="111">
-        <f t="shared" si="19"/>
         <v>23170.400000000001</v>
       </c>
       <c r="O37" s="111">
@@ -11333,27 +11115,27 @@
       </c>
       <c r="S37" s="111">
         <f>SUM(D6:D8)/SUM(D6:D13)*M37</f>
-        <v>2155.8776533753853</v>
+        <v>2117.6357317974011</v>
       </c>
       <c r="T37" s="111">
         <f>SUM(E6:E8)/SUM(E6:E13)*N37</f>
-        <v>2731.2453287173885</v>
+        <v>2735.4010164753909</v>
       </c>
       <c r="U37" s="111">
         <f>SUM(F6:F8)/SUM(F6:F13)*O37</f>
-        <v>3978.7737999936576</v>
+        <v>3875.5006491313611</v>
       </c>
       <c r="V37" s="116">
         <f>SUM(D6:D8)/SUM(D6:D13)*P37</f>
-        <v>3.8538235738807589E-2</v>
+        <v>3.7854627285159995E-2</v>
       </c>
       <c r="W37" s="116">
         <f>SUM(E6:E8)/SUM(E6:E13)*Q37</f>
-        <v>4.5342274618884251E-2</v>
+        <v>4.5411264516486083E-2</v>
       </c>
       <c r="X37" s="116">
         <f>SUM(F6:F8)/SUM(F6:F13)*R37</f>
-        <v>7.4868583865827593E-2</v>
+        <v>7.2925293056876742E-2</v>
       </c>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.2">
@@ -11368,7 +11150,7 @@
         <v>6086</v>
       </c>
       <c r="G38" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
       <c r="H38" s="109"/>
@@ -11377,15 +11159,15 @@
       <c r="K38" s="109"/>
       <c r="L38" s="109"/>
       <c r="M38" s="109">
+        <f t="shared" si="17"/>
+        <v>30424</v>
+      </c>
+      <c r="N38" s="109">
         <f t="shared" si="18"/>
-        <v>30424</v>
-      </c>
-      <c r="N38" s="109">
+        <v>33466.400000000001</v>
+      </c>
+      <c r="O38" s="109">
         <f t="shared" si="19"/>
-        <v>33466.400000000001</v>
-      </c>
-      <c r="O38" s="109">
-        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P38" s="117">
@@ -11402,27 +11184,27 @@
       </c>
       <c r="S38" s="109">
         <f>SUM(D9)/SUM(D6:D13)*M38</f>
-        <v>11432.162401919726</v>
+        <v>12698.997364979621</v>
       </c>
       <c r="T38" s="109">
-        <f t="shared" ref="T38:U38" si="21">SUM(E9)/SUM(E6:E13)*N38</f>
-        <v>11946.208000785055</v>
+        <f t="shared" ref="T38:U38" si="20">SUM(E9)/SUM(E6:E13)*N38</f>
+        <v>12802.047415510126</v>
       </c>
       <c r="U38" s="109">
-        <f t="shared" si="21"/>
-        <v>8171.5871871879508</v>
+        <f t="shared" si="20"/>
+        <v>9743.1273597783511</v>
       </c>
       <c r="V38" s="117">
         <f>SUM(D9)/SUM(D6:D13)*P38</f>
-        <v>0.15830435465061807</v>
+        <v>0.17584657319383612</v>
       </c>
       <c r="W38" s="117">
         <f>SUM(E9)/SUM(E6:E13)*Q38</f>
-        <v>0.15542534609094846</v>
+        <v>0.1665601879774431</v>
       </c>
       <c r="X38" s="117">
         <f>SUM(F9)/SUM(F6:F13)*R38</f>
-        <v>0.11688125511605342</v>
+        <v>0.13935957953822425</v>
       </c>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.2">
@@ -11437,7 +11219,7 @@
         <v>5326</v>
       </c>
       <c r="G39" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>12815</v>
       </c>
       <c r="H39" s="111">
@@ -11452,7 +11234,7 @@
         <v>9007.5</v>
       </c>
       <c r="N39" s="111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14096.500000000002</v>
       </c>
       <c r="O39" s="111">
@@ -11473,27 +11255,27 @@
       </c>
       <c r="S39" s="111">
         <f>D9/SUM(D6:D13)*M39</f>
-        <v>3384.6700905631055</v>
+        <v>3759.7363517306708</v>
       </c>
       <c r="T39" s="111">
         <f>E9/SUM(E6:E13)*N39</f>
-        <v>5031.9042706435866</v>
+        <v>5392.3953993479572</v>
       </c>
       <c r="U39" s="111">
         <f>F9/SUM(F6:F13)*O39</f>
-        <v>3441.9829675195106</v>
+        <v>4103.9369285945158</v>
       </c>
       <c r="V39" s="116">
         <f>D9/SUM(D6:D13)*P39</f>
-        <v>2.6971994278870277E-2</v>
+        <v>2.9960848370917337E-2</v>
       </c>
       <c r="W39" s="116">
-        <f t="shared" ref="W39:X39" si="22">E9/SUM(E6:E13)*Q39</f>
-        <v>2.9442086985843354E-2</v>
+        <f t="shared" ref="W39:X39" si="21">E9/SUM(E6:E13)*Q39</f>
+        <v>3.1551350317989668E-2</v>
       </c>
       <c r="X39" s="116">
-        <f t="shared" si="22"/>
-        <v>1.6202273564329378E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.931825620152931E-2</v>
       </c>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.2">
@@ -11508,7 +11290,7 @@
         <v>6086</v>
       </c>
       <c r="G40" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30424</v>
       </c>
       <c r="H40" s="110"/>
@@ -11517,15 +11299,15 @@
       <c r="K40" s="110"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110">
+        <f t="shared" si="17"/>
+        <v>30424</v>
+      </c>
+      <c r="N40" s="110">
         <f t="shared" si="18"/>
-        <v>30424</v>
-      </c>
-      <c r="N40" s="110">
+        <v>33466.400000000001</v>
+      </c>
+      <c r="O40" s="110">
         <f t="shared" si="19"/>
-        <v>33466.400000000001</v>
-      </c>
-      <c r="O40" s="110">
-        <f t="shared" si="20"/>
         <v>27381.600000000002</v>
       </c>
       <c r="P40" s="118">
@@ -11542,27 +11324,27 @@
       </c>
       <c r="S40" s="109">
         <f>SUM(D10)/SUM(D6:D13)*M40</f>
-        <v>7602.2363231160143</v>
+        <v>7607.1423204773337</v>
       </c>
       <c r="T40" s="109">
         <f>SUM(E10)/SUM(E6:E13)*N40</f>
-        <v>7922.3959556852897</v>
+        <v>8074.0897401398215</v>
       </c>
       <c r="U40" s="109">
         <f>SUM(F10)/SUM(F6:F13)*O40</f>
-        <v>6067.7537814310308</v>
+        <v>6501.7332478818789</v>
       </c>
       <c r="V40" s="117">
         <f>SUM(D10)/SUM(D6:D13)*P40</f>
-        <v>0.15560950122968473</v>
+        <v>0.15570992165467307</v>
       </c>
       <c r="W40" s="117">
         <f>SUM(E10)/SUM(E6:E13)*Q40</f>
-        <v>0.14970346066399806</v>
+        <v>0.15256990215734015</v>
       </c>
       <c r="X40" s="117">
         <f>SUM(F10)/SUM(F6:F13)*R40</f>
-        <v>0.13130393418469363</v>
+        <v>0.14069508836678235</v>
       </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.2">
@@ -11577,7 +11359,7 @@
         <v>5326</v>
       </c>
       <c r="G41" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>12815</v>
       </c>
       <c r="H41" s="109"/>
@@ -11586,11 +11368,11 @@
       <c r="K41" s="109"/>
       <c r="L41" s="109"/>
       <c r="M41" s="109">
+        <f t="shared" si="17"/>
+        <v>12815</v>
+      </c>
+      <c r="N41" s="109">
         <f t="shared" si="18"/>
-        <v>12815</v>
-      </c>
-      <c r="N41" s="109">
-        <f t="shared" si="19"/>
         <v>14096.500000000002</v>
       </c>
       <c r="O41" s="109">
@@ -11611,27 +11393,27 @@
       </c>
       <c r="S41" s="109">
         <f>SUM(D10)/SUM(D6:D13)*M41</f>
-        <v>3202.1646884279426</v>
+        <v>3204.2311608242517</v>
       </c>
       <c r="T41" s="109">
-        <f t="shared" ref="T41:U41" si="23">SUM(E10)/SUM(E6:E13)*N41</f>
-        <v>3337.0202528302325</v>
+        <f t="shared" ref="T41:U41" si="22">SUM(E10)/SUM(E6:E13)*N41</f>
+        <v>3400.915725081903</v>
       </c>
       <c r="U41" s="109">
-        <f t="shared" si="23"/>
-        <v>2555.819902348102</v>
+        <f t="shared" si="22"/>
+        <v>2738.6179191298406</v>
       </c>
       <c r="V41" s="117">
         <f>SUM(D10)/SUM(D6:D13)*P41</f>
-        <v>9.8677408120900534E-2</v>
+        <v>9.8741088212295602E-2</v>
       </c>
       <c r="W41" s="117">
-        <f t="shared" ref="W41:X41" si="24">SUM(E10)/SUM(E6:E13)*Q41</f>
-        <v>9.5303763892583535E-2</v>
+        <f t="shared" ref="W41:X41" si="23">SUM(E10)/SUM(E6:E13)*Q41</f>
+        <v>9.7128589197768192E-2</v>
       </c>
       <c r="X41" s="117">
-        <f t="shared" si="24"/>
-        <v>8.1230839111318301E-2</v>
+        <f t="shared" si="23"/>
+        <v>8.704065234480296E-2</v>
       </c>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.2">
@@ -11646,7 +11428,7 @@
         <v>4565</v>
       </c>
       <c r="G42" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8309</v>
       </c>
       <c r="H42" s="111">
@@ -11661,15 +11443,15 @@
       <c r="K42" s="111"/>
       <c r="L42" s="111"/>
       <c r="M42" s="111">
+        <f t="shared" si="17"/>
+        <v>7536.333333333333</v>
+      </c>
+      <c r="N42" s="111">
         <f t="shared" si="18"/>
-        <v>7536.333333333333</v>
-      </c>
-      <c r="N42" s="111">
+        <v>19569.95</v>
+      </c>
+      <c r="O42" s="111">
         <f t="shared" si="19"/>
-        <v>19569.95</v>
-      </c>
-      <c r="O42" s="111">
-        <f t="shared" si="20"/>
         <v>7478.1</v>
       </c>
       <c r="P42" s="116">
@@ -11686,27 +11468,27 @@
       </c>
       <c r="S42" s="111">
         <f>D10/SUM(D6:D13)*M42</f>
-        <v>1883.1510324012836</v>
+        <v>1884.366297699974</v>
       </c>
       <c r="T42" s="111">
         <f>E10/SUM(E6:E13)*N42</f>
-        <v>4632.7329122033843</v>
+        <v>4721.437994826133</v>
       </c>
       <c r="U42" s="111">
         <f>F10/SUM(F6:F13)*O42</f>
-        <v>1657.1445625134904</v>
+        <v>1775.6672875575377</v>
       </c>
       <c r="V42" s="116">
         <f>D10/SUM(D6:D13)*P42</f>
-        <v>8.6985148229525189E-2</v>
+        <v>8.7041282883796645E-2</v>
       </c>
       <c r="W42" s="116">
-        <f t="shared" ref="W42:X42" si="25">E10/SUM(E6:E13)*Q42</f>
-        <v>8.2590641405322962E-2</v>
+        <f t="shared" ref="W42:X42" si="24">E10/SUM(E6:E13)*Q42</f>
+        <v>8.4172042666428804E-2</v>
       </c>
       <c r="X42" s="116">
-        <f t="shared" si="25"/>
-        <v>7.3172573402951982E-2</v>
+        <f t="shared" si="24"/>
+        <v>7.8406041257469861E-2</v>
       </c>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.2">
@@ -11721,7 +11503,7 @@
         <v>6086</v>
       </c>
       <c r="G43" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>32297</v>
       </c>
       <c r="H43" s="110"/>
@@ -11730,15 +11512,15 @@
       <c r="K43" s="110"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110">
+        <f t="shared" si="17"/>
+        <v>32297</v>
+      </c>
+      <c r="N43" s="110">
         <f t="shared" si="18"/>
-        <v>32297</v>
-      </c>
-      <c r="N43" s="110">
+        <v>35526.700000000004</v>
+      </c>
+      <c r="O43" s="110">
         <f t="shared" si="19"/>
-        <v>35526.700000000004</v>
-      </c>
-      <c r="O43" s="110">
-        <f t="shared" si="20"/>
         <v>29067.3</v>
       </c>
       <c r="P43" s="118">
@@ -11755,27 +11537,27 @@
       </c>
       <c r="S43" s="109">
         <f>SUM(D$11)/SUM(D$6:D$13)*M43</f>
-        <v>4362.2517866563512</v>
+        <v>3936.5250062557898</v>
       </c>
       <c r="T43" s="109">
-        <f t="shared" ref="T43" si="26">SUM(E$11)/SUM(E$6:E$13)*N43</f>
-        <v>4107.3103757879071</v>
+        <f t="shared" ref="T43" si="25">SUM(E$11)/SUM(E$6:E$13)*N43</f>
+        <v>3841.3134875326136</v>
       </c>
       <c r="U43" s="109">
-        <f t="shared" ref="U43" si="27">SUM(F$11)/SUM(F$6:F$13)*O43</f>
-        <v>3794.7241279737277</v>
+        <f t="shared" ref="U43" si="26">SUM(F$11)/SUM(F$6:F$13)*O43</f>
+        <v>3457.5779313996768</v>
       </c>
       <c r="V43" s="117">
         <f>SUM(D$11)/SUM(D$6:D$13)*P43</f>
-        <v>9.7314197405272987E-2</v>
+        <v>8.7816978543367979E-2</v>
       </c>
       <c r="W43" s="117">
-        <f t="shared" ref="W43" si="28">SUM(E$11)/SUM(E$6:E$13)*Q43</f>
-        <v>8.3896324072304435E-2</v>
+        <f t="shared" ref="W43" si="27">SUM(E$11)/SUM(E$6:E$13)*Q43</f>
+        <v>7.8463045576761065E-2</v>
       </c>
       <c r="X43" s="117">
-        <f t="shared" ref="X43" si="29">SUM(F$11)/SUM(F$6:F$13)*R43</f>
-        <v>9.234697345696842E-2</v>
+        <f t="shared" ref="X43" si="28">SUM(F$11)/SUM(F$6:F$13)*R43</f>
+        <v>8.4142310926528657E-2</v>
       </c>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.2">
@@ -11790,7 +11572,7 @@
         <v>5326</v>
       </c>
       <c r="G44" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20304</v>
       </c>
       <c r="H44" s="109"/>
@@ -11799,15 +11581,15 @@
       <c r="K44" s="109"/>
       <c r="L44" s="109"/>
       <c r="M44" s="109">
+        <f t="shared" si="17"/>
+        <v>20304</v>
+      </c>
+      <c r="N44" s="109">
         <f t="shared" si="18"/>
-        <v>20304</v>
-      </c>
-      <c r="N44" s="109">
+        <v>22334.400000000001</v>
+      </c>
+      <c r="O44" s="109">
         <f t="shared" si="19"/>
-        <v>22334.400000000001</v>
-      </c>
-      <c r="O44" s="109">
-        <f t="shared" si="20"/>
         <v>18273.600000000002</v>
       </c>
       <c r="P44" s="117">
@@ -11824,27 +11606,27 @@
       </c>
       <c r="S44" s="109">
         <f>SUM(D$11)/SUM(D$6:D$13)*M44</f>
-        <v>2742.3958967170497</v>
+        <v>2474.756284701909</v>
       </c>
       <c r="T44" s="109">
-        <f t="shared" ref="T44:U44" si="30">SUM(E$11)/SUM(E$6:E$13)*N44</f>
-        <v>2582.1231033841427</v>
+        <f t="shared" ref="T44:U44" si="29">SUM(E$11)/SUM(E$6:E$13)*N44</f>
+        <v>2414.9001161365509</v>
       </c>
       <c r="U44" s="109">
-        <f t="shared" si="30"/>
-        <v>2385.6110070402383</v>
+        <f t="shared" si="29"/>
+        <v>2173.6589255701474</v>
       </c>
       <c r="V44" s="117">
         <f>SUM(D$11)/SUM(D$6:D$13)*P44</f>
-        <v>7.4513659633715965E-2</v>
+        <v>6.7241621713126254E-2</v>
       </c>
       <c r="W44" s="117">
-        <f t="shared" ref="W44:X44" si="31">SUM(E$11)/SUM(E$6:E$13)*Q44</f>
-        <v>6.4070400320756282E-2</v>
+        <f t="shared" ref="W44:X44" si="30">SUM(E$11)/SUM(E$6:E$13)*Q44</f>
+        <v>5.9921084696824937E-2</v>
       </c>
       <c r="X44" s="117">
-        <f t="shared" si="31"/>
-        <v>7.1161885518135765E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.483943407387531E-2</v>
       </c>
     </row>
     <row r="45" spans="3:27" x14ac:dyDescent="0.2">
@@ -11859,7 +11641,7 @@
         <v>4565</v>
       </c>
       <c r="G45" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13926</v>
       </c>
       <c r="H45" s="110">
@@ -11873,15 +11655,15 @@
       </c>
       <c r="L45" s="110"/>
       <c r="M45" s="110">
-        <f t="shared" ref="M45:M57" si="32">AVERAGE(G45:I45)</f>
+        <f t="shared" ref="M45:M57" si="31">AVERAGE(G45:I45)</f>
         <v>19363</v>
       </c>
       <c r="N45" s="110">
+        <f t="shared" si="18"/>
+        <v>15409.3</v>
+      </c>
+      <c r="O45" s="110">
         <f t="shared" si="19"/>
-        <v>15409.3</v>
-      </c>
-      <c r="O45" s="110">
-        <f t="shared" si="20"/>
         <v>12533.4</v>
       </c>
       <c r="P45" s="118">
@@ -11898,27 +11680,27 @@
       </c>
       <c r="S45" s="109">
         <f>SUM(D$11)/SUM(D$6:D$13)*M45</f>
-        <v>2615.298056941107</v>
+        <v>2360.062349324422</v>
       </c>
       <c r="T45" s="109">
-        <f t="shared" ref="T45" si="33">SUM(E$11)/SUM(E$6:E$13)*N45</f>
-        <v>1781.4989226026787</v>
+        <f t="shared" ref="T45" si="32">SUM(E$11)/SUM(E$6:E$13)*N45</f>
+        <v>1666.125813076821</v>
       </c>
       <c r="U45" s="109">
-        <f t="shared" ref="U45" si="34">SUM(F$11)/SUM(F$6:F$13)*O45</f>
-        <v>1636.2302444859317</v>
+        <f t="shared" ref="U45" si="33">SUM(F$11)/SUM(F$6:F$13)*O45</f>
+        <v>1490.8576732412268</v>
       </c>
       <c r="V45" s="117">
         <f>SUM(D$11)/SUM(D$6:D$13)*P45</f>
-        <v>6.9831066763315575E-2</v>
+        <v>6.3016018783732961E-2</v>
       </c>
       <c r="W45" s="117">
-        <f t="shared" ref="W45" si="35">SUM(E$11)/SUM(E$6:E$13)*Q45</f>
-        <v>5.9437113518890035E-2</v>
+        <f t="shared" ref="W45" si="34">SUM(E$11)/SUM(E$6:E$13)*Q45</f>
+        <v>5.5587857972949344E-2</v>
       </c>
       <c r="X45" s="117">
-        <f t="shared" ref="X45" si="36">SUM(F$11)/SUM(F$6:F$13)*R45</f>
-        <v>6.7752568250727771E-2</v>
+        <f t="shared" ref="X45" si="35">SUM(F$11)/SUM(F$6:F$13)*R45</f>
+        <v>6.1733021131223753E-2</v>
       </c>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.2">
@@ -11933,7 +11715,7 @@
         <v>3804</v>
       </c>
       <c r="G46" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13165</v>
       </c>
       <c r="H46" s="111">
@@ -11948,15 +11730,15 @@
       </c>
       <c r="L46" s="111"/>
       <c r="M46" s="111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>12682.5</v>
       </c>
       <c r="N46" s="111">
+        <f t="shared" si="18"/>
+        <v>10160.5</v>
+      </c>
+      <c r="O46" s="111">
         <f t="shared" si="19"/>
-        <v>10160.5</v>
-      </c>
-      <c r="O46" s="111">
-        <f t="shared" si="20"/>
         <v>11848.5</v>
       </c>
       <c r="P46" s="116">
@@ -11973,27 +11755,27 @@
       </c>
       <c r="S46" s="111">
         <f>D11/SUM(D6:D13)*M46</f>
-        <v>1712.9844345997824</v>
+        <v>1545.8085392401479</v>
       </c>
       <c r="T46" s="111">
         <f>E11/SUM(E6:E13)*N46</f>
-        <v>1174.67502113039</v>
+        <v>1098.6009308513067</v>
       </c>
       <c r="U46" s="111">
         <f>F11/SUM(F6:F13)*O46</f>
-        <v>1546.8168295747014</v>
+        <v>1409.3882858122038</v>
       </c>
       <c r="V46" s="116">
         <f>D11/SUM(D6:D13)*P46</f>
-        <v>3.4994684514341713E-2</v>
+        <v>3.1579435900083372E-2</v>
       </c>
       <c r="W46" s="116">
-        <f t="shared" ref="W46:X46" si="37">E11/SUM(E6:E13)*Q46</f>
-        <v>2.9337023697179571E-2</v>
+        <f t="shared" ref="W46:X46" si="36">E11/SUM(E6:E13)*Q46</f>
+        <v>2.7437104699062805E-2</v>
       </c>
       <c r="X46" s="116">
-        <f t="shared" si="37"/>
-        <v>3.6794477883422452E-2</v>
+        <f t="shared" si="36"/>
+        <v>3.3525434375917755E-2</v>
       </c>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.2">
@@ -12008,7 +11790,7 @@
         <v>6086</v>
       </c>
       <c r="G47" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>34169</v>
       </c>
       <c r="H47" s="110"/>
@@ -12017,15 +11799,15 @@
       <c r="K47" s="110"/>
       <c r="L47" s="110"/>
       <c r="M47" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>34169</v>
       </c>
       <c r="N47" s="110">
+        <f t="shared" si="18"/>
+        <v>37585.9</v>
+      </c>
+      <c r="O47" s="110">
         <f t="shared" si="19"/>
-        <v>37585.9</v>
-      </c>
-      <c r="O47" s="110">
-        <f t="shared" si="20"/>
         <v>30752.100000000002</v>
       </c>
       <c r="P47" s="118">
@@ -12042,27 +11824,27 @@
       </c>
       <c r="S47" s="109">
         <f>SUM(D$12)/SUM(D$6:D$13)*M47</f>
-        <v>2280.8985892319106</v>
+        <v>1874.0661821934323</v>
       </c>
       <c r="T47" s="109">
-        <f t="shared" ref="T47" si="38">SUM(E$12)/SUM(E$6:E$13)*N47</f>
-        <v>2308.4294549566052</v>
+        <f t="shared" ref="T47" si="37">SUM(E$12)/SUM(E$6:E$13)*N47</f>
+        <v>2029.2833787232948</v>
       </c>
       <c r="U47" s="109">
-        <f t="shared" ref="U47" si="39">SUM(F$12)/SUM(F$6:F$13)*O47</f>
-        <v>1921.2154160116083</v>
+        <f t="shared" ref="U47" si="38">SUM(F$12)/SUM(F$6:F$13)*O47</f>
+        <v>1231.7171082475254</v>
       </c>
       <c r="V47" s="117">
         <f>SUM(D$12)/SUM(D$6:D$13)*P47</f>
-        <v>5.2348892601926177E-2</v>
+        <v>4.3011683975648654E-2</v>
       </c>
       <c r="W47" s="117">
-        <f t="shared" ref="W47" si="40">SUM(E$12)/SUM(E$6:E$13)*Q47</f>
-        <v>4.8257406950146416E-2</v>
+        <f t="shared" ref="W47" si="39">SUM(E$12)/SUM(E$6:E$13)*Q47</f>
+        <v>4.2421895810569189E-2</v>
       </c>
       <c r="X47" s="117">
-        <f t="shared" ref="X47" si="41">SUM(F$12)/SUM(F$6:F$13)*R47</f>
-        <v>4.8388466845630869E-2</v>
+        <f t="shared" ref="X47" si="40">SUM(F$12)/SUM(F$6:F$13)*R47</f>
+        <v>3.1022498549049531E-2</v>
       </c>
     </row>
     <row r="48" spans="3:27" x14ac:dyDescent="0.2">
@@ -12077,7 +11859,7 @@
         <v>5326</v>
       </c>
       <c r="G48" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>22176</v>
       </c>
       <c r="H48" s="109"/>
@@ -12086,15 +11868,15 @@
       <c r="K48" s="109"/>
       <c r="L48" s="109"/>
       <c r="M48" s="109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>22176</v>
       </c>
       <c r="N48" s="109">
+        <f t="shared" si="18"/>
+        <v>24393.600000000002</v>
+      </c>
+      <c r="O48" s="109">
         <f t="shared" si="19"/>
-        <v>24393.600000000002</v>
-      </c>
-      <c r="O48" s="109">
-        <f t="shared" si="20"/>
         <v>19958.400000000001</v>
       </c>
       <c r="P48" s="117">
@@ -12111,27 +11893,27 @@
       </c>
       <c r="S48" s="109">
         <f>SUM(D$12)/SUM(D$6:D$13)*M48</f>
-        <v>1480.3244787616509</v>
+        <v>1216.2864484275674</v>
       </c>
       <c r="T48" s="109">
-        <f t="shared" ref="T48:U48" si="42">SUM(E$12)/SUM(E$6:E$13)*N48</f>
-        <v>1498.1922676437027</v>
+        <f t="shared" ref="T48:U48" si="41">SUM(E$12)/SUM(E$6:E$13)*N48</f>
+        <v>1317.0238580750911</v>
       </c>
       <c r="U48" s="109">
-        <f t="shared" si="42"/>
-        <v>1246.8867413583491</v>
+        <f t="shared" si="41"/>
+        <v>799.39590249925732</v>
       </c>
       <c r="V48" s="117">
         <f>SUM(D$12)/SUM(D$6:D$13)*P48</f>
-        <v>4.3649312199432591E-2</v>
+        <v>3.5863803965307577E-2</v>
       </c>
       <c r="W48" s="117">
-        <f t="shared" ref="W48:X48" si="43">SUM(E$12)/SUM(E$6:E$13)*Q48</f>
-        <v>4.0030868653687851E-2</v>
+        <f t="shared" ref="W48:X48" si="42">SUM(E$12)/SUM(E$6:E$13)*Q48</f>
+        <v>3.5190148964855929E-2</v>
       </c>
       <c r="X48" s="117">
-        <f t="shared" si="43"/>
-        <v>4.0577241203268805E-2</v>
+        <f t="shared" si="42"/>
+        <v>2.6014616465710582E-2</v>
       </c>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.2">
@@ -12146,7 +11928,7 @@
         <v>4565</v>
       </c>
       <c r="G49" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>15798</v>
       </c>
       <c r="H49" s="110">
@@ -12160,15 +11942,15 @@
       <c r="K49" s="110"/>
       <c r="L49" s="110"/>
       <c r="M49" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>13399</v>
       </c>
       <c r="N49" s="110">
+        <f t="shared" si="18"/>
+        <v>26376.400000000001</v>
+      </c>
+      <c r="O49" s="110">
         <f t="shared" si="19"/>
-        <v>26376.400000000001</v>
-      </c>
-      <c r="O49" s="110">
-        <f t="shared" si="20"/>
         <v>14218.2</v>
       </c>
       <c r="P49" s="118">
@@ -12185,27 +11967,27 @@
       </c>
       <c r="S49" s="109">
         <f>SUM(D$12)/SUM(D$6:D$13)*M49</f>
-        <v>894.42945936721503</v>
+        <v>734.8945762302028</v>
       </c>
       <c r="T49" s="109">
-        <f t="shared" ref="T49:T50" si="44">SUM(E$12)/SUM(E$6:E$13)*N49</f>
-        <v>1619.9707516839401</v>
+        <f t="shared" ref="T49:T50" si="43">SUM(E$12)/SUM(E$6:E$13)*N49</f>
+        <v>1424.076318793939</v>
       </c>
       <c r="U49" s="109">
-        <f t="shared" ref="U49:U50" si="45">SUM(F$12)/SUM(F$6:F$13)*O49</f>
-        <v>888.27185876529575</v>
+        <f t="shared" ref="U49:U50" si="44">SUM(F$12)/SUM(F$6:F$13)*O49</f>
+        <v>569.48306582265809</v>
       </c>
       <c r="V49" s="117">
         <f>SUM(D$12)/SUM(D$6:D$13)*P49</f>
-        <v>4.1862661657399811E-2</v>
+        <v>3.4395829292506036E-2</v>
       </c>
       <c r="W49" s="117">
-        <f t="shared" ref="W49:W50" si="46">SUM(E$12)/SUM(E$6:E$13)*Q49</f>
-        <v>3.8108339757093442E-2</v>
+        <f t="shared" ref="W49:W50" si="45">SUM(E$12)/SUM(E$6:E$13)*Q49</f>
+        <v>3.3500101245789886E-2</v>
       </c>
       <c r="X49" s="117">
-        <f t="shared" ref="X49:X50" si="47">SUM(F$12)/SUM(F$6:F$13)*R49</f>
-        <v>3.9320180267811942E-2</v>
+        <f t="shared" ref="X49:X50" si="46">SUM(F$12)/SUM(F$6:F$13)*R49</f>
+        <v>2.5208697750189246E-2</v>
       </c>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.2">
@@ -12220,7 +12002,7 @@
         <v>3804</v>
       </c>
       <c r="G50" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>11293</v>
       </c>
       <c r="H50" s="110">
@@ -12233,15 +12015,15 @@
       <c r="K50" s="110"/>
       <c r="L50" s="110"/>
       <c r="M50" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>10146.5</v>
       </c>
       <c r="N50" s="110">
+        <f t="shared" si="18"/>
+        <v>15711.150000000001</v>
+      </c>
+      <c r="O50" s="110">
         <f t="shared" si="19"/>
-        <v>15711.150000000001</v>
-      </c>
-      <c r="O50" s="110">
-        <f t="shared" si="20"/>
         <v>10163.700000000001</v>
       </c>
       <c r="P50" s="118">
@@ -12258,27 +12040,27 @@
       </c>
       <c r="S50" s="109">
         <f>SUM(D$12)/SUM(D$6:D$13)*M50</f>
-        <v>677.31386741319852</v>
+        <v>556.50480018805524</v>
       </c>
       <c r="T50" s="109">
+        <f t="shared" si="43"/>
+        <v>848.25361520220338</v>
+      </c>
+      <c r="U50" s="109">
         <f t="shared" si="44"/>
-        <v>964.93848574176673</v>
-      </c>
-      <c r="U50" s="109">
-        <f t="shared" si="45"/>
-        <v>634.96987599927104</v>
+        <v>407.08774922998344</v>
       </c>
       <c r="V50" s="117">
         <f>SUM(D$12)/SUM(D$6:D$13)*P50</f>
-        <v>2.857078620501427E-2</v>
+        <v>2.3474758798253538E-2</v>
       </c>
       <c r="W50" s="117">
+        <f t="shared" si="45"/>
+        <v>2.2520727353723811E-2</v>
+      </c>
+      <c r="X50" s="117">
         <f t="shared" si="46"/>
-        <v>2.5618654799750264E-2</v>
-      </c>
-      <c r="X50" s="117">
-        <f t="shared" si="47"/>
-        <v>2.7905517746048429E-2</v>
+        <v>1.7890603695897622E-2</v>
       </c>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.2">
@@ -12293,7 +12075,7 @@
         <v>3043</v>
       </c>
       <c r="G51" s="111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8660</v>
       </c>
       <c r="H51" s="111">
@@ -12304,15 +12086,15 @@
       <c r="K51" s="111"/>
       <c r="L51" s="111"/>
       <c r="M51" s="111">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4830</v>
       </c>
       <c r="N51" s="111">
+        <f t="shared" si="18"/>
+        <v>9526</v>
+      </c>
+      <c r="O51" s="111">
         <f t="shared" si="19"/>
-        <v>9526</v>
-      </c>
-      <c r="O51" s="111">
-        <f t="shared" si="20"/>
         <v>7794</v>
       </c>
       <c r="P51" s="116">
@@ -12329,27 +12111,27 @@
       </c>
       <c r="S51" s="111">
         <f>D12/SUM(D6:D13)*M51</f>
-        <v>322.41915730604137</v>
+        <v>264.91087418403458</v>
       </c>
       <c r="T51" s="111">
         <f>E12/SUM(E6:E13)*N51</f>
-        <v>585.0624566105007</v>
+        <v>514.31397055060825</v>
       </c>
       <c r="U51" s="111">
         <f>F12/SUM(F6:F13)*O51</f>
-        <v>486.9245662050551</v>
+        <v>312.17390492620706</v>
       </c>
       <c r="V51" s="116">
         <f>D12/SUM(D6:D13)*P51</f>
-        <v>1.5218510278777514E-2</v>
+        <v>1.2504061158819128E-2</v>
       </c>
       <c r="W51" s="116">
-        <f t="shared" ref="W51:X51" si="48">E12/SUM(E6:E13)*Q51</f>
-        <v>1.344559532603397E-2</v>
+        <f t="shared" ref="W51:X51" si="47">E12/SUM(E6:E13)*Q51</f>
+        <v>1.1819691112316563E-2</v>
       </c>
       <c r="X51" s="116">
-        <f t="shared" si="48"/>
-        <v>1.4338900983817031E-2</v>
+        <f t="shared" si="47"/>
+        <v>9.1928627617924516E-3</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.2">
@@ -12364,7 +12146,7 @@
         <v>6086</v>
       </c>
       <c r="G52" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>36041</v>
       </c>
       <c r="H52" s="110"/>
@@ -12373,15 +12155,15 @@
       <c r="K52" s="110"/>
       <c r="L52" s="110"/>
       <c r="M52" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>36041</v>
       </c>
       <c r="N52" s="110">
+        <f t="shared" si="18"/>
+        <v>39645.100000000006</v>
+      </c>
+      <c r="O52" s="110">
         <f t="shared" si="19"/>
-        <v>39645.100000000006</v>
-      </c>
-      <c r="O52" s="110">
-        <f t="shared" si="20"/>
         <v>32436.9</v>
       </c>
       <c r="P52" s="118">
@@ -12415,7 +12197,7 @@
         <v>5326</v>
       </c>
       <c r="G53" s="109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>22176</v>
       </c>
       <c r="H53" s="109"/>
@@ -12424,15 +12206,15 @@
       <c r="K53" s="109"/>
       <c r="L53" s="109"/>
       <c r="M53" s="109">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>22176</v>
       </c>
       <c r="N53" s="109">
+        <f t="shared" si="18"/>
+        <v>24393.600000000002</v>
+      </c>
+      <c r="O53" s="109">
         <f t="shared" si="19"/>
-        <v>24393.600000000002</v>
-      </c>
-      <c r="O53" s="109">
-        <f t="shared" si="20"/>
         <v>19958.400000000001</v>
       </c>
       <c r="P53" s="117">
@@ -12449,27 +12231,27 @@
       </c>
       <c r="S53" s="109">
         <f>SUM(D$13)/SUM(D$6:D$13)*M48</f>
-        <v>1556.6052637176085</v>
+        <v>1226.2499228219867</v>
       </c>
       <c r="T53" s="109">
-        <f t="shared" ref="T53:U53" si="49">SUM(E$13)/SUM(E$6:E$13)*N48</f>
-        <v>2717.5942751454008</v>
+        <f t="shared" ref="T53:U53" si="48">SUM(E$13)/SUM(E$6:E$13)*N48</f>
+        <v>2342.6391476293584</v>
       </c>
       <c r="U53" s="109">
-        <f t="shared" si="49"/>
-        <v>1538.1025473834977</v>
+        <f t="shared" si="48"/>
+        <v>863.9925119853832</v>
       </c>
       <c r="V53" s="117">
         <f>SUM(D$13)/SUM(D$6:D$13)*P53</f>
-        <v>4.5557557929006579E-2</v>
+        <v>3.5888965042416329E-2</v>
       </c>
       <c r="W53" s="117">
-        <f t="shared" ref="W53:X53" si="50">SUM(E$13)/SUM(E$6:E$13)*Q53</f>
-        <v>7.2564406831507527E-2</v>
+        <f t="shared" ref="W53:X53" si="49">SUM(E$13)/SUM(E$6:E$13)*Q53</f>
+        <v>6.2552464774712421E-2</v>
       </c>
       <c r="X53" s="117">
-        <f t="shared" si="50"/>
-        <v>5.1020288697720552E-2</v>
+        <f t="shared" si="49"/>
+        <v>2.8659433318767014E-2</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.2">
@@ -12484,7 +12266,7 @@
         <v>4565</v>
       </c>
       <c r="G54" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>15798</v>
       </c>
       <c r="H54" s="110"/>
@@ -12497,15 +12279,15 @@
         <v>8100</v>
       </c>
       <c r="M54" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>19649</v>
       </c>
       <c r="N54" s="110">
+        <f t="shared" si="18"/>
+        <v>17377.800000000003</v>
+      </c>
+      <c r="O54" s="110">
         <f t="shared" si="19"/>
-        <v>17377.800000000003</v>
-      </c>
-      <c r="O54" s="110">
-        <f t="shared" si="20"/>
         <v>11159.1</v>
       </c>
       <c r="P54" s="118">
@@ -12522,27 +12304,27 @@
       </c>
       <c r="S54" s="109">
         <f>SUM(D$13)/SUM(D$6:D$13)*M49</f>
-        <v>940.51920673485915</v>
+        <v>740.9146246343704</v>
       </c>
       <c r="T54" s="109">
-        <f t="shared" ref="T54:T56" si="51">SUM(E$13)/SUM(E$6:E$13)*N49</f>
-        <v>2938.4901629503288</v>
+        <f t="shared" ref="T54:T56" si="50">SUM(E$13)/SUM(E$6:E$13)*N49</f>
+        <v>2533.0573270665668</v>
       </c>
       <c r="U54" s="109">
-        <f t="shared" ref="U54:U56" si="52">SUM(F$13)/SUM(F$6:F$13)*O49</f>
-        <v>1095.7316036960901</v>
+        <f t="shared" ref="U54:U56" si="51">SUM(F$13)/SUM(F$6:F$13)*O49</f>
+        <v>615.50115910647025</v>
       </c>
       <c r="V54" s="117">
-        <f t="shared" ref="V54:V56" si="53">SUM(D$13)/SUM(D$6:D$13)*P54</f>
-        <v>4.3652472553751862E-2</v>
+        <f t="shared" ref="V54:V56" si="52">SUM(D$13)/SUM(D$6:D$13)*P54</f>
+        <v>3.438819227180645E-2</v>
       </c>
       <c r="W54" s="117">
-        <f t="shared" ref="W54:W56" si="54">SUM(E$13)/SUM(E$6:E$13)*Q54</f>
-        <v>6.907276803375445E-2</v>
+        <f t="shared" ref="W54:W56" si="53">SUM(E$13)/SUM(E$6:E$13)*Q54</f>
+        <v>5.9542578489696511E-2</v>
       </c>
       <c r="X54" s="117">
-        <f t="shared" ref="X54:X56" si="55">SUM(F$13)/SUM(F$6:F$13)*R54</f>
-        <v>4.9525094922424191E-2</v>
+        <f t="shared" ref="X54:X56" si="54">SUM(F$13)/SUM(F$6:F$13)*R54</f>
+        <v>2.7819543788630819E-2</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.2">
@@ -12557,7 +12339,7 @@
         <v>3804</v>
       </c>
       <c r="G55" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>11293</v>
       </c>
       <c r="H55" s="110">
@@ -12575,15 +12357,15 @@
         <v>4400</v>
       </c>
       <c r="M55" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>18864.333333333332</v>
       </c>
       <c r="N55" s="110">
+        <f t="shared" si="18"/>
+        <v>21853.15</v>
+      </c>
+      <c r="O55" s="110">
         <f t="shared" si="19"/>
-        <v>21853.15</v>
-      </c>
-      <c r="O55" s="110">
-        <f t="shared" si="20"/>
         <v>7281.85</v>
       </c>
       <c r="P55" s="118">
@@ -12600,27 +12382,27 @@
       </c>
       <c r="S55" s="109">
         <f>SUM(D$13)/SUM(D$6:D$13)*M50</f>
-        <v>712.21569752483379</v>
+        <v>561.06353002855735</v>
       </c>
       <c r="T55" s="109">
+        <f t="shared" si="50"/>
+        <v>1508.8201431636576</v>
+      </c>
+      <c r="U55" s="109">
         <f t="shared" si="51"/>
-        <v>1750.3169395230987</v>
-      </c>
-      <c r="U55" s="109">
+        <v>439.98319975879025</v>
+      </c>
+      <c r="V55" s="117">
         <f t="shared" si="52"/>
-        <v>783.26984431826475</v>
-      </c>
-      <c r="V55" s="117">
+        <v>2.322311869979065E-2</v>
+      </c>
+      <c r="W55" s="117">
         <f t="shared" si="53"/>
-        <v>2.9479495276821064E-2</v>
-      </c>
-      <c r="W55" s="117">
+        <v>3.9988889843523931E-2</v>
+      </c>
+      <c r="X55" s="117">
         <f t="shared" si="54"/>
-        <v>4.6389380207426861E-2</v>
-      </c>
-      <c r="X55" s="117">
-        <f t="shared" si="55"/>
-        <v>3.5948082171290856E-2</v>
+        <v>2.0192979895303817E-2</v>
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.2">
@@ -12635,7 +12417,7 @@
         <v>3043</v>
       </c>
       <c r="G56" s="110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8660</v>
       </c>
       <c r="H56" s="110">
@@ -12650,15 +12432,15 @@
       </c>
       <c r="L56" s="110"/>
       <c r="M56" s="110">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>12830</v>
       </c>
       <c r="N56" s="110">
+        <f t="shared" si="18"/>
+        <v>17208.666666666668</v>
+      </c>
+      <c r="O56" s="110">
         <f t="shared" si="19"/>
-        <v>17208.666666666668</v>
-      </c>
-      <c r="O56" s="110">
-        <f t="shared" si="20"/>
         <v>7794</v>
       </c>
       <c r="P56" s="118">
@@ -12675,27 +12457,27 @@
       </c>
       <c r="S56" s="109">
         <f>SUM(D$13)/SUM(D$6:D$13)*M51</f>
-        <v>339.03334342334279</v>
+        <v>267.08094909948574</v>
       </c>
       <c r="T56" s="109">
+        <f t="shared" si="50"/>
+        <v>914.82932081846332</v>
+      </c>
+      <c r="U56" s="109">
         <f t="shared" si="51"/>
-        <v>1061.2538971301933</v>
-      </c>
-      <c r="U56" s="109">
+        <v>337.39967324104521</v>
+      </c>
+      <c r="V56" s="117">
         <f t="shared" si="52"/>
-        <v>600.64791036891643</v>
-      </c>
-      <c r="V56" s="117">
+        <v>1.2007309192372105E-2</v>
+      </c>
+      <c r="W56" s="117">
         <f t="shared" si="53"/>
-        <v>1.524211365405692E-2</v>
-      </c>
-      <c r="W56" s="117">
+        <v>2.0930905944543061E-2</v>
+      </c>
+      <c r="X56" s="117">
         <f t="shared" si="54"/>
-        <v>2.4281038001972562E-2</v>
-      </c>
-      <c r="X56" s="117">
-        <f t="shared" si="55"/>
-        <v>1.9811457157685314E-2</v>
+        <v>1.1128614710948488E-2</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.2">
@@ -12718,15 +12500,15 @@
         <v>2200</v>
       </c>
       <c r="M57" s="112">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2128</v>
       </c>
       <c r="N57" s="112">
+        <f t="shared" si="18"/>
+        <v>1600</v>
+      </c>
+      <c r="O57" s="112">
         <f t="shared" si="19"/>
-        <v>1600</v>
-      </c>
-      <c r="O57" s="112">
-        <f t="shared" si="20"/>
         <v>1100</v>
       </c>
       <c r="P57" s="116">
@@ -12743,53 +12525,53 @@
       </c>
       <c r="S57" s="111">
         <f>D13/SUM(D6:D13)*M57</f>
-        <v>149.37121217492202</v>
+        <v>117.67044713948357</v>
       </c>
       <c r="T57" s="111">
         <f>E13/SUM(E6:E13)*N57</f>
-        <v>178.24965729669424</v>
+        <v>153.65598502094701</v>
       </c>
       <c r="U57" s="111">
         <f>F13/SUM(F6:F13)*O57</f>
-        <v>84.771965794945856</v>
+        <v>47.618634919829319</v>
       </c>
       <c r="V57" s="116">
         <f>D13/SUM(D6:D13)*P57</f>
-        <v>-9.8521266588241329E-4</v>
+        <v>-7.7612287691757639E-4</v>
       </c>
       <c r="W57" s="116">
-        <f t="shared" ref="W57:X57" si="56">E13/SUM(E6:E13)*Q57</f>
-        <v>-1.3844530588856169E-4</v>
+        <f t="shared" ref="W57:X57" si="55">E13/SUM(E6:E13)*Q57</f>
+        <v>-1.193435666045894E-4</v>
       </c>
       <c r="X57" s="116">
-        <f t="shared" si="56"/>
-        <v>2.7562493385017966E-3</v>
+        <f t="shared" si="55"/>
+        <v>1.5482574901662033E-3</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="S59" s="120">
         <f>SUM(S37,S39,S42,S46,S51,S57)</f>
-        <v>9608.4735804205193</v>
+        <v>9690.1282417917137</v>
       </c>
       <c r="T59" s="120">
-        <f t="shared" ref="T59:U59" si="57">SUM(T37,T39,T42,T46,T51,T57)</f>
-        <v>14333.869646601945</v>
+        <f t="shared" ref="T59:U59" si="56">SUM(T37,T39,T42,T46,T51,T57)</f>
+        <v>14615.805297072342</v>
       </c>
       <c r="U59" s="120">
-        <f t="shared" si="57"/>
-        <v>11196.414691601361</v>
+        <f t="shared" si="56"/>
+        <v>11524.285690941653</v>
       </c>
       <c r="V59" s="119">
         <f>SUM(V37,V39,V42,V46,V51,V57)</f>
-        <v>0.20172336037443986</v>
+        <v>0.1981641327218589</v>
       </c>
       <c r="W59" s="119">
-        <f t="shared" ref="W59:X59" si="58">SUM(W37,W39,W42,W46,W51,W57)</f>
-        <v>0.2000191767273756</v>
+        <f t="shared" ref="W59:X59" si="57">SUM(W37,W39,W42,W46,W51,W57)</f>
+        <v>0.20027210974567933</v>
       </c>
       <c r="X59" s="119">
-        <f t="shared" si="58"/>
-        <v>0.21813305903885022</v>
+        <f t="shared" si="57"/>
+        <v>0.21491614514375235</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.2">
@@ -12798,27 +12580,27 @@
       </c>
       <c r="S60" s="167" cm="1">
         <f t="array" ref="S60">S38+AVERAGE(S40:S41)+AVERAGE(S43:S45)+AVERAGE(S47:S50+AVERAGE(S53:S56))</f>
-        <v>22294.679797673529</v>
+        <v>22822.730577463703</v>
       </c>
       <c r="T60" s="167" cm="1">
         <f t="array" ref="T60">T38+AVERAGE(T40:T41)+AVERAGE(T43:T45)+AVERAGE(T47:T50+AVERAGE(T53:T56))</f>
-        <v>24114.356797661487</v>
+        <v>24409.825731071127</v>
       </c>
       <c r="U60" s="167" cm="1">
         <f t="array" ref="U60">U38+AVERAGE(U40:U41)+AVERAGE(U43:U45)+AVERAGE(U47:U50+AVERAGE(U53:U56))</f>
-        <v>17266.169771719473</v>
+        <v>18053.474545827339</v>
       </c>
       <c r="V60" s="121" cm="1">
         <f t="array" ref="V60">V38+AVERAGE(V40:V41)+AVERAGE(V43:V45)+AVERAGE(V47:V50+AVERAGE(V53:V56))</f>
-        <v>0.44109160694603122</v>
+        <v>0.43632703311692156</v>
       </c>
       <c r="W60" s="121" cm="1">
         <f t="array" ref="W60">W38+AVERAGE(W40:W41)+AVERAGE(W43:W45)+AVERAGE(W47:W50+AVERAGE(W53:W56))</f>
-        <v>0.43814428681539097</v>
+        <v>0.43522869117736274</v>
       </c>
       <c r="X60" s="121" cm="1">
         <f t="array" ref="X60">X38+AVERAGE(X40:X41)+AVERAGE(X43:X45)+AVERAGE(X47:X50+AVERAGE(X53:X56))</f>
-        <v>0.37835986642564029</v>
+        <v>0.37044995231485045</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1F2D2-CD10-4963-81BA-5373FED5275A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302631FF-9E84-4A50-AF5A-7A15E1EDAA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -2483,6 +2483,9 @@
     <xf numFmtId="9" fontId="9" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2542,9 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4295,12 +4295,12 @@
       <c r="Z15" s="169"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="208" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
       <c r="E16" s="171"/>
       <c r="F16" s="171"/>
       <c r="G16" s="172"/>
@@ -4384,11 +4384,11 @@
       <c r="A19" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="207" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="177"/>
       <c r="F19" s="177"/>
       <c r="G19" s="178"/>
@@ -4416,11 +4416,11 @@
       <c r="A20" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="207" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="177"/>
       <c r="F20" s="177"/>
       <c r="G20" s="178"/>
@@ -4508,11 +4508,11 @@
       <c r="A23" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
       <c r="G23" s="169"/>
@@ -4538,11 +4538,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="176"/>
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
       <c r="E24" s="169"/>
       <c r="F24" s="169"/>
       <c r="G24" s="169"/>
@@ -4598,11 +4598,11 @@
       <c r="A26" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="206" t="s">
+      <c r="B26" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="169"/>
       <c r="F26" s="169"/>
       <c r="G26" s="169"/>
@@ -4628,11 +4628,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="176"/>
-      <c r="B27" s="206" t="s">
+      <c r="B27" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="169"/>
       <c r="F27" s="169"/>
       <c r="G27" s="169"/>
@@ -4720,11 +4720,11 @@
       <c r="A30" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="208" t="s">
+      <c r="B30" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="181"/>
       <c r="F30" s="181"/>
       <c r="G30" s="169"/>
@@ -4752,11 +4752,11 @@
       <c r="A31" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="206" t="s">
+      <c r="B31" s="207" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
       <c r="E31" s="181"/>
       <c r="F31" s="181"/>
       <c r="G31" s="169"/>
@@ -6715,7 +6715,7 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -6734,17 +6734,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
       <c r="F2" s="124"/>
-      <c r="H2" s="209" t="s">
+      <c r="H2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="211"/>
+      <c r="I2" s="212"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
@@ -7054,10 +7054,10 @@
         <v>72</v>
       </c>
       <c r="F15" s="126"/>
-      <c r="H15" s="209" t="s">
+      <c r="H15" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="211"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -7131,12 +7131,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
       <c r="F20" s="127"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7347,17 +7347,17 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="209" t="s">
+      <c r="B38" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="124"/>
-      <c r="H38" s="215" t="s">
+      <c r="H38" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="216"/>
+      <c r="I38" s="217"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
@@ -7464,7 +7464,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7660,7 +7660,7 @@
         <v>2020</v>
       </c>
       <c r="M7" s="202">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" s="202">
         <f>U7</f>
@@ -7725,7 +7725,7 @@
         <v>2020</v>
       </c>
       <c r="M8" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" s="184">
         <f t="shared" ref="N8:N9" si="3">U8</f>
@@ -7790,7 +7790,7 @@
         <v>2020</v>
       </c>
       <c r="M9" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" s="184">
         <f t="shared" si="3"/>
@@ -7855,7 +7855,7 @@
         <v>2020</v>
       </c>
       <c r="M10" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N10" s="184">
         <f t="shared" ref="N10:N12" si="7">U10</f>
@@ -7920,7 +7920,7 @@
         <v>2020</v>
       </c>
       <c r="M11" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N11" s="184">
         <f t="shared" si="7"/>
@@ -7984,8 +7984,8 @@
       <c r="L12" s="195">
         <v>2020</v>
       </c>
-      <c r="M12" s="195">
-        <v>50</v>
+      <c r="M12" s="184">
+        <v>30</v>
       </c>
       <c r="N12" s="195">
         <f t="shared" si="7"/>
@@ -8049,8 +8049,8 @@
       <c r="L13" s="202">
         <v>2020</v>
       </c>
-      <c r="M13" s="202">
-        <v>50</v>
+      <c r="M13" s="184">
+        <v>30</v>
       </c>
       <c r="N13" s="202">
         <f>U13</f>
@@ -8114,7 +8114,7 @@
         <v>2020</v>
       </c>
       <c r="M14" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N14" s="184">
         <f t="shared" ref="N14:N18" si="8">U14</f>
@@ -8179,7 +8179,7 @@
         <v>2020</v>
       </c>
       <c r="M15" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" s="184">
         <f t="shared" si="8"/>
@@ -8244,7 +8244,7 @@
         <v>2020</v>
       </c>
       <c r="M16" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" s="184">
         <f t="shared" si="8"/>
@@ -8309,7 +8309,7 @@
         <v>2020</v>
       </c>
       <c r="M17" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17" s="184">
         <f>U17</f>
@@ -8373,8 +8373,8 @@
       <c r="L18" s="195">
         <v>2020</v>
       </c>
-      <c r="M18" s="195">
-        <v>50</v>
+      <c r="M18" s="184">
+        <v>30</v>
       </c>
       <c r="N18" s="195">
         <f t="shared" si="8"/>
@@ -8438,8 +8438,8 @@
       <c r="L19" s="202">
         <v>2020</v>
       </c>
-      <c r="M19" s="202">
-        <v>50</v>
+      <c r="M19" s="184">
+        <v>30</v>
       </c>
       <c r="N19" s="202">
         <f>U19</f>
@@ -8504,7 +8504,7 @@
         <v>2020</v>
       </c>
       <c r="M20" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" s="184">
         <f t="shared" ref="N20:N24" si="12">U20</f>
@@ -8569,7 +8569,7 @@
         <v>2020</v>
       </c>
       <c r="M21" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21" s="184">
         <f t="shared" si="12"/>
@@ -8634,7 +8634,7 @@
         <v>2020</v>
       </c>
       <c r="M22" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N22" s="184">
         <f t="shared" si="12"/>
@@ -8699,7 +8699,7 @@
         <v>2020</v>
       </c>
       <c r="M23" s="184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" s="184">
         <f t="shared" si="12"/>
@@ -8763,8 +8763,8 @@
       <c r="L24" s="195">
         <v>2020</v>
       </c>
-      <c r="M24" s="195">
-        <v>50</v>
+      <c r="M24" s="184">
+        <v>30</v>
       </c>
       <c r="N24" s="195">
         <f t="shared" si="12"/>
@@ -9032,7 +9032,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -9063,33 +9063,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="220" t="s">
+      <c r="L2" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="221"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="220" t="s">
+      <c r="M2" s="222"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="220" t="s">
+      <c r="P2" s="222"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="221" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
       <c r="AD2" s="102" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="220" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
       <c r="L3" s="72" t="s">
         <v>157</v>
       </c>
@@ -10652,15 +10652,15 @@
       <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="226">
+      <c r="F24" s="206">
         <f>F19/$D$14</f>
         <v>0.66874284103250692</v>
       </c>
-      <c r="G24" s="226">
+      <c r="G24" s="206">
         <f t="shared" ref="G24:G25" si="13">G19/$E$14</f>
         <v>0.66661969404564347</v>
       </c>
-      <c r="H24" s="226">
+      <c r="H24" s="206">
         <f t="shared" ref="H24:H25" si="14">H19/$F$14</f>
         <v>0.66292692209580051</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>187</v>
       </c>
       <c r="F25" s="122">
-        <f t="shared" ref="F24:F25" si="15">F20/$D$14</f>
+        <f t="shared" ref="F25" si="15">F20/$D$14</f>
         <v>0.21034483540254412</v>
       </c>
       <c r="G25" s="122">
@@ -10727,40 +10727,40 @@
       <c r="A29" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="223" t="s">
+      <c r="C29" s="224" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="223" t="s">
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="224" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="217" t="s">
+      <c r="I29" s="225"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="225"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="217" t="s">
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="218" t="s">
         <v>183</v>
       </c>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="217" t="s">
+      <c r="Q29" s="219"/>
+      <c r="R29" s="219"/>
+      <c r="S29" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="218"/>
-      <c r="U29" s="218"/>
-      <c r="V29" s="217" t="s">
+      <c r="T29" s="219"/>
+      <c r="U29" s="219"/>
+      <c r="V29" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="W29" s="218"/>
-      <c r="X29" s="218"/>
+      <c r="W29" s="219"/>
+      <c r="X29" s="219"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="100" t="s">

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302631FF-9E84-4A50-AF5A-7A15E1EDAA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37598E5-9EA2-43EB-AD89-A21761BE9F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="243">
   <si>
     <t>Document type:</t>
   </si>
@@ -902,6 +902,12 @@
   </si>
   <si>
     <t>Det_G</t>
+  </si>
+  <si>
+    <t>Percentage Extra</t>
+  </si>
+  <si>
+    <t>Based on other data deep retrofit costs extra factor</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2545,6 +2551,9 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6715,7 +6724,7 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -7463,8 +7472,8 @@
   </sheetPr>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7483,21 +7492,22 @@
     <col min="15" max="15" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="66"/>
     <col min="17" max="21" width="11.140625" style="66" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="66"/>
+    <col min="22" max="22" width="18.85546875" style="66" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="61"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>18</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -7569,8 +7579,11 @@
         <v>106</v>
       </c>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>57</v>
       </c>
@@ -7623,8 +7636,11 @@
       <c r="U6" s="201" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="V6" s="201" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>27</v>
       </c>
@@ -7660,11 +7676,11 @@
         <v>2020</v>
       </c>
       <c r="M7" s="202">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" s="202">
         <f>U7</f>
-        <v>8.84664262611849E-4</v>
+        <v>7.7661668114821741E-4</v>
       </c>
       <c r="O7" s="203">
         <f>Data!O39/1000</f>
@@ -7678,7 +7694,7 @@
         <v>101</v>
       </c>
       <c r="S7" s="66">
-        <v>1.6294840729967088E-2</v>
+        <v>1.4304686718308429E-2</v>
       </c>
       <c r="T7" s="205">
         <f>Data!R39</f>
@@ -7686,10 +7702,11 @@
       </c>
       <c r="U7" s="204">
         <f>S7*T7</f>
-        <v>8.84664262611849E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>7.7661668114821741E-4</v>
+      </c>
+      <c r="V7" s="227"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>27</v>
       </c>
@@ -7724,12 +7741,12 @@
       <c r="L8" s="184">
         <v>2020</v>
       </c>
-      <c r="M8" s="184">
-        <v>30</v>
+      <c r="M8" s="202">
+        <v>50</v>
       </c>
       <c r="N8" s="184">
         <f t="shared" ref="N8:N9" si="3">U8</f>
-        <v>6.4369688642752147E-4</v>
+        <v>5.6507961350996572E-4</v>
       </c>
       <c r="O8" s="185">
         <f>Data!O39/1000</f>
@@ -7743,7 +7760,7 @@
         <v>101</v>
       </c>
       <c r="S8" s="66">
-        <v>1.1856405515630341E-2</v>
+        <v>1.0408335332447193E-2</v>
       </c>
       <c r="T8" s="187">
         <f>Data!R39</f>
@@ -7751,10 +7768,11 @@
       </c>
       <c r="U8" s="186">
         <f>S8*T8</f>
-        <v>6.4369688642752147E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>5.6507961350996572E-4</v>
+      </c>
+      <c r="V8" s="227"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>27</v>
       </c>
@@ -7789,12 +7807,12 @@
       <c r="L9" s="184">
         <v>2020</v>
       </c>
-      <c r="M9" s="184">
-        <v>30</v>
+      <c r="M9" s="202">
+        <v>50</v>
       </c>
       <c r="N9" s="184">
         <f t="shared" si="3"/>
-        <v>4.7542107140211894E-3</v>
+        <v>4.1735599619472851E-3</v>
       </c>
       <c r="O9" s="185">
         <f>Data!O41/1000</f>
@@ -7808,7 +7826,7 @@
         <v>101</v>
       </c>
       <c r="S9" s="66">
-        <v>1.2969600973572654E-2</v>
+        <v>1.1385571780841791E-2</v>
       </c>
       <c r="T9" s="187">
         <f>Data!R41</f>
@@ -7816,10 +7834,11 @@
       </c>
       <c r="U9" s="186">
         <f t="shared" ref="U9:U12" si="6">S9*T9</f>
-        <v>4.7542107140211894E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>4.1735599619472851E-3</v>
+      </c>
+      <c r="V9" s="227"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>27</v>
       </c>
@@ -7854,16 +7873,16 @@
       <c r="L10" s="184">
         <v>2020</v>
       </c>
-      <c r="M10" s="184">
-        <v>30</v>
+      <c r="M10" s="202">
+        <v>50</v>
       </c>
       <c r="N10" s="184">
         <f t="shared" ref="N10:N12" si="7">U10</f>
-        <v>9.4415911336414356E-3</v>
-      </c>
-      <c r="O10" s="185">
-        <f>Data!O44/1000</f>
-        <v>18.273600000000002</v>
+        <v>8.2884518803990805E-3</v>
+      </c>
+      <c r="O10" s="196">
+        <f>(Data!O44/1000)*(1+V10)</f>
+        <v>20.100960000000004</v>
       </c>
       <c r="P10" s="186"/>
       <c r="Q10" s="186" t="s">
@@ -7873,7 +7892,7 @@
         <v>102</v>
       </c>
       <c r="S10" s="66">
-        <v>1.7321011836582485E-2</v>
+        <v>1.5205527447148294E-2</v>
       </c>
       <c r="T10" s="187">
         <f>Data!R44</f>
@@ -7881,10 +7900,13 @@
       </c>
       <c r="U10" s="186">
         <f t="shared" si="6"/>
-        <v>9.4415911336414356E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>8.2884518803990805E-3</v>
+      </c>
+      <c r="V10" s="227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>27</v>
       </c>
@@ -7919,16 +7941,16 @@
       <c r="L11" s="184">
         <v>2020</v>
       </c>
-      <c r="M11" s="184">
-        <v>30</v>
+      <c r="M11" s="202">
+        <v>50</v>
       </c>
       <c r="N11" s="184">
         <f t="shared" si="7"/>
-        <v>1.5291203365270829E-2</v>
-      </c>
-      <c r="O11" s="185">
-        <f>Data!O48/1000</f>
-        <v>19.958400000000001</v>
+        <v>1.3423627595443485E-2</v>
+      </c>
+      <c r="O11" s="196">
+        <f>(Data!O48/1000)*(1+V11)</f>
+        <v>24.948</v>
       </c>
       <c r="P11" s="186"/>
       <c r="Q11" s="186" t="s">
@@ -7938,7 +7960,7 @@
         <v>102</v>
       </c>
       <c r="S11" s="66">
-        <v>2.3542925713001851E-2</v>
+        <v>2.0667534119407107E-2</v>
       </c>
       <c r="T11" s="187">
         <f>Data!R48</f>
@@ -7946,10 +7968,13 @@
       </c>
       <c r="U11" s="186">
         <f t="shared" si="6"/>
-        <v>1.5291203365270829E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.3423627595443485E-2</v>
+      </c>
+      <c r="V11" s="227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>27</v>
       </c>
@@ -7984,16 +8009,16 @@
       <c r="L12" s="195">
         <v>2020</v>
       </c>
-      <c r="M12" s="184">
-        <v>30</v>
+      <c r="M12" s="202">
+        <v>50</v>
       </c>
       <c r="N12" s="195">
         <f t="shared" si="7"/>
-        <v>1.8834099256932052E-2</v>
+        <v>1.6533815454634553E-2</v>
       </c>
       <c r="O12" s="196">
-        <f>Data!O53/1000</f>
-        <v>19.958400000000001</v>
+        <f>(Data!O53/1000)*(1+V12)</f>
+        <v>31.933440000000004</v>
       </c>
       <c r="P12" s="186"/>
       <c r="Q12" s="197" t="s">
@@ -8003,7 +8028,7 @@
         <v>102</v>
       </c>
       <c r="S12" s="66">
-        <v>2.8448640170056879E-2</v>
+        <v>2.497409406685069E-2</v>
       </c>
       <c r="T12" s="198">
         <f>Data!R53</f>
@@ -8011,10 +8036,13 @@
       </c>
       <c r="U12" s="197">
         <f t="shared" si="6"/>
-        <v>1.8834099256932052E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>1.6533815454634553E-2</v>
+      </c>
+      <c r="V12" s="227">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>27</v>
       </c>
@@ -8049,12 +8077,12 @@
       <c r="L13" s="202">
         <v>2020</v>
       </c>
-      <c r="M13" s="184">
-        <v>30</v>
+      <c r="M13" s="202">
+        <v>50</v>
       </c>
       <c r="N13" s="202">
         <f>U13</f>
-        <v>1.890806224451268E-3</v>
+        <v>1.7351329068959851E-3</v>
       </c>
       <c r="O13" s="203">
         <f>Data!M39/1000</f>
@@ -8067,7 +8095,7 @@
         <v>101</v>
       </c>
       <c r="S13" s="186">
-        <v>2.6341835741075181E-2</v>
+        <v>2.4173067251062635E-2</v>
       </c>
       <c r="T13" s="205">
         <f>Data!P39</f>
@@ -8075,10 +8103,11 @@
       </c>
       <c r="U13" s="204">
         <f>S13*T13</f>
-        <v>1.890806224451268E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>1.7351329068959851E-3</v>
+      </c>
+      <c r="V13" s="227"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
         <v>27</v>
       </c>
@@ -8113,12 +8142,12 @@
       <c r="L14" s="184">
         <v>2020</v>
       </c>
-      <c r="M14" s="184">
-        <v>30</v>
+      <c r="M14" s="202">
+        <v>50</v>
       </c>
       <c r="N14" s="184">
         <f t="shared" ref="N14:N18" si="8">U14</f>
-        <v>1.6092605413402321E-3</v>
+        <v>1.4767673624826536E-3</v>
       </c>
       <c r="O14" s="185">
         <f>Data!M39/1000</f>
@@ -8132,7 +8161,7 @@
         <v>101</v>
       </c>
       <c r="S14" s="66">
-        <v>2.2419471808582819E-2</v>
+        <v>2.0573638264591763E-2</v>
       </c>
       <c r="T14" s="187">
         <f>Data!P39</f>
@@ -8140,10 +8169,11 @@
       </c>
       <c r="U14" s="186">
         <f>S14*T14</f>
-        <v>1.6092605413402321E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>1.4767673624826536E-3</v>
+      </c>
+      <c r="V14" s="227"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>27</v>
       </c>
@@ -8178,12 +8208,12 @@
       <c r="L15" s="184">
         <v>2020</v>
       </c>
-      <c r="M15" s="184">
-        <v>30</v>
+      <c r="M15" s="202">
+        <v>50</v>
       </c>
       <c r="N15" s="184">
         <f t="shared" si="8"/>
-        <v>1.2628723163304658E-2</v>
+        <v>1.158897873793953E-2</v>
       </c>
       <c r="O15" s="185">
         <f>Data!M41/1000</f>
@@ -8197,7 +8227,7 @@
         <v>101</v>
       </c>
       <c r="S15" s="66">
-        <v>3.19791387227054E-2</v>
+        <v>2.9346241415119621E-2</v>
       </c>
       <c r="T15" s="187">
         <f>Data!P41</f>
@@ -8205,10 +8235,11 @@
       </c>
       <c r="U15" s="186">
         <f t="shared" ref="U15:U18" si="11">S15*T15</f>
-        <v>1.2628723163304658E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+        <v>1.158897873793953E-2</v>
+      </c>
+      <c r="V15" s="227"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
         <v>27</v>
       </c>
@@ -8243,16 +8274,16 @@
       <c r="L16" s="184">
         <v>2020</v>
       </c>
-      <c r="M16" s="184">
-        <v>30</v>
+      <c r="M16" s="202">
+        <v>50</v>
       </c>
       <c r="N16" s="184">
         <f t="shared" si="8"/>
-        <v>2.4055673483702616E-2</v>
-      </c>
-      <c r="O16" s="185">
-        <f>Data!M44/1000</f>
-        <v>20.303999999999998</v>
+        <v>2.2075128651129185E-2</v>
+      </c>
+      <c r="O16" s="196">
+        <f>(Data!M44/1000)*(1+V16)</f>
+        <v>22.334399999999999</v>
       </c>
       <c r="P16" s="186"/>
       <c r="Q16" s="186" t="s">
@@ -8262,7 +8293,7 @@
         <v>102</v>
       </c>
       <c r="S16" s="66">
-        <v>4.3604385678145181E-2</v>
+        <v>4.0014361861481003E-2</v>
       </c>
       <c r="T16" s="187">
         <f>Data!P44</f>
@@ -8270,10 +8301,13 @@
       </c>
       <c r="U16" s="186">
         <f t="shared" si="11"/>
-        <v>2.4055673483702616E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>2.2075128651129185E-2</v>
+      </c>
+      <c r="V16" s="227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>27</v>
       </c>
@@ -8308,16 +8342,16 @@
       <c r="L17" s="184">
         <v>2020</v>
       </c>
-      <c r="M17" s="184">
-        <v>30</v>
+      <c r="M17" s="202">
+        <v>50</v>
       </c>
       <c r="N17" s="184">
         <f>U17</f>
-        <v>3.6420614039164613E-2</v>
-      </c>
-      <c r="O17" s="185">
-        <f>Data!M48/1000</f>
-        <v>22.175999999999998</v>
+        <v>3.3422042455488611E-2</v>
+      </c>
+      <c r="O17" s="196">
+        <f>(Data!M48/1000)*(1+V17)</f>
+        <v>27.72</v>
       </c>
       <c r="P17" s="186"/>
       <c r="Q17" s="186" t="s">
@@ -8327,7 +8361,7 @@
         <v>102</v>
       </c>
       <c r="S17" s="66">
-        <v>5.5698508613813459E-2</v>
+        <v>5.1112754924902158E-2</v>
       </c>
       <c r="T17" s="187">
         <f>Data!P48</f>
@@ -8335,7 +8369,10 @@
       </c>
       <c r="U17" s="186">
         <f t="shared" si="11"/>
-        <v>3.6420614039164613E-2</v>
+        <v>3.3422042455488611E-2</v>
+      </c>
+      <c r="V17" s="227">
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8373,16 +8410,16 @@
       <c r="L18" s="195">
         <v>2020</v>
       </c>
-      <c r="M18" s="184">
-        <v>30</v>
+      <c r="M18" s="202">
+        <v>50</v>
       </c>
       <c r="N18" s="195">
         <f t="shared" si="8"/>
-        <v>3.7369002794508319E-2</v>
+        <v>3.4292348738938973E-2</v>
       </c>
       <c r="O18" s="196">
-        <f>Data!M53/1000</f>
-        <v>22.175999999999998</v>
+        <f>(Data!M53/1000)*(1+V18)</f>
+        <v>35.4816</v>
       </c>
       <c r="P18" s="186"/>
       <c r="Q18" s="197" t="s">
@@ -8392,7 +8429,7 @@
         <v>102</v>
       </c>
       <c r="S18" s="66">
-        <v>5.7576644935841491E-2</v>
+        <v>5.2836261064159319E-2</v>
       </c>
       <c r="T18" s="198">
         <f>Data!P53</f>
@@ -8400,10 +8437,13 @@
       </c>
       <c r="U18" s="197">
         <f t="shared" si="11"/>
-        <v>3.7369002794508319E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>3.4292348738938973E-2</v>
+      </c>
+      <c r="V18" s="227">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>27</v>
       </c>
@@ -8438,12 +8478,12 @@
       <c r="L19" s="202">
         <v>2020</v>
       </c>
-      <c r="M19" s="184">
-        <v>30</v>
+      <c r="M19" s="202">
+        <v>50</v>
       </c>
       <c r="N19" s="202">
         <f>U19</f>
-        <v>4.8048482413916866E-3</v>
+        <v>4.7302606585568566E-3</v>
       </c>
       <c r="O19" s="203">
         <f>Data!N39/1000</f>
@@ -8457,7 +8497,7 @@
         <v>101</v>
       </c>
       <c r="S19" s="66">
-        <v>5.8254859397265095E-2</v>
+        <v>5.7350545892960458E-2</v>
       </c>
       <c r="T19" s="205">
         <f>Data!Q39</f>
@@ -8465,10 +8505,11 @@
       </c>
       <c r="U19" s="204">
         <f>S19*T19</f>
-        <v>4.8048482413916866E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>4.7302606585568566E-3</v>
+      </c>
+      <c r="V19" s="227"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
         <v>27</v>
       </c>
@@ -8503,12 +8544,12 @@
       <c r="L20" s="184">
         <v>2020</v>
       </c>
-      <c r="M20" s="184">
-        <v>30</v>
+      <c r="M20" s="202">
+        <v>50</v>
       </c>
       <c r="N20" s="184">
         <f t="shared" ref="N20:N24" si="12">U20</f>
-        <v>3.5430233613999904E-3</v>
+        <v>3.4880235913390704E-3</v>
       </c>
       <c r="O20" s="185">
         <f>Data!N39/1000</f>
@@ -8522,7 +8563,7 @@
         <v>101</v>
       </c>
       <c r="S20" s="66">
-        <v>4.2956263630045545E-2</v>
+        <v>4.2289436352509556E-2</v>
       </c>
       <c r="T20" s="187">
         <f>Data!Q39</f>
@@ -8530,10 +8571,11 @@
       </c>
       <c r="U20" s="186">
         <f>S20*T20</f>
-        <v>3.5430233613999904E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>3.4880235913390704E-3</v>
+      </c>
+      <c r="V20" s="227"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>27</v>
       </c>
@@ -8568,12 +8610,12 @@
       <c r="L21" s="184">
         <v>2020</v>
       </c>
-      <c r="M21" s="184">
-        <v>30</v>
+      <c r="M21" s="202">
+        <v>50</v>
       </c>
       <c r="N21" s="184">
         <f t="shared" si="12"/>
-        <v>2.0260252166062205E-2</v>
+        <v>1.9945744160653683E-2</v>
       </c>
       <c r="O21" s="185">
         <f>Data!N41/1000</f>
@@ -8587,7 +8629,7 @@
         <v>101</v>
       </c>
       <c r="S21" s="66">
-        <v>5.032483276632424E-2</v>
+        <v>4.954362024013631E-2</v>
       </c>
       <c r="T21" s="187">
         <f>Data!Q41</f>
@@ -8595,10 +8637,11 @@
       </c>
       <c r="U21" s="186">
         <f t="shared" ref="U21:U24" si="15">S21*T21</f>
-        <v>2.0260252166062205E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>1.9945744160653683E-2</v>
+      </c>
+      <c r="V21" s="227"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>27</v>
       </c>
@@ -8633,16 +8676,16 @@
       <c r="L22" s="184">
         <v>2020</v>
       </c>
-      <c r="M22" s="184">
-        <v>30</v>
+      <c r="M22" s="202">
+        <v>50</v>
       </c>
       <c r="N22" s="184">
         <f t="shared" si="12"/>
-        <v>3.5033314742052707E-2</v>
-      </c>
-      <c r="O22" s="185">
-        <f>Data!N44/1000</f>
-        <v>22.334400000000002</v>
+        <v>3.4489478571996135E-2</v>
+      </c>
+      <c r="O22" s="196">
+        <f>(Data!N44/1000)*(1+V22)</f>
+        <v>24.567840000000004</v>
       </c>
       <c r="P22" s="186"/>
       <c r="Q22" s="186" t="s">
@@ -8652,7 +8695,7 @@
         <v>102</v>
       </c>
       <c r="S22" s="66">
-        <v>6.321591769829861E-2</v>
+        <v>6.2234591699865838E-2</v>
       </c>
       <c r="T22" s="187">
         <f>Data!Q44</f>
@@ -8660,10 +8703,13 @@
       </c>
       <c r="U22" s="186">
         <f t="shared" si="15"/>
-        <v>3.5033314742052707E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>3.4489478571996135E-2</v>
+      </c>
+      <c r="V22" s="227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>27</v>
       </c>
@@ -8698,16 +8744,16 @@
       <c r="L23" s="184">
         <v>2020</v>
       </c>
-      <c r="M23" s="184">
-        <v>30</v>
+      <c r="M23" s="202">
+        <v>50</v>
       </c>
       <c r="N23" s="184">
         <f t="shared" si="12"/>
-        <v>5.017067141421324E-2</v>
-      </c>
-      <c r="O23" s="185">
-        <f>Data!N48/1000</f>
-        <v>24.393600000000003</v>
+        <v>4.939185199641144E-2</v>
+      </c>
+      <c r="O23" s="196">
+        <f>(Data!N48/1000)*(1+V23)</f>
+        <v>30.492000000000004</v>
       </c>
       <c r="P23" s="186"/>
       <c r="Q23" s="186" t="s">
@@ -8717,7 +8763,7 @@
         <v>102</v>
       </c>
       <c r="S23" s="66">
-        <v>7.724469826612157E-2</v>
+        <v>7.6045597890621042E-2</v>
       </c>
       <c r="T23" s="187">
         <f>Data!R48</f>
@@ -8725,7 +8771,10 @@
       </c>
       <c r="U23" s="186">
         <f t="shared" si="15"/>
-        <v>5.017067141421324E-2</v>
+        <v>4.939185199641144E-2</v>
+      </c>
+      <c r="V23" s="227">
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8763,16 +8812,16 @@
       <c r="L24" s="195">
         <v>2020</v>
       </c>
-      <c r="M24" s="184">
-        <v>30</v>
+      <c r="M24" s="202">
+        <v>50</v>
       </c>
       <c r="N24" s="195">
         <f t="shared" si="12"/>
-        <v>5.375148798769535E-2</v>
+        <v>5.2917082120671262E-2</v>
       </c>
       <c r="O24" s="196">
-        <f>Data!N53/1000</f>
-        <v>24.393600000000003</v>
+        <f>(Data!N53/1000)*(1+V24)</f>
+        <v>39.02976000000001</v>
       </c>
       <c r="P24" s="186"/>
       <c r="Q24" s="197" t="s">
@@ -8782,7 +8831,7 @@
         <v>102</v>
       </c>
       <c r="S24" s="66">
-        <v>8.119086129400431E-2</v>
+        <v>7.9930503050006221E-2</v>
       </c>
       <c r="T24" s="198">
         <f>Data!R53</f>
@@ -8790,7 +8839,10 @@
       </c>
       <c r="U24" s="197">
         <f t="shared" si="15"/>
-        <v>5.375148798769535E-2</v>
+        <v>5.2917082120671262E-2</v>
+      </c>
+      <c r="V24" s="227">
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -9032,8 +9084,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="K13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
+++ b/SubRES_TMPL/SubRES_RSD-Retrofit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37598E5-9EA2-43EB-AD89-A21761BE9F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083A2CF-886C-4B89-97DE-9D0B424E7539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E3DBC4-3D48-40CE-BDD5-C17192DCDA09}"/>
   </bookViews>
@@ -2492,6 +2492,9 @@
     <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2551,9 +2554,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4304,12 +4304,12 @@
       <c r="Z15" s="169"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="171"/>
       <c r="F16" s="171"/>
       <c r="G16" s="172"/>
@@ -4393,11 +4393,11 @@
       <c r="A19" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="208" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
       <c r="E19" s="177"/>
       <c r="F19" s="177"/>
       <c r="G19" s="178"/>
@@ -4425,11 +4425,11 @@
       <c r="A20" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="207" t="s">
+      <c r="B20" s="208" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
       <c r="E20" s="177"/>
       <c r="F20" s="177"/>
       <c r="G20" s="178"/>
@@ -4517,11 +4517,11 @@
       <c r="A23" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="207" t="s">
+      <c r="B23" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
       <c r="E23" s="169"/>
       <c r="F23" s="169"/>
       <c r="G23" s="169"/>
@@ -4547,11 +4547,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="176"/>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="169"/>
       <c r="F24" s="169"/>
       <c r="G24" s="169"/>
@@ -4607,11 +4607,11 @@
       <c r="A26" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="207" t="s">
+      <c r="B26" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="207"/>
-      <c r="D26" s="207"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
       <c r="E26" s="169"/>
       <c r="F26" s="169"/>
       <c r="G26" s="169"/>
@@ -4637,11 +4637,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="176"/>
-      <c r="B27" s="207" t="s">
+      <c r="B27" s="208" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="207"/>
-      <c r="D27" s="207"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="169"/>
       <c r="F27" s="169"/>
       <c r="G27" s="169"/>
@@ -4729,11 +4729,11 @@
       <c r="A30" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="209" t="s">
+      <c r="B30" s="210" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="181"/>
       <c r="F30" s="181"/>
       <c r="G30" s="169"/>
@@ -4761,11 +4761,11 @@
       <c r="A31" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="208" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
       <c r="E31" s="181"/>
       <c r="F31" s="181"/>
       <c r="G31" s="169"/>
@@ -6743,17 +6743,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="124"/>
-      <c r="H2" s="210" t="s">
+      <c r="H2" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="212"/>
+      <c r="I2" s="213"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
@@ -7063,10 +7063,10 @@
         <v>72</v>
       </c>
       <c r="F15" s="126"/>
-      <c r="H15" s="210" t="s">
+      <c r="H15" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="212"/>
+      <c r="I15" s="213"/>
     </row>
     <row r="16" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -7140,12 +7140,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="213" t="s">
+      <c r="B20" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
       <c r="F20" s="127"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7356,17 +7356,17 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="210" t="s">
+      <c r="B38" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="211"/>
-      <c r="D38" s="211"/>
-      <c r="E38" s="212"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="212"/>
+      <c r="E38" s="213"/>
       <c r="F38" s="124"/>
-      <c r="H38" s="216" t="s">
+      <c r="H38" s="217" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="217"/>
+      <c r="I38" s="218"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="49" t="s">
@@ -7472,8 +7472,8 @@
   </sheetPr>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7704,7 +7704,7 @@
         <f>S7*T7</f>
         <v>7.7661668114821741E-4</v>
       </c>
-      <c r="V7" s="227"/>
+      <c r="V7" s="207"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -7770,7 +7770,7 @@
         <f>S8*T8</f>
         <v>5.6507961350996572E-4</v>
       </c>
-      <c r="V8" s="227"/>
+      <c r="V8" s="207"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
@@ -7836,7 +7836,7 @@
         <f t="shared" ref="U9:U12" si="6">S9*T9</f>
         <v>4.1735599619472851E-3</v>
       </c>
-      <c r="V9" s="227"/>
+      <c r="V9" s="207"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
@@ -7902,7 +7902,7 @@
         <f t="shared" si="6"/>
         <v>8.2884518803990805E-3</v>
       </c>
-      <c r="V10" s="227">
+      <c r="V10" s="207">
         <v>0.1</v>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O11" s="196">
         <f>(Data!O48/1000)*(1+V11)</f>
-        <v>24.948</v>
+        <v>23.95008</v>
       </c>
       <c r="P11" s="186"/>
       <c r="Q11" s="186" t="s">
@@ -7970,8 +7970,8 @@
         <f t="shared" si="6"/>
         <v>1.3423627595443485E-2</v>
       </c>
-      <c r="V11" s="227">
-        <v>0.25</v>
+      <c r="V11" s="207">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="O12" s="196">
         <f>(Data!O53/1000)*(1+V12)</f>
-        <v>31.933440000000004</v>
+        <v>26.943840000000002</v>
       </c>
       <c r="P12" s="186"/>
       <c r="Q12" s="197" t="s">
@@ -8038,8 +8038,8 @@
         <f t="shared" si="6"/>
         <v>1.6533815454634553E-2</v>
       </c>
-      <c r="V12" s="227">
-        <v>0.6</v>
+      <c r="V12" s="207">
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
         <f>S13*T13</f>
         <v>1.7351329068959851E-3</v>
       </c>
-      <c r="V13" s="227"/>
+      <c r="V13" s="207"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
@@ -8171,7 +8171,7 @@
         <f>S14*T14</f>
         <v>1.4767673624826536E-3</v>
       </c>
-      <c r="V14" s="227"/>
+      <c r="V14" s="207"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
@@ -8237,7 +8237,7 @@
         <f t="shared" ref="U15:U18" si="11">S15*T15</f>
         <v>1.158897873793953E-2</v>
       </c>
-      <c r="V15" s="227"/>
+      <c r="V15" s="207"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
@@ -8303,7 +8303,7 @@
         <f t="shared" si="11"/>
         <v>2.2075128651129185E-2</v>
       </c>
-      <c r="V16" s="227">
+      <c r="V16" s="207">
         <v>0.1</v>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="O17" s="196">
         <f>(Data!M48/1000)*(1+V17)</f>
-        <v>27.72</v>
+        <v>26.611199999999997</v>
       </c>
       <c r="P17" s="186"/>
       <c r="Q17" s="186" t="s">
@@ -8371,8 +8371,8 @@
         <f t="shared" si="11"/>
         <v>3.3422042455488611E-2</v>
       </c>
-      <c r="V17" s="227">
-        <v>0.25</v>
+      <c r="V17" s="207">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="O18" s="196">
         <f>(Data!M53/1000)*(1+V18)</f>
-        <v>35.4816</v>
+        <v>29.9376</v>
       </c>
       <c r="P18" s="186"/>
       <c r="Q18" s="197" t="s">
@@ -8439,8 +8439,8 @@
         <f t="shared" si="11"/>
         <v>3.4292348738938973E-2</v>
       </c>
-      <c r="V18" s="227">
-        <v>0.6</v>
+      <c r="V18" s="207">
+        <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8507,7 +8507,7 @@
         <f>S19*T19</f>
         <v>4.7302606585568566E-3</v>
       </c>
-      <c r="V19" s="227"/>
+      <c r="V19" s="207"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
@@ -8573,7 +8573,7 @@
         <f>S20*T20</f>
         <v>3.4880235913390704E-3</v>
       </c>
-      <c r="V20" s="227"/>
+      <c r="V20" s="207"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
@@ -8639,7 +8639,7 @@
         <f t="shared" ref="U21:U24" si="15">S21*T21</f>
         <v>1.9945744160653683E-2</v>
       </c>
-      <c r="V21" s="227"/>
+      <c r="V21" s="207"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
@@ -8705,7 +8705,7 @@
         <f t="shared" si="15"/>
         <v>3.4489478571996135E-2</v>
       </c>
-      <c r="V22" s="227">
+      <c r="V22" s="207">
         <v>0.1</v>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="O23" s="196">
         <f>(Data!N48/1000)*(1+V23)</f>
-        <v>30.492000000000004</v>
+        <v>29.272320000000001</v>
       </c>
       <c r="P23" s="186"/>
       <c r="Q23" s="186" t="s">
@@ -8773,8 +8773,8 @@
         <f t="shared" si="15"/>
         <v>4.939185199641144E-2</v>
       </c>
-      <c r="V23" s="227">
-        <v>0.25</v>
+      <c r="V23" s="207">
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="O24" s="196">
         <f>(Data!N53/1000)*(1+V24)</f>
-        <v>39.02976000000001</v>
+        <v>32.931360000000005</v>
       </c>
       <c r="P24" s="186"/>
       <c r="Q24" s="197" t="s">
@@ -8841,8 +8841,8 @@
         <f t="shared" si="15"/>
         <v>5.2917082120671262E-2</v>
       </c>
-      <c r="V24" s="227">
-        <v>0.6</v>
+      <c r="V24" s="207">
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -9115,33 +9115,33 @@
   <sheetData>
     <row r="1" spans="3:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L2" s="221" t="s">
+      <c r="L2" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="221" t="s">
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="222" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="221" t="s">
+      <c r="P2" s="223"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="222" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
       <c r="AD2" s="102" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="3:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="221" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
       <c r="L3" s="72" t="s">
         <v>157</v>
       </c>
@@ -10779,40 +10779,40 @@
       <c r="A29" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="225" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="224" t="s">
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="225" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="218" t="s">
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="227"/>
+      <c r="M29" s="219" t="s">
         <v>182</v>
       </c>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="218" t="s">
+      <c r="N29" s="220"/>
+      <c r="O29" s="220"/>
+      <c r="P29" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="Q29" s="219"/>
-      <c r="R29" s="219"/>
-      <c r="S29" s="218" t="s">
+      <c r="Q29" s="220"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="219"/>
-      <c r="U29" s="219"/>
-      <c r="V29" s="218" t="s">
+      <c r="T29" s="220"/>
+      <c r="U29" s="220"/>
+      <c r="V29" s="219" t="s">
         <v>184</v>
       </c>
-      <c r="W29" s="219"/>
-      <c r="X29" s="219"/>
+      <c r="W29" s="220"/>
+      <c r="X29" s="220"/>
     </row>
     <row r="30" spans="1:42" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="100" t="s">
